--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8F72E-CAD1-408E-93FC-E1DB7790E58E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{C5E8F72E-CAD1-408E-93FC-E1DB7790E58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8D78BD2-10E6-4E4A-B3D9-59F1F7505290}"/>
   <bookViews>
     <workbookView xWindow="450" yWindow="285" windowWidth="20160" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,55 +11,57 @@
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_06B4DFBD_5C79_4F68_BC65_4B644EFEC328_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_13300026_52A2_4B1C_AF85_0E595E74FA6A_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$42</definedName>
-    <definedName name="Z_13C6CEA1_A12C_4A33_89F7_C42E7D2D6F4C_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_1E55FDE8_1C28_486A_8B3E_42FD0F6C2C5B_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_21FBC5F9_AF3B_4473_989A_86C5A84F6064_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_2A20DDA5_C3AD_45D2_BBAE_7EF4CAD0D0A5_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_2BF0F97D_4AD0_498E_8187_CCDEB4673F6D_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_343C42DD_9251_44B2_B0A9_CFBACE255501_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_350595A1_4547_4664_AC00_794421130F85_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_3CA9D375_79FE_4C19_8F1E_68AB9CB3823D_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_408C9ACA_7488_4C10_BEC8_7E0F9F73D3C5_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_433F3EDA_51A7_4B49_958B_0F012875F8AF_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_49C0C027_3D46_416E_A323_D42EDEBD532E_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_4A2E4620_325F_4662_9CE6_35123314BFF4_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_51ABB13D_24EE_492B_9521_A374D8294F91_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_56E77848_89DE_4B72_90E9_E70847C5962A_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_5E0394B4_808B_4DAA_BA0F_DD6C2B48C4D4_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_60BF0A44_7051_4FB3_B37F_E5E315AEAC61_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_65B35576_6CD8_4479_932B_8D8438F861BA_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_6A99DAE4_A408_4B3C_9280_F3C47F95A0B1_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_6AF7E15C_8C49_48EA_9BDC_7A0EEE79AE24_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_73FF8A18_079E_4A14_99B3_579F6590DC13_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_7AE0FA4E_81C9_45EC_B2DB_C6247E14F5E0_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_8A4B12B4_91D3_4448_8425_504FF29E5A65_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_8E7AE198_3EE8_4BDE_ADE2_A63493790568_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_8FA1161B_E5C7_4B98_A276_09F3AC74935B_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_945DB674_08BC_4253_A681_8916477CFC31_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_AF8318F2_2F54_4A3D_B99D_64D1544042E4_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_C20D0F0B_6490_48F9_9B43_65E5CF186637_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_C2BF16E1_7AFA_43D9_AD3E_7077A0E61F43_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_C44183A6_D8EF_40F3_8BE1_8B99DF4211BA_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_C4CDCC8E_83D2_43EC_AE5F_18F8961A982A_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_C8D5D480_2A49_40BE_B7A6_454EA23640FF_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_D1EAD80E_E4BF_4EBC_BAEB_CAB23319AEE9_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_D5EBC936_A13E_4C94_82B6_E58FEDF178A0_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_DDCCCC0A_A081_4F8C_9525_39840C27F342_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_DF660335_9F5E_4A1D_B503_E1BBFDACAE7F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_E065FE35_0834_4DD0_B998_91253A3BB47D_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_E7CD2CEA_4573_49C3_BCAB_C3B229B6682B_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
-    <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_06B4DFBD_5C79_4F68_BC65_4B644EFEC328_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_13300026_52A2_4B1C_AF85_0E595E74FA6A_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$34</definedName>
+    <definedName name="Z_13C6CEA1_A12C_4A33_89F7_C42E7D2D6F4C_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_1E55FDE8_1C28_486A_8B3E_42FD0F6C2C5B_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_21FBC5F9_AF3B_4473_989A_86C5A84F6064_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_2A20DDA5_C3AD_45D2_BBAE_7EF4CAD0D0A5_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_2BF0F97D_4AD0_498E_8187_CCDEB4673F6D_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_343C42DD_9251_44B2_B0A9_CFBACE255501_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_350595A1_4547_4664_AC00_794421130F85_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_3CA9D375_79FE_4C19_8F1E_68AB9CB3823D_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_408C9ACA_7488_4C10_BEC8_7E0F9F73D3C5_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_433F3EDA_51A7_4B49_958B_0F012875F8AF_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_49C0C027_3D46_416E_A323_D42EDEBD532E_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_4A2E4620_325F_4662_9CE6_35123314BFF4_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_51ABB13D_24EE_492B_9521_A374D8294F91_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_56E77848_89DE_4B72_90E9_E70847C5962A_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_5E0394B4_808B_4DAA_BA0F_DD6C2B48C4D4_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_60BF0A44_7051_4FB3_B37F_E5E315AEAC61_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_65B35576_6CD8_4479_932B_8D8438F861BA_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_6A99DAE4_A408_4B3C_9280_F3C47F95A0B1_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_6AF7E15C_8C49_48EA_9BDC_7A0EEE79AE24_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_73FF8A18_079E_4A14_99B3_579F6590DC13_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_7AE0FA4E_81C9_45EC_B2DB_C6247E14F5E0_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_8A4B12B4_91D3_4448_8425_504FF29E5A65_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_8E7AE198_3EE8_4BDE_ADE2_A63493790568_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_8FA1161B_E5C7_4B98_A276_09F3AC74935B_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_945DB674_08BC_4253_A681_8916477CFC31_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_AF8318F2_2F54_4A3D_B99D_64D1544042E4_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_C20D0F0B_6490_48F9_9B43_65E5CF186637_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_C2BF16E1_7AFA_43D9_AD3E_7077A0E61F43_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_C44183A6_D8EF_40F3_8BE1_8B99DF4211BA_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_C4CDCC8E_83D2_43EC_AE5F_18F8961A982A_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_C8D5D480_2A49_40BE_B7A6_454EA23640FF_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_D1EAD80E_E4BF_4EBC_BAEB_CAB23319AEE9_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_D5EBC936_A13E_4C94_82B6_E58FEDF178A0_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_DDCCCC0A_A081_4F8C_9525_39840C27F342_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_DF660335_9F5E_4A1D_B503_E1BBFDACAE7F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_E065FE35_0834_4DD0_B998_91253A3BB47D_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_E7CD2CEA_4573_49C3_BCAB_C3B229B6682B_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
+    <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,14 +96,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -387,6 +389,42 @@
       <t>ゲツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求分析のレビューも同時に実施</t>
+  </si>
+  <si>
+    <t>横井</t>
+  </si>
+  <si>
+    <t>浜崎</t>
+  </si>
+  <si>
+    <t>今竹</t>
+  </si>
+  <si>
+    <t>鈴木</t>
+  </si>
+  <si>
+    <t>今竹、栢沼</t>
+  </si>
+  <si>
+    <t>難易度調整も考慮した、テストケースを作成</t>
+  </si>
+  <si>
+    <t>栢沼</t>
+  </si>
+  <si>
+    <t>鈴木、浜崎</t>
+  </si>
+  <si>
+    <t>横井、栢沼、今竹</t>
+  </si>
+  <si>
+    <t>栢沼、今竹、鈴木</t>
+  </si>
+  <si>
+    <t>浜崎、横井、栢沼</t>
   </si>
 </sst>
 </file>
@@ -397,7 +435,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -495,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1130,11 +1168,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,6 +1337,69 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1296,223 +1412,152 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2063,10 +2108,10 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N119" sqref="N119"/>
+      <selection pane="bottomRight" activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2081,121 +2126,121 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A1" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="85">
+      <c r="L1" s="54">
         <v>43993</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="85">
+      <c r="M1" s="55"/>
+      <c r="N1" s="54">
         <v>43994</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="85">
+      <c r="O1" s="55"/>
+      <c r="P1" s="54">
         <v>43997</v>
       </c>
-      <c r="Q1" s="86"/>
+      <c r="Q1" s="55"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="87" t="s">
+    <row r="2" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="87" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="87" t="s">
+      <c r="O2" s="57"/>
+      <c r="P2" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="88"/>
+      <c r="Q2" s="57"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="89" t="s">
+    <row r="3" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="89"/>
+      <c r="Q3" s="58"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="101"/>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2219,16 +2264,16 @@
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="95"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2239,31 +2284,31 @@
         <v>5</v>
       </c>
       <c r="K5" s="38">
-        <f>SUM(K7,K23,K43)</f>
-        <v>0</v>
+        <f>SUM(K7,K23,K35)</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L5" s="17">
-        <f>SUM(L7,L23,L43,L61,L79,L87,L101)</f>
+        <f>SUM(L7,L23,L35,L53,L71,L79,L93)</f>
         <v>0</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="M5:Q5" si="0">SUM(M7,M23,M43,M61,M79,M87,L101)</f>
-        <v>0</v>
+        <f>SUM(M7,M23,M35,M53,M71,M79,L93)</f>
+        <v>2.66</v>
       </c>
       <c r="N5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(N7,N23,N35,N53,N71,N79,M93)</f>
+        <v>10.039999999999999</v>
       </c>
       <c r="O5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(O7,O23,O35,O53,O71,O79,N93)</f>
+        <v>15.66</v>
       </c>
       <c r="P5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(P7,P23,P35,P53,P71,P79,P93)</f>
+        <v>9.98</v>
       </c>
       <c r="Q5" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(Q7,Q23,Q35,Q53,Q71,Q79,Q93)</f>
         <v>0</v>
       </c>
       <c r="R5" s="45"/>
@@ -2271,14 +2316,14 @@
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="96"/>
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2287,31 +2332,31 @@
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="40">
-        <f>SUM(K8,K24,K44)</f>
-        <v>0</v>
+        <f>SUM(K8,K24,K36)</f>
+        <v>0.1</v>
       </c>
       <c r="L6" s="28">
-        <f t="shared" ref="L6:Q6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
+        <f>SUM(L8,L24,L36,L54,L72,L80,L94)</f>
         <v>0</v>
       </c>
       <c r="M6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M8,M24,M36,M54,M72,M80,M94)</f>
+        <v>0.1</v>
       </c>
       <c r="N6" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(N8,N24,N36,N54,N72,N80,N94)</f>
         <v>0</v>
       </c>
       <c r="O6" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
         <v>0</v>
       </c>
       <c r="P6" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(P8,P24,P36,P54,P72,P80,P94)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="28">
-        <f t="shared" si="1"/>
+        <f>SUM(Q8,Q24,Q36,Q54,Q72,Q80,Q94)</f>
         <v>0</v>
       </c>
       <c r="R6" s="45"/>
@@ -2319,16 +2364,16 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="120"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2337,31 +2382,31 @@
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="14">
-        <f t="shared" ref="K7:O7" si="2">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=1)*K$9:K$22)</f>
-        <v>0</v>
+        <f t="shared" ref="K7:O7" si="0">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=1)*K$9:K$22)</f>
+        <v>5.32</v>
       </c>
       <c r="L7" s="29">
         <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>0</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.66</v>
       </c>
       <c r="N7" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.66</v>
       </c>
       <c r="O7" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="29">
-        <f t="shared" ref="P7:Q7" si="3">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=1)*P$9:P$22)</f>
+        <f t="shared" ref="P7:Q7" si="1">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=1)*P$9:P$22)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7" s="45"/>
@@ -2369,14 +2414,14 @@
       <c r="T7" s="45"/>
       <c r="U7" s="45"/>
     </row>
-    <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="121"/>
+    <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2385,31 +2430,31 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="15">
-        <f t="shared" ref="K8:O8" si="4">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>0</v>
+        <f t="shared" ref="K8:O8" si="2">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
+        <v>0.1</v>
       </c>
       <c r="L8" s="30">
         <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
         <v>0</v>
       </c>
       <c r="M8" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="N8" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="30">
-        <f t="shared" ref="P8:Q8" si="5">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=0)*P$9:P$22)</f>
+        <f t="shared" ref="P8:Q8" si="3">SUMPRODUCT((MOD(ROW(P$9:P$22),2)=0)*P$9:P$22)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R8" s="45"/>
@@ -2417,18 +2462,18 @@
       <c r="T8" s="45"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="105">
+    <row r="9" spans="1:21" ht="12" customHeight="1">
+      <c r="A9" s="68">
         <v>1</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="73"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2444,14 +2489,14 @@
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="74"/>
+    <row r="10" spans="1:21" ht="12" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2467,34 +2512,40 @@
       <c r="T10" s="45"/>
       <c r="U10" s="45"/>
     </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="105"/>
-      <c r="B11" s="70" t="s">
+    <row r="11" spans="1:21" ht="12" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="64" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
       <c r="K11" s="9">
         <f>SUM(L11:O11)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="M11" s="31">
+        <v>0.16</v>
+      </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="41"/>
@@ -2504,14 +2555,14 @@
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
     </row>
-    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="67"/>
+    <row r="12" spans="1:21" ht="12" customHeight="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2520,10 +2571,12 @@
       <c r="J12" s="49"/>
       <c r="K12" s="10">
         <f>SUM(L12:O12)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="32">
+        <v>0.1</v>
+      </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="42"/>
@@ -2533,34 +2586,40 @@
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="105"/>
-      <c r="B13" s="70" t="s">
+    <row r="13" spans="1:21" ht="12" customHeight="1">
+      <c r="A13" s="68"/>
+      <c r="B13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="66"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="61"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
       <c r="K13" s="9">
         <f>SUM(L13:O13)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="M13" s="31">
+        <v>2.5</v>
+      </c>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="41"/>
@@ -2570,14 +2629,14 @@
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="67"/>
+    <row r="14" spans="1:21" ht="12" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2599,18 +2658,18 @@
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="105">
+    <row r="15" spans="1:21" ht="12" customHeight="1">
+      <c r="A15" s="68">
         <v>2</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="73"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2629,14 +2688,14 @@
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
     </row>
-    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="106"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="74"/>
+    <row r="16" spans="1:21" ht="12" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2655,35 +2714,39 @@
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="105"/>
-      <c r="B17" s="70" t="s">
+    <row r="17" spans="1:21" ht="12" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="64" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="66"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K21" si="6">SUM(L17:O17)</f>
-        <v>0</v>
+        <f t="shared" ref="K17:K21" si="4">SUM(L17:O17)</f>
+        <v>1.25</v>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="N17" s="31">
+        <v>1.25</v>
+      </c>
       <c r="O17" s="31"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -2692,14 +2755,14 @@
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="106"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="67"/>
+    <row r="18" spans="1:21" ht="12" customHeight="1">
+      <c r="A18" s="69"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2707,7 +2770,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="49"/>
       <c r="K18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18" s="31"/>
@@ -2721,35 +2784,39 @@
       <c r="T18" s="45"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1">
+      <c r="A19" s="74"/>
+      <c r="B19" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="61" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="63"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="123"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="I19" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="43">
+        <v>5</v>
+      </c>
       <c r="K19" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.25</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="N19" s="41">
+        <v>1.25</v>
+      </c>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="41"/>
@@ -2758,14 +2825,14 @@
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="56"/>
+    <row r="20" spans="1:21" ht="12" customHeight="1">
+      <c r="A20" s="75"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2773,7 +2840,7 @@
       <c r="I20" s="43"/>
       <c r="J20" s="50"/>
       <c r="K20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="41"/>
@@ -2787,35 +2854,39 @@
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="105"/>
-      <c r="B21" s="70" t="s">
+    <row r="21" spans="1:21" ht="12" customHeight="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="64" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="66"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
       <c r="K21" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.16</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="N21" s="31">
+        <v>0.16</v>
+      </c>
       <c r="O21" s="31"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -2824,14 +2895,14 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="106"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="67"/>
+    <row r="22" spans="1:21" ht="12" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -2853,47 +2924,47 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
     </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:21" ht="12" customHeight="1">
+      <c r="A23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="83"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="117"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="48">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>0</v>
+        <f>SUMPRODUCT((MOD(ROW(K$25:K$34),2)=1)*K$25:K$34)</f>
+        <v>1.42</v>
       </c>
       <c r="L23" s="33">
-        <f t="shared" ref="L23:O23" si="7">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
+        <f>SUMPRODUCT((MOD(ROW(L$25:L$34),2)=1)*L$25:L$34)</f>
         <v>0</v>
       </c>
       <c r="M23" s="33">
-        <f t="shared" si="7"/>
+        <f>SUMPRODUCT((MOD(ROW(M$25:M$34),2)=1)*M$25:M$34)</f>
         <v>0</v>
       </c>
       <c r="N23" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUMPRODUCT((MOD(ROW(N$25:N$34),2)=1)*N$25:N$34)</f>
+        <v>1.42</v>
       </c>
       <c r="O23" s="33">
-        <f t="shared" si="7"/>
+        <f>SUMPRODUCT((MOD(ROW(O$25:O$34),2)=1)*O$25:O$34)</f>
         <v>0</v>
       </c>
       <c r="P23" s="33">
-        <f t="shared" ref="P23:Q23" si="8">SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
+        <f>SUMPRODUCT((MOD(ROW(P$25:P$34),2)=1)*P$25:P$34)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="33">
-        <f t="shared" si="8"/>
+        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$34),2)=1)*Q$25:Q$34)</f>
         <v>0</v>
       </c>
       <c r="R23" s="45"/>
@@ -2901,45 +2972,45 @@
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
     </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="84"/>
+    <row r="24" spans="1:21" ht="12" customHeight="1">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="118"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f t="shared" ref="K24:O24" si="9">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f>SUMPRODUCT((MOD(ROW(K$25:K$34),2)=0)*K$25:K$34)</f>
         <v>0</v>
       </c>
       <c r="L24" s="30">
-        <f t="shared" si="9"/>
+        <f>SUMPRODUCT((MOD(ROW(L$25:L$34),2)=0)*L$25:L$34)</f>
         <v>0</v>
       </c>
       <c r="M24" s="34">
-        <f t="shared" si="9"/>
+        <f>SUMPRODUCT((MOD(ROW(M$25:M$34),2)=0)*M$25:M$34)</f>
         <v>0</v>
       </c>
       <c r="N24" s="30">
-        <f t="shared" si="9"/>
+        <f>SUMPRODUCT((MOD(ROW(N$25:N$34),2)=0)*N$25:N$34)</f>
         <v>0</v>
       </c>
       <c r="O24" s="34">
-        <f t="shared" si="9"/>
+        <f>SUMPRODUCT((MOD(ROW(O$25:O$34),2)=0)*O$25:O$34)</f>
         <v>0</v>
       </c>
       <c r="P24" s="30">
-        <f t="shared" ref="P24:Q24" si="10">SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
+        <f>SUMPRODUCT((MOD(ROW(P$25:P$34),2)=0)*P$25:P$34)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="34">
-        <f t="shared" si="10"/>
+        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$34),2)=0)*Q$25:Q$34)</f>
         <v>0</v>
       </c>
       <c r="R24" s="45"/>
@@ -2947,18 +3018,18 @@
       <c r="T24" s="45"/>
       <c r="U24" s="45"/>
     </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="105">
+    <row r="25" spans="1:21" ht="12" customHeight="1">
+      <c r="A25" s="68">
         <v>1</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="73"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -2977,14 +3048,14 @@
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
     </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="106"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="74"/>
+    <row r="26" spans="1:21" ht="12" customHeight="1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3003,35 +3074,39 @@
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
     </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="105"/>
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:21" ht="12" customHeight="1">
+      <c r="A27" s="68"/>
+      <c r="B27" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="66"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
       <c r="K27" s="9">
-        <f t="shared" ref="K27:K34" si="11">SUM(L27:O27)</f>
-        <v>0</v>
+        <f t="shared" ref="K27:K34" si="5">SUM(L27:O27)</f>
+        <v>0.1</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
+      <c r="N27" s="31">
+        <v>0.1</v>
+      </c>
       <c r="O27" s="31"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
@@ -3040,14 +3115,14 @@
       <c r="T27" s="45"/>
       <c r="U27" s="45"/>
     </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="106"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="67"/>
+    <row r="28" spans="1:21" ht="12" customHeight="1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3055,7 +3130,7 @@
       <c r="I28" s="43"/>
       <c r="J28" s="49"/>
       <c r="K28" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L28" s="32"/>
@@ -3069,35 +3144,39 @@
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
     </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="105"/>
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="1:21" ht="12" customHeight="1">
+      <c r="A29" s="68"/>
+      <c r="B29" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="66"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="8"/>
+      <c r="I29" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
       <c r="K29" s="9">
         <f>SUM(L29:O29)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
+      <c r="N29" s="31">
+        <v>0.16</v>
+      </c>
       <c r="O29" s="31"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="41"/>
@@ -3106,14 +3185,14 @@
       <c r="T29" s="45"/>
       <c r="U29" s="45"/>
     </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="106"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="67"/>
+    <row r="30" spans="1:21" ht="12" customHeight="1">
+      <c r="A30" s="69"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3121,7 +3200,7 @@
       <c r="I30" s="43"/>
       <c r="J30" s="49"/>
       <c r="K30" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="32"/>
@@ -3135,35 +3214,39 @@
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
     </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="105"/>
-      <c r="B31" s="70" t="s">
+    <row r="31" spans="1:21" ht="12" customHeight="1">
+      <c r="A31" s="68"/>
+      <c r="B31" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="66"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
       <c r="K31" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.16</v>
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="N31" s="31">
+        <v>0.16</v>
+      </c>
       <c r="O31" s="31"/>
       <c r="P31" s="41"/>
       <c r="Q31" s="41"/>
@@ -3172,14 +3255,14 @@
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
     </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="106"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="67"/>
+    <row r="32" spans="1:21" ht="12" customHeight="1">
+      <c r="A32" s="69"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3187,7 +3270,7 @@
       <c r="I32" s="51"/>
       <c r="J32" s="49"/>
       <c r="K32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="32"/>
@@ -3201,35 +3284,41 @@
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
     </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="105"/>
-      <c r="B33" s="70" t="s">
+    <row r="33" spans="1:21" ht="12" customHeight="1">
+      <c r="A33" s="68"/>
+      <c r="B33" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="66"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="61" t="s">
+        <v>68</v>
+      </c>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="8"/>
+      <c r="I33" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="8">
+        <v>2</v>
+      </c>
       <c r="K33" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="31">
+        <v>1</v>
+      </c>
       <c r="O33" s="31"/>
       <c r="P33" s="41"/>
       <c r="Q33" s="41"/>
@@ -3238,14 +3327,14 @@
       <c r="T33" s="45"/>
       <c r="U33" s="45"/>
     </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="106"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="67"/>
+    <row r="34" spans="1:21" ht="12" customHeight="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3253,7 +3342,7 @@
       <c r="I34" s="51"/>
       <c r="J34" s="49"/>
       <c r="K34" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="32"/>
@@ -3267,88 +3356,119 @@
       <c r="T34" s="45"/>
       <c r="U34" s="45"/>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="105">
-        <v>2</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="24" t="str">
-        <f>IF(E35="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
+    <row r="35" spans="1:21" ht="12" customHeight="1">
+      <c r="A35" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="48" cm="1">
+        <f t="array" ref="K35">SUMPRODUCT((MOD(ROW(K$37:K$52),2)=1)*K$37:K$52)</f>
+        <v>2.96</v>
+      </c>
+      <c r="L35" s="33">
+        <f t="shared" ref="L35:O35" si="6">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=1)*L$37:L$52)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <f t="shared" si="6"/>
+        <v>2.96</v>
+      </c>
+      <c r="O35" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="33">
+        <f t="shared" ref="P35:Q35" si="7">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=1)*P$37:P$52)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="106"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="25" t="str">
-        <f>IF(E35="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
+    <row r="36" spans="1:21" ht="12" customHeight="1">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="52">
+        <f>SUMPRODUCT((MOD(ROW(K$37:K$52),2)=0)*K$37:K$52)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="30">
+        <f t="shared" ref="L36:O36" si="8">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=0)*L$37:L$52)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="30">
+        <f t="shared" ref="P36:Q36" si="9">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=0)*P$37:P$52)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R36" s="45"/>
       <c r="S36" s="45"/>
       <c r="T36" s="45"/>
       <c r="U36" s="45"/>
     </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="105"/>
+    <row r="37" spans="1:21" ht="12" customHeight="1">
+      <c r="A37" s="68">
+        <v>1</v>
+      </c>
       <c r="B37" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="8" t="str">
+        <v>18</v>
+      </c>
+      <c r="C37" s="88"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="9">
-        <f t="shared" ref="K37:K42" si="12">SUM(L37:O37)</f>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="26"/>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
@@ -3360,26 +3480,23 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
     </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="106"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="49" t="str">
+    <row r="38" spans="1:21" ht="12" customHeight="1">
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="27"/>
       <c r="L38" s="32"/>
-      <c r="M38" s="31"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="32"/>
       <c r="O38" s="32"/>
       <c r="P38" s="42"/>
@@ -3389,35 +3506,39 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
     </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="53"/>
-      <c r="B39" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="63"/>
+    <row r="39" spans="1:21" ht="12" customHeight="1">
+      <c r="A39" s="74"/>
+      <c r="B39" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="71"/>
+      <c r="E39" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="78"/>
+      <c r="G39" s="123"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="I39" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="43">
+        <v>1</v>
+      </c>
       <c r="K39" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="K39:K44" si="10">SUM(L39:O39)</f>
+        <v>0.1</v>
       </c>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="N39" s="41">
+        <v>0.1</v>
+      </c>
       <c r="O39" s="41"/>
       <c r="P39" s="41"/>
       <c r="Q39" s="41"/>
@@ -3426,14 +3547,14 @@
       <c r="T39" s="45"/>
       <c r="U39" s="45"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="56"/>
+    <row r="40" spans="1:21" ht="12" customHeight="1">
+      <c r="A40" s="75"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3441,7 +3562,7 @@
       <c r="I40" s="43"/>
       <c r="J40" s="50"/>
       <c r="K40" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L40" s="42"/>
@@ -3455,35 +3576,39 @@
       <c r="T40" s="45"/>
       <c r="U40" s="45"/>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="105"/>
-      <c r="B41" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="66"/>
+    <row r="41" spans="1:21" ht="12" customHeight="1">
+      <c r="A41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="59"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
       <c r="K41" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.1</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
+      <c r="N41" s="31">
+        <v>0.1</v>
+      </c>
       <c r="O41" s="31"/>
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
@@ -3492,14 +3617,14 @@
       <c r="T41" s="45"/>
       <c r="U41" s="45"/>
     </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="106"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="67"/>
+    <row r="42" spans="1:21" ht="12" customHeight="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="62"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3507,7 +3632,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="49"/>
       <c r="K42" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L42" s="32"/>
@@ -3521,112 +3646,88 @@
       <c r="T42" s="45"/>
       <c r="U42" s="45"/>
     </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="48" cm="1">
-        <f t="array" ref="K43">SUMPRODUCT((MOD(ROW(K$45:K$60),2)=1)*K$45:K$60)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="33">
-        <f t="shared" ref="L43:O43" si="13">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=1)*L$45:L$60)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="33">
-        <f t="shared" ref="P43:Q43" si="14">SUMPRODUCT((MOD(ROW(P$45:P$60),2)=1)*P$45:P$60)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+    <row r="43" spans="1:21" ht="12" customHeight="1">
+      <c r="A43" s="74"/>
+      <c r="B43" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="78"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="43" t="str">
+        <f>IF(E43="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
       <c r="R43" s="45"/>
       <c r="S43" s="45"/>
       <c r="T43" s="45"/>
       <c r="U43" s="45"/>
     </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="52">
-        <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="30">
-        <f t="shared" ref="L44:O44" si="15">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="30">
-        <f t="shared" ref="P44:Q44" si="16">SUMPRODUCT((MOD(ROW(P$45:P$60),2)=0)*P$45:P$60)</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+    <row r="44" spans="1:21" ht="12" customHeight="1">
+      <c r="A44" s="75"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="50" t="str">
+        <f>IF(E43="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
       <c r="R44" s="45"/>
       <c r="S44" s="45"/>
       <c r="T44" s="45"/>
       <c r="U44" s="45"/>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="105">
-        <v>1</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="73"/>
+    <row r="45" spans="1:21" ht="12" customHeight="1">
+      <c r="A45" s="68">
+        <v>2</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="88"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="63"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3645,14 +3746,14 @@
       <c r="T45" s="45"/>
       <c r="U45" s="45"/>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="106"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="74"/>
+    <row r="46" spans="1:21" ht="12" customHeight="1">
+      <c r="A46" s="69"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="64"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3671,36 +3772,42 @@
       <c r="T46" s="45"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="53"/>
-      <c r="B47" s="55" t="s">
+    <row r="47" spans="1:21" ht="12" customHeight="1">
+      <c r="A47" s="68"/>
+      <c r="B47" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="43" t="str">
+      <c r="C47" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="71"/>
+      <c r="E47" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
+      <c r="I47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="8">
+        <v>5</v>
+      </c>
       <c r="K47" s="9">
-        <f t="shared" ref="K47:K52" si="17">SUM(L47:O47)</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
+        <f>SUM(L47:O47)</f>
+        <v>1.25</v>
+      </c>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="O47" s="31"/>
       <c r="P47" s="41"/>
       <c r="Q47" s="41"/>
       <c r="R47" s="45"/>
@@ -3708,28 +3815,28 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="54"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="50" t="str">
+    <row r="48" spans="1:21" ht="12" customHeight="1">
+      <c r="A48" s="69"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="50"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+        <f>SUM(L48:O48)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
+      <c r="O48" s="32"/>
       <c r="P48" s="42"/>
       <c r="Q48" s="42"/>
       <c r="R48" s="45"/>
@@ -3737,35 +3844,39 @@
       <c r="T48" s="45"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="105"/>
-      <c r="B49" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="66"/>
+    <row r="49" spans="1:21" ht="12" customHeight="1">
+      <c r="A49" s="68"/>
+      <c r="B49" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="I49" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="8">
+        <v>5</v>
+      </c>
       <c r="K49" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>SUM(L49:O49)</f>
+        <v>1</v>
       </c>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
+      <c r="N49" s="41">
+        <v>1</v>
+      </c>
       <c r="O49" s="31"/>
       <c r="P49" s="41"/>
       <c r="Q49" s="41"/>
@@ -3774,14 +3885,14 @@
       <c r="T49" s="45"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="106"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="67"/>
+    <row r="50" spans="1:21" ht="12" customHeight="1">
+      <c r="A50" s="69"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="62"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -3789,13 +3900,13 @@
       <c r="I50" s="8"/>
       <c r="J50" s="49"/>
       <c r="K50" s="10">
-        <f t="shared" si="17"/>
+        <f>SUM(L50:O50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="32"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
       <c r="P50" s="42"/>
       <c r="Q50" s="42"/>
       <c r="R50" s="45"/>
@@ -3803,36 +3914,40 @@
       <c r="T50" s="45"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="53"/>
-      <c r="B51" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="61" t="s">
+    <row r="51" spans="1:21" ht="12" customHeight="1">
+      <c r="A51" s="68"/>
+      <c r="B51" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="43" t="str">
+      <c r="F51" s="59"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
+      <c r="I51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="8">
+        <v>1</v>
+      </c>
       <c r="K51" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
+        <f>SUM(L51:O51)</f>
+        <v>0.16</v>
+      </c>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="O51" s="31"/>
       <c r="P51" s="41"/>
       <c r="Q51" s="41"/>
       <c r="R51" s="45"/>
@@ -3840,121 +3955,152 @@
       <c r="T51" s="45"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="54"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="50" t="str">
+    <row r="52" spans="1:21" ht="12" customHeight="1">
+      <c r="A52" s="69"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I52" s="8"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="49"/>
       <c r="K52" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
+        <f t="shared" ref="K52" si="11">SUM(L52:O52)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
       <c r="R52" s="45"/>
       <c r="S52" s="45"/>
       <c r="T52" s="45"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="105">
-        <v>2</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="24" t="str">
-        <f>IF(E53="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
+    <row r="53" spans="1:21" ht="12" customHeight="1">
+      <c r="A53" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="47" cm="1">
+        <f t="array" ref="K53">SUMPRODUCT((MOD(ROW(K$55:K$70),2)=1)*K$55:K$70)</f>
+        <v>9.66</v>
+      </c>
+      <c r="L53" s="46" cm="1">
+        <f t="array" ref="L53">SUMPRODUCT((MOD(ROW(L$55:L$70),2)=1)*L$55:L$70)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="46" cm="1">
+        <f t="array" ref="M53">SUMPRODUCT((MOD(ROW(M$55:M$70),2)=1)*M$55:M$70)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="46" cm="1">
+        <f t="array" ref="N53">SUMPRODUCT((MOD(ROW(N$55:N$70),2)=1)*N$55:N$70)</f>
+        <v>3</v>
+      </c>
+      <c r="O53" s="46" cm="1">
+        <f t="array" ref="O53">SUMPRODUCT((MOD(ROW(O$55:O$70),2)=1)*O$55:O$70)</f>
+        <v>6.66</v>
+      </c>
+      <c r="P53" s="46" cm="1">
+        <f t="array" ref="P53">SUMPRODUCT((MOD(ROW(P$55:P$70),2)=1)*P$55:P$70)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="46" cm="1">
+        <f t="array" ref="Q53">SUMPRODUCT((MOD(ROW(Q$55:Q$70),2)=1)*Q$55:Q$70)</f>
+        <v>0</v>
+      </c>
       <c r="R53" s="45"/>
       <c r="S53" s="45"/>
       <c r="T53" s="45"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="106"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="25" t="str">
-        <f>IF(E53="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
+    <row r="54" spans="1:21" ht="12" customHeight="1">
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="48">
+        <f>SUMPRODUCT((MOD(ROW(K$55:K$70),2)=0)*K$55:K$70)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="21" cm="1">
+        <f t="array" ref="L54">SUMPRODUCT((MOD(ROW(L$55:L$70),2)=0)*L$55:L$70)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="21" cm="1">
+        <f t="array" ref="M54">SUMPRODUCT((MOD(ROW(M$55:M$70),2)=0)*M$55:M$70)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="21" cm="1">
+        <f t="array" ref="N54">SUMPRODUCT((MOD(ROW(N$55:N$70),2)=0)*N$55:N$70)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="21" cm="1">
+        <f t="array" ref="O54">SUMPRODUCT((MOD(ROW(O$55:O$70),2)=0)*O$55:O$70)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="21" cm="1">
+        <f t="array" ref="P54">SUMPRODUCT((MOD(ROW(P$55:P$70),2)=0)*P$55:P$70)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="21" cm="1">
+        <f t="array" ref="Q54">SUMPRODUCT((MOD(ROW(Q$55:Q$70),2)=0)*Q$55:Q$70)</f>
+        <v>0</v>
+      </c>
       <c r="R54" s="45"/>
       <c r="S54" s="45"/>
       <c r="T54" s="45"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="105"/>
+    <row r="55" spans="1:21" ht="12" customHeight="1">
+      <c r="A55" s="74">
+        <v>1</v>
+      </c>
       <c r="B55" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" s="66"/>
-      <c r="H55" s="8" t="str">
+        <v>18</v>
+      </c>
+      <c r="C55" s="88"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="9">
-        <f>SUM(L55:O55)</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
+        <v/>
+      </c>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
       <c r="N55" s="41"/>
-      <c r="O55" s="31"/>
+      <c r="O55" s="41"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
       <c r="R55" s="45"/>
@@ -3962,28 +4108,25 @@
       <c r="T55" s="45"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="106"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="49" t="str">
+    <row r="56" spans="1:21" ht="12" customHeight="1">
+      <c r="A56" s="75"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="10">
-        <f>SUM(L56:O56)</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
+        <v/>
+      </c>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
       <c r="N56" s="42"/>
-      <c r="O56" s="32"/>
+      <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
       <c r="R56" s="45"/>
@@ -3991,36 +4134,42 @@
       <c r="T56" s="45"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="105"/>
-      <c r="B57" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="8" t="str">
+    <row r="57" spans="1:21" ht="12" customHeight="1">
+      <c r="A57" s="74"/>
+      <c r="B57" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="78"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I57" s="43"/>
-      <c r="J57" s="8"/>
+      <c r="I57" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="43">
+        <v>3</v>
+      </c>
       <c r="K57" s="9">
-        <f>SUM(L57:O57)</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="31"/>
+        <f t="shared" ref="K57:K62" si="12">SUM(L57:Q57)</f>
+        <v>3</v>
+      </c>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41">
+        <v>1</v>
+      </c>
+      <c r="O57" s="41">
+        <v>2</v>
+      </c>
       <c r="P57" s="41"/>
       <c r="Q57" s="41"/>
       <c r="R57" s="45"/>
@@ -4028,26 +4177,26 @@
       <c r="T57" s="45"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="106"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="49" t="str">
+    <row r="58" spans="1:21" ht="12" customHeight="1">
+      <c r="A58" s="75"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="10">
-        <f>SUM(L58:O58)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
       <c r="N58" s="42"/>
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
@@ -4057,36 +4206,42 @@
       <c r="T58" s="45"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="105"/>
-      <c r="B59" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="66"/>
-      <c r="H59" s="8" t="str">
+    <row r="59" spans="1:21" ht="12" customHeight="1">
+      <c r="A59" s="74"/>
+      <c r="B59" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="71"/>
+      <c r="E59" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="78"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="I59" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="43">
+        <v>3</v>
+      </c>
       <c r="K59" s="9">
-        <f>SUM(L59:O59)</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="31"/>
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41">
+        <v>1</v>
+      </c>
+      <c r="O59" s="41">
+        <v>2</v>
+      </c>
       <c r="P59" s="41"/>
       <c r="Q59" s="41"/>
       <c r="R59" s="45"/>
@@ -4094,148 +4249,127 @@
       <c r="T59" s="45"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="106"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="49" t="str">
+    <row r="60" spans="1:21" ht="12" customHeight="1">
+      <c r="A60" s="75"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="10">
-        <f t="shared" ref="K60" si="18">SUM(L60:O60)</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="44"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
       <c r="R60" s="45"/>
       <c r="S60" s="45"/>
       <c r="T60" s="45"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="47" cm="1">
-        <f t="array" ref="K61">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=1)*K$63:K$78)</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="46" cm="1">
-        <f t="array" ref="L61">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=1)*L$63:L$78)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="46" cm="1">
-        <f t="array" ref="M61">SUMPRODUCT((MOD(ROW(M$63:M$78),2)=1)*M$63:M$78)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="46" cm="1">
-        <f t="array" ref="N61">SUMPRODUCT((MOD(ROW(N$63:N$78),2)=1)*N$63:N$78)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="46" cm="1">
-        <f t="array" ref="O61">SUMPRODUCT((MOD(ROW(O$63:O$78),2)=1)*O$63:O$78)</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="46" cm="1">
-        <f t="array" ref="P61">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=1)*P$63:P$78)</f>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="46" cm="1">
-        <f t="array" ref="Q61">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=1)*Q$63:Q$78)</f>
-        <v>0</v>
-      </c>
+    <row r="61" spans="1:21" ht="12" customHeight="1">
+      <c r="A61" s="74"/>
+      <c r="B61" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="71"/>
+      <c r="E61" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="78"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="43" t="str">
+        <f>IF(E61="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I61" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" s="43">
+        <v>2</v>
+      </c>
+      <c r="K61" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41">
+        <v>1</v>
+      </c>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
       <c r="R61" s="45"/>
       <c r="S61" s="45"/>
       <c r="T61" s="45"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="78"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="48">
-        <f>SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="21" cm="1">
-        <f t="array" ref="L62">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=0)*L$63:L$78)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="21" cm="1">
-        <f t="array" ref="M62">SUMPRODUCT((MOD(ROW(M$63:M$78),2)=0)*M$63:M$78)</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="21" cm="1">
-        <f t="array" ref="N62">SUMPRODUCT((MOD(ROW(N$63:N$78),2)=0)*N$63:N$78)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="21" cm="1">
-        <f t="array" ref="O62">SUMPRODUCT((MOD(ROW(O$63:O$78),2)=0)*O$63:O$78)</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="21" cm="1">
-        <f t="array" ref="P62">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=0)*P$63:P$78)</f>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="21" cm="1">
-        <f t="array" ref="Q62">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=0)*Q$63:Q$78)</f>
-        <v>0</v>
-      </c>
+    <row r="62" spans="1:21" ht="12" customHeight="1">
+      <c r="A62" s="75"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="50" t="str">
+        <f>IF(E61="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I62" s="43"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
       <c r="R62" s="45"/>
       <c r="S62" s="45"/>
       <c r="T62" s="45"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="53">
-        <v>1</v>
-      </c>
-      <c r="B63" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="73"/>
+    <row r="63" spans="1:21" ht="12" customHeight="1">
+      <c r="A63" s="74">
+        <v>2</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="88"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="63"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
-      <c r="K63" s="26"/>
+      <c r="K63" s="9">
+        <f t="shared" ref="K63:K79" si="13">SUM(L63:Q63)</f>
+        <v>0</v>
+      </c>
       <c r="L63" s="41"/>
       <c r="M63" s="41"/>
       <c r="N63" s="41"/>
@@ -4247,21 +4381,24 @@
       <c r="T63" s="45"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="54"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="74"/>
+    <row r="64" spans="1:21" ht="12" customHeight="1">
+      <c r="A64" s="75"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="64"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
-      <c r="K64" s="27"/>
+      <c r="K64" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="L64" s="42"/>
       <c r="M64" s="42"/>
       <c r="N64" s="42"/>
@@ -4273,36 +4410,40 @@
       <c r="T64" s="45"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="53"/>
-      <c r="B65" s="55" t="s">
+    <row r="65" spans="1:21" ht="12" customHeight="1">
+      <c r="A65" s="74"/>
+      <c r="B65" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G65" s="63"/>
+      <c r="C65" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="71"/>
+      <c r="E65" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="78"/>
+      <c r="G65" s="123"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
+      <c r="I65" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="43">
+        <v>5</v>
+      </c>
       <c r="K65" s="9">
-        <f>SUM(L65:Q65)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1.25</v>
       </c>
       <c r="L65" s="41"/>
       <c r="M65" s="41"/>
       <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
+      <c r="O65" s="41">
+        <v>1.25</v>
+      </c>
       <c r="P65" s="41"/>
       <c r="Q65" s="41"/>
       <c r="R65" s="45"/>
@@ -4310,14 +4451,14 @@
       <c r="T65" s="45"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="54"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="56"/>
+    <row r="66" spans="1:21" ht="12" customHeight="1">
+      <c r="A66" s="75"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="77"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4325,7 +4466,7 @@
       <c r="I66" s="43"/>
       <c r="J66" s="50"/>
       <c r="K66" s="9">
-        <f>SUM(L66:Q66)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L66" s="42"/>
@@ -4339,36 +4480,40 @@
       <c r="T66" s="45"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="53"/>
-      <c r="B67" s="55" t="s">
+    <row r="67" spans="1:21" ht="12" customHeight="1">
+      <c r="A67" s="74"/>
+      <c r="B67" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G67" s="63"/>
+      <c r="C67" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="71"/>
+      <c r="E67" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="78"/>
+      <c r="G67" s="123"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
+      <c r="I67" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="43">
+        <v>5</v>
+      </c>
       <c r="K67" s="9">
-        <f>SUM(L67:Q67)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1.25</v>
       </c>
       <c r="L67" s="41"/>
       <c r="M67" s="41"/>
       <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
+      <c r="O67" s="41">
+        <v>1.25</v>
+      </c>
       <c r="P67" s="41"/>
       <c r="Q67" s="41"/>
       <c r="R67" s="45"/>
@@ -4376,14 +4521,14 @@
       <c r="T67" s="45"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="54"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="56"/>
+    <row r="68" spans="1:21" ht="12" customHeight="1">
+      <c r="A68" s="75"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="77"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4391,7 +4536,7 @@
       <c r="I68" s="43"/>
       <c r="J68" s="50"/>
       <c r="K68" s="9">
-        <f>SUM(L68:Q68)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L68" s="42"/>
@@ -4405,22 +4550,20 @@
       <c r="T68" s="45"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="53"/>
-      <c r="B69" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="61" t="s">
+    <row r="69" spans="1:21" ht="12" customHeight="1">
+      <c r="A69" s="74"/>
+      <c r="B69" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="63"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="123"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4428,13 +4571,15 @@
       <c r="I69" s="43"/>
       <c r="J69" s="43"/>
       <c r="K69" s="9">
-        <f>SUM(L69:Q69)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>0.16</v>
       </c>
       <c r="L69" s="41"/>
       <c r="M69" s="41"/>
       <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
+      <c r="O69" s="41">
+        <v>0.16</v>
+      </c>
       <c r="P69" s="41"/>
       <c r="Q69" s="41"/>
       <c r="R69" s="45"/>
@@ -4442,121 +4587,151 @@
       <c r="T69" s="45"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="54"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="56"/>
+    <row r="70" spans="1:21" ht="12" customHeight="1">
+      <c r="A70" s="75"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="77"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I70" s="43"/>
+      <c r="I70" s="50"/>
       <c r="J70" s="50"/>
       <c r="K70" s="9">
-        <f>SUM(L70:Q70)</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
       <c r="R70" s="45"/>
       <c r="S70" s="45"/>
       <c r="T70" s="45"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="53">
-        <v>2</v>
-      </c>
-      <c r="B71" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="68"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="24" t="str">
-        <f>IF(E71="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
+    <row r="71" spans="1:21" ht="12" customHeight="1">
+      <c r="A71" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
       <c r="K71" s="9">
-        <f t="shared" ref="K71:K87" si="19">SUM(L71:Q71)</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
+        <f t="shared" si="13"/>
+        <v>12.3</v>
+      </c>
+      <c r="L71" s="46" cm="1">
+        <f t="array" ref="L71">SUMPRODUCT((MOD(ROW(L$73:L$78),2)=1)*L$73:L$78)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="46" cm="1">
+        <f t="array" ref="M71">SUMPRODUCT((MOD(ROW(M$73:M$78),2)=1)*M$73:M$78)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="46" cm="1">
+        <f t="array" ref="N71">SUMPRODUCT((MOD(ROW(N$73:N$78),2)=1)*N$73:N$78)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="46" cm="1">
+        <f t="array" ref="O71">SUMPRODUCT((MOD(ROW(O$73:O$78),2)=1)*O$73:O$78)</f>
+        <v>9</v>
+      </c>
+      <c r="P71" s="46" cm="1">
+        <f t="array" ref="P71">SUMPRODUCT((MOD(ROW(P$73:P$78),2)=1)*P$73:P$78)</f>
+        <v>3.3</v>
+      </c>
+      <c r="Q71" s="46" cm="1">
+        <f t="array" ref="Q71">SUMPRODUCT((MOD(ROW(Q$73:Q$78),2)=1)*Q$73:Q$78)</f>
+        <v>0</v>
+      </c>
       <c r="R71" s="45"/>
       <c r="S71" s="45"/>
       <c r="T71" s="45"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="25" t="str">
-        <f>IF(E71="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
+    <row r="72" spans="1:21" ht="12" customHeight="1">
+      <c r="A72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="21" cm="1">
+        <f t="array" ref="L72">SUMPRODUCT((MOD(ROW(L$73:L$78),2)=0)*L$73:L$78)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="21" cm="1">
+        <f t="array" ref="M72">SUMPRODUCT((MOD(ROW(M$73:M$78),2)=0)*M$73:M$78)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="21" cm="1">
+        <f t="array" ref="N72">SUMPRODUCT((MOD(ROW(N$73:N$78),2)=0)*N$73:N$78)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="21" cm="1">
+        <f t="array" ref="O72">SUMPRODUCT((MOD(ROW(O$73:O$78),2)=0)*O$73:O$78)</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="21" cm="1">
+        <f t="array" ref="P72">SUMPRODUCT((MOD(ROW(P$73:P$78),2)=0)*P$73:P$78)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="21" cm="1">
+        <f t="array" ref="Q72">SUMPRODUCT((MOD(ROW(Q$73:Q$78),2)=0)*Q$73:Q$78)</f>
+        <v>0</v>
+      </c>
       <c r="R72" s="45"/>
       <c r="S72" s="45"/>
       <c r="T72" s="45"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="53"/>
-      <c r="B73" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>59</v>
-      </c>
+    <row r="73" spans="1:21" ht="12" customHeight="1">
+      <c r="A73" s="74">
+        <v>1</v>
+      </c>
+      <c r="B73" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="88"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="65"/>
       <c r="G73" s="63"/>
-      <c r="H73" s="43" t="str">
+      <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
       <c r="K73" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L73" s="41"/>
@@ -4570,22 +4745,22 @@
       <c r="T73" s="45"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="54"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="50" t="str">
+    <row r="74" spans="1:21" ht="12" customHeight="1">
+      <c r="A74" s="75"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="43"/>
-      <c r="J74" s="50"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L74" s="42"/>
@@ -4599,51 +4774,55 @@
       <c r="T74" s="45"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="53"/>
-      <c r="B75" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G75" s="63"/>
+    <row r="75" spans="1:21" ht="12" customHeight="1">
+      <c r="A75" s="74"/>
+      <c r="B75" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="71"/>
+      <c r="E75" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="78"/>
+      <c r="G75" s="123"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I75" s="43"/>
+      <c r="I75" s="43" t="s">
+        <v>72</v>
+      </c>
       <c r="J75" s="43"/>
       <c r="K75" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="L75" s="41"/>
       <c r="M75" s="41"/>
       <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="41">
+        <v>5</v>
+      </c>
+      <c r="P75" s="41">
+        <v>2</v>
+      </c>
       <c r="Q75" s="41"/>
       <c r="R75" s="45"/>
       <c r="S75" s="45"/>
       <c r="T75" s="45"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="54"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="56"/>
+    <row r="76" spans="1:21" ht="12" customHeight="1">
+      <c r="A76" s="75"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="77"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -4651,7 +4830,7 @@
       <c r="I76" s="43"/>
       <c r="J76" s="50"/>
       <c r="K76" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L76" s="42"/>
@@ -4665,113 +4844,117 @@
       <c r="T76" s="45"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="53"/>
-      <c r="B77" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="61" t="s">
+    <row r="77" spans="1:21" ht="12" customHeight="1">
+      <c r="A77" s="74"/>
+      <c r="B77" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="71"/>
+      <c r="E77" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G77" s="63"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="123"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I77" s="43"/>
+      <c r="I77" s="43" t="s">
+        <v>73</v>
+      </c>
       <c r="J77" s="43"/>
       <c r="K77" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>5.3</v>
       </c>
       <c r="L77" s="41"/>
       <c r="M77" s="41"/>
       <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="41">
+        <v>4</v>
+      </c>
+      <c r="P77" s="41">
+        <v>1.3</v>
+      </c>
       <c r="Q77" s="41"/>
       <c r="R77" s="45"/>
       <c r="S77" s="45"/>
       <c r="T77" s="45"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="54"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="56"/>
+    <row r="78" spans="1:21" ht="12" customHeight="1">
+      <c r="A78" s="75"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="77"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I78" s="50"/>
+      <c r="I78" s="43"/>
       <c r="J78" s="50"/>
       <c r="K78" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
       <c r="R78" s="45"/>
       <c r="S78" s="45"/>
       <c r="T78" s="45"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="83"/>
+    <row r="79" spans="1:21" ht="12" customHeight="1">
+      <c r="A79" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="117"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="46" cm="1">
-        <f t="array" ref="L79">SUMPRODUCT((MOD(ROW(L$81:L$86),2)=1)*L$81:L$86)</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="46" cm="1">
-        <f t="array" ref="M79">SUMPRODUCT((MOD(ROW(M$81:M$86),2)=1)*M$81:M$86)</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="46" cm="1">
-        <f t="array" ref="N79">SUMPRODUCT((MOD(ROW(N$81:N$86),2)=1)*N$81:N$86)</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="46" cm="1">
-        <f t="array" ref="O79">SUMPRODUCT((MOD(ROW(O$81:O$86),2)=1)*O$81:O$86)</f>
-        <v>0</v>
-      </c>
-      <c r="P79" s="46" cm="1">
-        <f t="array" ref="P79">SUMPRODUCT((MOD(ROW(P$81:P$86),2)=1)*P$81:P$86)</f>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="46" cm="1">
-        <f t="array" ref="Q79">SUMPRODUCT((MOD(ROW(Q$81:Q$86),2)=1)*Q$81:Q$86)</f>
+        <f t="shared" si="13"/>
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="L79" s="21" cm="1">
+        <f t="array" ref="L79">SUMPRODUCT((MOD(ROW(L$81:L$92),2)=1)*L$81:L$92)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="21" cm="1">
+        <f t="array" ref="M79">SUMPRODUCT((MOD(ROW(M$81:M$92),2)=1)*M$81:M$92)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="21" cm="1">
+        <f t="array" ref="N79">SUMPRODUCT((MOD(ROW(N$81:N$92),2)=1)*N$81:N$92)</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="21" cm="1">
+        <f t="array" ref="O79">SUMPRODUCT((MOD(ROW(O$81:O$92),2)=1)*O$81:O$92)</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="21" cm="1">
+        <f t="array" ref="P79">SUMPRODUCT((MOD(ROW(P$81:P$92),2)=1)*P$81:P$92)</f>
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="Q79" s="21" cm="1">
+        <f t="array" ref="Q79">SUMPRODUCT((MOD(ROW(Q$81:Q$92),2)=1)*Q$81:Q$92)</f>
         <v>0</v>
       </c>
       <c r="R79" s="45"/>
@@ -4779,45 +4962,45 @@
       <c r="T79" s="45"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="78"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="84"/>
+    <row r="80" spans="1:21" ht="12" customHeight="1">
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="118"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="21" cm="1">
-        <f t="array" ref="L80">SUMPRODUCT((MOD(ROW(L$81:L$86),2)=0)*L$81:L$86)</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="21" cm="1">
-        <f t="array" ref="M80">SUMPRODUCT((MOD(ROW(M$81:M$86),2)=0)*M$81:M$86)</f>
-        <v>0</v>
-      </c>
-      <c r="N80" s="21" cm="1">
-        <f t="array" ref="N80">SUMPRODUCT((MOD(ROW(N$81:N$86),2)=0)*N$81:N$86)</f>
-        <v>0</v>
-      </c>
-      <c r="O80" s="21" cm="1">
-        <f t="array" ref="O80">SUMPRODUCT((MOD(ROW(O$81:O$86),2)=0)*O$81:O$86)</f>
-        <v>0</v>
-      </c>
-      <c r="P80" s="21" cm="1">
-        <f t="array" ref="P80">SUMPRODUCT((MOD(ROW(P$81:P$86),2)=0)*P$81:P$86)</f>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="21" cm="1">
-        <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$86),2)=0)*Q$81:Q$86)</f>
+        <f t="shared" ref="K80:K106" si="14">SUM(L80:Q80)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="22" cm="1">
+        <f t="array" ref="L80">SUMPRODUCT((MOD(ROW(L$81:L$92),2)=0)*L$81:L$92)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="22" cm="1">
+        <f t="array" ref="M80">SUMPRODUCT((MOD(ROW(M$81:M$92),2)=0)*M$81:M$92)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="22" cm="1">
+        <f t="array" ref="N80">SUMPRODUCT((MOD(ROW(N$81:N$92),2)=0)*N$81:N$92)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="22" cm="1">
+        <f t="array" ref="O80">SUMPRODUCT((MOD(ROW(O$81:O$92),2)=0)*O$81:O$92)</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="22" cm="1">
+        <f t="array" ref="P80">SUMPRODUCT((MOD(ROW(P$81:P$92),2)=0)*P$81:P$92)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="124" cm="1">
+        <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$92),2)=0)*Q$81:Q$92)</f>
         <v>0</v>
       </c>
       <c r="R80" s="45"/>
@@ -4825,28 +5008,26 @@
       <c r="T80" s="45"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="53">
+    <row r="81" spans="1:21" ht="12" customHeight="1">
+      <c r="A81" s="74">
         <v>1</v>
       </c>
-      <c r="B81" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="68"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" s="71"/>
-      <c r="G81" s="73"/>
+      <c r="B81" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="88"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="63"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
-        <v>予定</v>
+        <v/>
       </c>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L81" s="41"/>
@@ -4860,22 +5041,22 @@
       <c r="T81" s="45"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="74"/>
+    <row r="82" spans="1:21" ht="12" customHeight="1">
+      <c r="A82" s="75"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="64"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
-        <v>実績</v>
+        <v/>
       </c>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L82" s="42"/>
@@ -4889,51 +5070,53 @@
       <c r="T82" s="45"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="53"/>
-      <c r="B83" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="61" t="s">
+    <row r="83" spans="1:21" ht="12" customHeight="1">
+      <c r="A83" s="74"/>
+      <c r="B83" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="71"/>
+      <c r="E83" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="63"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="123"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I83" s="43"/>
+      <c r="I83" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="J83" s="43"/>
       <c r="K83" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="L83" s="41"/>
       <c r="M83" s="41"/>
       <c r="N83" s="41"/>
       <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="P83" s="41">
+        <v>1</v>
+      </c>
       <c r="Q83" s="41"/>
       <c r="R83" s="45"/>
       <c r="S83" s="45"/>
       <c r="T83" s="45"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="54"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="56"/>
+    <row r="84" spans="1:21" ht="12" customHeight="1">
+      <c r="A84" s="75"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="77"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -4941,7 +5124,7 @@
       <c r="I84" s="43"/>
       <c r="J84" s="50"/>
       <c r="K84" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L84" s="42"/>
@@ -4955,22 +5138,20 @@
       <c r="T84" s="45"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="53"/>
-      <c r="B85" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="61" t="s">
+    <row r="85" spans="1:21" ht="12" customHeight="1">
+      <c r="A85" s="74"/>
+      <c r="B85" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="71"/>
+      <c r="E85" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="63"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="123"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -4978,36 +5159,38 @@
       <c r="I85" s="43"/>
       <c r="J85" s="43"/>
       <c r="K85" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.2</v>
       </c>
       <c r="L85" s="41"/>
       <c r="M85" s="41"/>
       <c r="N85" s="41"/>
       <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="P85" s="41">
+        <v>0.2</v>
+      </c>
       <c r="Q85" s="41"/>
       <c r="R85" s="45"/>
       <c r="S85" s="45"/>
       <c r="T85" s="45"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="54"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="56"/>
+    <row r="86" spans="1:21" ht="12" customHeight="1">
+      <c r="A86" s="75"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="77"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I86" s="43"/>
+      <c r="I86" s="50"/>
       <c r="J86" s="50"/>
       <c r="K86" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L86" s="42"/>
@@ -5021,149 +5204,125 @@
       <c r="T86" s="45"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" s="76"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
+    <row r="87" spans="1:21" ht="12" customHeight="1">
+      <c r="A87" s="74">
+        <v>2</v>
+      </c>
+      <c r="B87" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="88"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="24" t="str">
+        <f>IF(E87="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
       <c r="K87" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="21" cm="1">
-        <f t="array" ref="L87">SUMPRODUCT((MOD(ROW(L$89:L$100),2)=1)*L$89:L$100)</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="21" cm="1">
-        <f t="array" ref="M87">SUMPRODUCT((MOD(ROW(M$89:M$100),2)=1)*M$89:M$100)</f>
-        <v>0</v>
-      </c>
-      <c r="N87" s="21" cm="1">
-        <f t="array" ref="N87">SUMPRODUCT((MOD(ROW(N$89:N$100),2)=1)*N$89:N$100)</f>
-        <v>0</v>
-      </c>
-      <c r="O87" s="21" cm="1">
-        <f t="array" ref="O87">SUMPRODUCT((MOD(ROW(O$89:O$100),2)=1)*O$89:O$100)</f>
-        <v>0</v>
-      </c>
-      <c r="P87" s="21" cm="1">
-        <f t="array" ref="P87">SUMPRODUCT((MOD(ROW(P$89:P$100),2)=1)*P$89:P$100)</f>
-        <v>0</v>
-      </c>
-      <c r="Q87" s="21" cm="1">
-        <f t="array" ref="Q87">SUMPRODUCT((MOD(ROW(Q$89:Q$100),2)=1)*Q$89:Q$100)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
       <c r="R87" s="45"/>
       <c r="S87" s="45"/>
       <c r="T87" s="45"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="78"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+    <row r="88" spans="1:21" ht="12" customHeight="1">
+      <c r="A88" s="75"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="25" t="str">
+        <f>IF(E87="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
       <c r="K88" s="9">
-        <f>SUM(L88:Q88)</f>
-        <v>0</v>
-      </c>
-      <c r="L88" s="22" cm="1">
-        <f t="array" ref="L88">SUMPRODUCT((MOD(ROW(L$89:L$100),2)=0)*L$89:L$100)</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="22" cm="1">
-        <f t="array" ref="M88">SUMPRODUCT((MOD(ROW(M$89:M$100),2)=0)*M$89:M$100)</f>
-        <v>0</v>
-      </c>
-      <c r="N88" s="22" cm="1">
-        <f t="array" ref="N88">SUMPRODUCT((MOD(ROW(N$89:N$100),2)=0)*N$89:N$100)</f>
-        <v>0</v>
-      </c>
-      <c r="O88" s="22" cm="1">
-        <f t="array" ref="O88">SUMPRODUCT((MOD(ROW(O$89:O$100),2)=0)*O$89:O$100)</f>
-        <v>0</v>
-      </c>
-      <c r="P88" s="22" cm="1">
-        <f t="array" ref="P88">SUMPRODUCT((MOD(ROW(P$89:P$100),2)=0)*P$89:P$100)</f>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="22" cm="1">
-        <f t="array" ref="Q88">SUMPRODUCT((MOD(ROW(Q$89:Q$100),2)=0)*Q$89:Q$100)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
       <c r="R88" s="45"/>
       <c r="S88" s="45"/>
       <c r="T88" s="45"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="53">
-        <v>1</v>
-      </c>
-      <c r="B89" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="68"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="24" t="str">
+    <row r="89" spans="1:21" ht="12" customHeight="1">
+      <c r="A89" s="74"/>
+      <c r="B89" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="71"/>
+      <c r="E89" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="78"/>
+      <c r="G89" s="123"/>
+      <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
+        <v>予定</v>
+      </c>
+      <c r="I89" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="43">
+        <v>5</v>
+      </c>
       <c r="K89" s="9">
-        <f>SUM(L89:Q89)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1.25</v>
       </c>
       <c r="L89" s="41"/>
       <c r="M89" s="41"/>
       <c r="N89" s="41"/>
       <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="P89" s="41">
+        <v>1.25</v>
+      </c>
       <c r="Q89" s="41"/>
       <c r="R89" s="45"/>
       <c r="S89" s="45"/>
       <c r="T89" s="45"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="54"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="25" t="str">
+    <row r="90" spans="1:21" ht="12" customHeight="1">
+      <c r="A90" s="75"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
+        <v>実績</v>
+      </c>
+      <c r="I90" s="43"/>
+      <c r="J90" s="50"/>
       <c r="K90" s="9">
-        <f>SUM(L90:Q90)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L90" s="42"/>
@@ -5177,20 +5336,20 @@
       <c r="T90" s="45"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="53"/>
-      <c r="B91" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="61" t="s">
+    <row r="91" spans="1:21" ht="12" customHeight="1">
+      <c r="A91" s="74"/>
+      <c r="B91" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="71"/>
+      <c r="E91" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="63"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="123"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5198,28 +5357,30 @@
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
       <c r="K91" s="9">
-        <f>SUM(L91:Q91)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.16</v>
       </c>
       <c r="L91" s="41"/>
       <c r="M91" s="41"/>
       <c r="N91" s="41"/>
       <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="P91" s="41">
+        <v>0.16</v>
+      </c>
       <c r="Q91" s="41"/>
       <c r="R91" s="45"/>
       <c r="S91" s="45"/>
       <c r="T91" s="45"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="54"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="56"/>
+    <row r="92" spans="1:21" ht="12" customHeight="1">
+      <c r="A92" s="75"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="77"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5227,7 +5388,7 @@
       <c r="I92" s="43"/>
       <c r="J92" s="50"/>
       <c r="K92" s="9">
-        <f>SUM(L92:Q92)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L92" s="42"/>
@@ -5241,82 +5402,112 @@
       <c r="T92" s="45"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="53"/>
-      <c r="B93" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="61"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="43" t="str">
-        <f>IF(E93="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
+    <row r="93" spans="1:21" ht="12" customHeight="1">
+      <c r="A93" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
       <c r="K93" s="9">
-        <f>SUM(L93:Q93)</f>
-        <v>0</v>
-      </c>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
+        <f t="shared" si="14"/>
+        <v>4.07</v>
+      </c>
+      <c r="L93" s="21" cm="1">
+        <f t="array" ref="L93">SUMPRODUCT((MOD(ROW(L$95:L$106),2)=1)*L$95:L$106)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="21" cm="1">
+        <f t="array" ref="M93">SUMPRODUCT((MOD(ROW(M$95:M$106),2)=1)*M$95:M$106)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="21" cm="1">
+        <f t="array" ref="N93">SUMPRODUCT((MOD(ROW(N$95:N$106),2)=1)*N$95:N$106)</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="21" cm="1">
+        <f t="array" ref="O93">SUMPRODUCT((MOD(ROW(O$95:O$106),2)=1)*O$95:O$106)</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="21" cm="1">
+        <f t="array" ref="P93">SUMPRODUCT((MOD(ROW(P$95:P$106),2)=1)*P$95:P$106)</f>
+        <v>4.07</v>
+      </c>
+      <c r="Q93" s="21" cm="1">
+        <f t="array" ref="Q93">SUMPRODUCT((MOD(ROW(Q$95:Q$106),2)=1)*Q$95:Q$106)</f>
+        <v>0</v>
+      </c>
       <c r="R93" s="45"/>
       <c r="S93" s="45"/>
       <c r="T93" s="45"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="54"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="50" t="str">
-        <f>IF(E93="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
+    <row r="94" spans="1:21" ht="12" customHeight="1">
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="87"/>
+      <c r="G94" s="118"/>
+      <c r="H94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="9">
-        <f>SUM(L94:Q94)</f>
-        <v>0</v>
-      </c>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="22" cm="1">
+        <f t="array" ref="L94">SUMPRODUCT((MOD(ROW(L$95:L$106),2)=0)*L$95:L$106)</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="22" cm="1">
+        <f t="array" ref="M94">SUMPRODUCT((MOD(ROW(M$95:M$106),2)=0)*M$95:M$106)</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="22" cm="1">
+        <f t="array" ref="N94">SUMPRODUCT((MOD(ROW(N$95:N$106),2)=0)*N$95:N$106)</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="22" cm="1">
+        <f t="array" ref="O94">SUMPRODUCT((MOD(ROW(O$95:O$106),2)=0)*O$95:O$106)</f>
+        <v>0</v>
+      </c>
+      <c r="P94" s="22" cm="1">
+        <f t="array" ref="P94">SUMPRODUCT((MOD(ROW(P$95:P$106),2)=0)*P$95:P$106)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="22" cm="1">
+        <f t="array" ref="Q94">SUMPRODUCT((MOD(ROW(Q$95:Q$106),2)=0)*Q$95:Q$106)</f>
+        <v>0</v>
+      </c>
       <c r="R94" s="45"/>
       <c r="S94" s="45"/>
       <c r="T94" s="45"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="53">
-        <v>2</v>
-      </c>
-      <c r="B95" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="68"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="73"/>
+    <row r="95" spans="1:21" ht="12" customHeight="1">
+      <c r="A95" s="74">
+        <v>1</v>
+      </c>
+      <c r="B95" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="88"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="63"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5324,7 +5515,7 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="9">
-        <f>SUM(L95:Q95)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L95" s="41"/>
@@ -5338,14 +5529,14 @@
       <c r="T95" s="45"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="54"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="74"/>
+    <row r="96" spans="1:21" ht="12" customHeight="1">
+      <c r="A96" s="75"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="64"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5353,7 +5544,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="9">
-        <f>SUM(L96:Q96)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L96" s="42"/>
@@ -5367,57 +5558,63 @@
       <c r="T96" s="45"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="53"/>
-      <c r="B97" s="55" t="s">
+    <row r="97" spans="1:21" ht="12" customHeight="1">
+      <c r="A97" s="74"/>
+      <c r="B97" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="61"/>
-      <c r="G97" s="63"/>
+      <c r="C97" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="71"/>
+      <c r="E97" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="78"/>
+      <c r="G97" s="123"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
+      <c r="I97" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="43">
+        <v>5</v>
+      </c>
       <c r="K97" s="9">
-        <f>SUM(L97:Q97)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2.5</v>
       </c>
       <c r="L97" s="41"/>
       <c r="M97" s="41"/>
       <c r="N97" s="41"/>
       <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="P97" s="41">
+        <v>2.5</v>
+      </c>
       <c r="Q97" s="41"/>
       <c r="R97" s="45"/>
       <c r="S97" s="45"/>
       <c r="T97" s="45"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="54"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="56"/>
+    <row r="98" spans="1:21" ht="12" customHeight="1">
+      <c r="A98" s="75"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="77"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="43"/>
+      <c r="I98" s="50"/>
       <c r="J98" s="50"/>
       <c r="K98" s="9">
-        <f>SUM(L98:Q98)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L98" s="42"/>
@@ -5431,57 +5628,63 @@
       <c r="T98" s="45"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="53"/>
-      <c r="B99" s="55" t="s">
+    <row r="99" spans="1:21" ht="12" customHeight="1">
+      <c r="A99" s="74"/>
+      <c r="B99" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="58"/>
-      <c r="E99" s="61" t="s">
+      <c r="C99" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="71"/>
+      <c r="E99" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="61"/>
-      <c r="G99" s="63"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="123"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
+      <c r="I99" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J99" s="43">
+        <v>1</v>
+      </c>
       <c r="K99" s="9">
-        <f>SUM(L99:Q99)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.16</v>
       </c>
       <c r="L99" s="41"/>
       <c r="M99" s="41"/>
       <c r="N99" s="41"/>
       <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="P99" s="41">
+        <v>0.16</v>
+      </c>
       <c r="Q99" s="41"/>
       <c r="R99" s="45"/>
       <c r="S99" s="45"/>
       <c r="T99" s="45"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="54"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="56"/>
+    <row r="100" spans="1:21" ht="12" customHeight="1">
+      <c r="A100" s="75"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="77"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I100" s="43"/>
+      <c r="I100" s="50"/>
       <c r="J100" s="50"/>
       <c r="K100" s="9">
-        <f>SUM(L100:Q100)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L100" s="42"/>
@@ -5495,149 +5698,125 @@
       <c r="T100" s="45"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
+    <row r="101" spans="1:21" ht="12" customHeight="1">
+      <c r="A101" s="74">
+        <v>2</v>
+      </c>
+      <c r="B101" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="88"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="24" t="str">
+        <f>IF(E101="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
       <c r="K101" s="9">
-        <f>SUM(L101:Q101)</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="21" cm="1">
-        <f t="array" ref="L101">SUMPRODUCT((MOD(ROW(L$103:L$114),2)=1)*L$103:L$114)</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="21" cm="1">
-        <f t="array" ref="M101">SUMPRODUCT((MOD(ROW(M$103:M$114),2)=1)*M$103:M$114)</f>
-        <v>0</v>
-      </c>
-      <c r="N101" s="21" cm="1">
-        <f t="array" ref="N101">SUMPRODUCT((MOD(ROW(N$103:N$114),2)=1)*N$103:N$114)</f>
-        <v>0</v>
-      </c>
-      <c r="O101" s="21" cm="1">
-        <f t="array" ref="O101">SUMPRODUCT((MOD(ROW(O$103:O$114),2)=1)*O$103:O$114)</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="21" cm="1">
-        <f t="array" ref="P101">SUMPRODUCT((MOD(ROW(P$103:P$114),2)=1)*P$103:P$114)</f>
-        <v>0</v>
-      </c>
-      <c r="Q101" s="21" cm="1">
-        <f t="array" ref="Q101">SUMPRODUCT((MOD(ROW(Q$103:Q$114),2)=1)*Q$103:Q$114)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
       <c r="R101" s="45"/>
       <c r="S101" s="45"/>
       <c r="T101" s="45"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="78"/>
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="84"/>
-      <c r="H102" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+    <row r="102" spans="1:21" ht="12" customHeight="1">
+      <c r="A102" s="75"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="25" t="str">
+        <f>IF(E101="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
       <c r="K102" s="9">
-        <f>SUM(L102:Q102)</f>
-        <v>0</v>
-      </c>
-      <c r="L102" s="22" cm="1">
-        <f t="array" ref="L102">SUMPRODUCT((MOD(ROW(L$103:L$114),2)=0)*L$103:L$114)</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="22" cm="1">
-        <f t="array" ref="M102">SUMPRODUCT((MOD(ROW(M$103:M$114),2)=0)*M$103:M$114)</f>
-        <v>0</v>
-      </c>
-      <c r="N102" s="22" cm="1">
-        <f t="array" ref="N102">SUMPRODUCT((MOD(ROW(N$103:N$114),2)=0)*N$103:N$114)</f>
-        <v>0</v>
-      </c>
-      <c r="O102" s="22" cm="1">
-        <f t="array" ref="O102">SUMPRODUCT((MOD(ROW(O$103:O$114),2)=0)*O$103:O$114)</f>
-        <v>0</v>
-      </c>
-      <c r="P102" s="22" cm="1">
-        <f t="array" ref="P102">SUMPRODUCT((MOD(ROW(P$103:P$114),2)=0)*P$103:P$114)</f>
-        <v>0</v>
-      </c>
-      <c r="Q102" s="22" cm="1">
-        <f t="array" ref="Q102">SUMPRODUCT((MOD(ROW(Q$103:Q$114),2)=0)*Q$103:Q$114)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="42"/>
       <c r="R102" s="45"/>
       <c r="S102" s="45"/>
       <c r="T102" s="45"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="53">
-        <v>1</v>
-      </c>
-      <c r="B103" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="68"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="73"/>
-      <c r="H103" s="24" t="str">
+    <row r="103" spans="1:21" ht="12" customHeight="1">
+      <c r="A103" s="74"/>
+      <c r="B103" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="71"/>
+      <c r="E103" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="78"/>
+      <c r="G103" s="123"/>
+      <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
+        <v>予定</v>
+      </c>
+      <c r="I103" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="43">
+        <v>5</v>
+      </c>
       <c r="K103" s="9">
-        <f>SUM(L103:Q103)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1.25</v>
       </c>
       <c r="L103" s="41"/>
       <c r="M103" s="41"/>
       <c r="N103" s="41"/>
       <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="P103" s="41">
+        <v>1.25</v>
+      </c>
       <c r="Q103" s="41"/>
       <c r="R103" s="45"/>
       <c r="S103" s="45"/>
       <c r="T103" s="45"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="54"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="25" t="str">
+    <row r="104" spans="1:21" ht="12" customHeight="1">
+      <c r="A104" s="75"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
+        <v>実績</v>
+      </c>
+      <c r="I104" s="43"/>
+      <c r="J104" s="53"/>
       <c r="K104" s="9">
-        <f>SUM(L104:Q104)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L104" s="42"/>
@@ -5651,49 +5830,53 @@
       <c r="T104" s="45"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="53"/>
-      <c r="B105" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="61" t="s">
+    <row r="105" spans="1:21" ht="12" customHeight="1">
+      <c r="A105" s="74"/>
+      <c r="B105" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="71"/>
+      <c r="E105" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="61"/>
-      <c r="G105" s="63"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="123"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
+      <c r="J105" s="43">
+        <v>1</v>
+      </c>
       <c r="K105" s="9">
-        <f>SUM(L105:Q105)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.16</v>
       </c>
       <c r="L105" s="41"/>
       <c r="M105" s="41"/>
       <c r="N105" s="41"/>
       <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="P105" s="41">
+        <v>0.16</v>
+      </c>
       <c r="Q105" s="41"/>
       <c r="R105" s="45"/>
       <c r="S105" s="45"/>
       <c r="T105" s="45"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="54"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="56"/>
+    <row r="106" spans="1:21" ht="12" customHeight="1">
+      <c r="A106" s="75"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="77"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -5701,7 +5884,7 @@
       <c r="I106" s="50"/>
       <c r="J106" s="50"/>
       <c r="K106" s="9">
-        <f>SUM(L106:Q106)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L106" s="42"/>
@@ -5715,352 +5898,282 @@
       <c r="T106" s="45"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="53"/>
-      <c r="B107" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="61"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="43" t="str">
-        <f>IF(E107="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="9">
-        <f>SUM(L107:Q107)</f>
-        <v>0</v>
-      </c>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
+    <row r="107" spans="1:21" ht="12" customHeight="1">
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="36"/>
       <c r="R107" s="45"/>
       <c r="S107" s="45"/>
       <c r="T107" s="45"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="54"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="50" t="str">
-        <f>IF(E107="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I108" s="50"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="9">
-        <f>SUM(L108:Q108)</f>
-        <v>0</v>
-      </c>
-      <c r="L108" s="42"/>
-      <c r="M108" s="42"/>
-      <c r="N108" s="42"/>
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
-      <c r="Q108" s="42"/>
+    <row r="108" spans="1:21" ht="12" customHeight="1">
       <c r="R108" s="45"/>
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="53">
-        <v>2</v>
-      </c>
-      <c r="B109" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="68"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="24" t="str">
-        <f>IF(E109="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="9">
-        <f>SUM(L109:Q109)</f>
-        <v>0</v>
-      </c>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
+    <row r="109" spans="1:21" ht="12" customHeight="1">
       <c r="R109" s="45"/>
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="54"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="25" t="str">
-        <f>IF(E109="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="9">
-        <f>SUM(L110:Q110)</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="42"/>
-      <c r="M110" s="42"/>
-      <c r="N110" s="42"/>
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
-      <c r="Q110" s="42"/>
+    <row r="110" spans="1:21" ht="12" customHeight="1">
       <c r="R110" s="45"/>
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="53"/>
-      <c r="B111" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C111" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F111" s="61"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="43" t="str">
-        <f>IF(E111="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="9">
-        <f>SUM(L111:Q111)</f>
-        <v>0</v>
-      </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
+    <row r="111" spans="1:21" ht="12" customHeight="1">
       <c r="R111" s="45"/>
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="54"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="50" t="str">
-        <f>IF(E111="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="9">
-        <f>SUM(L112:Q112)</f>
-        <v>0</v>
-      </c>
-      <c r="L112" s="42"/>
-      <c r="M112" s="42"/>
-      <c r="N112" s="42"/>
-      <c r="O112" s="42"/>
-      <c r="P112" s="42"/>
-      <c r="Q112" s="42"/>
+    <row r="112" spans="1:21" ht="12" customHeight="1">
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="53"/>
-      <c r="B113" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F113" s="61"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="43" t="str">
-        <f>IF(E113="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="9">
-        <f>SUM(L113:Q113)</f>
-        <v>0</v>
-      </c>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
+    <row r="113" spans="18:22" ht="12" customHeight="1">
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="56"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="50" t="str">
-        <f>IF(E113="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I114" s="50"/>
-      <c r="J114" s="50"/>
-      <c r="K114" s="9">
-        <f>SUM(L114:Q114)</f>
-        <v>0</v>
-      </c>
-      <c r="L114" s="42"/>
-      <c r="M114" s="42"/>
-      <c r="N114" s="42"/>
-      <c r="O114" s="42"/>
-      <c r="P114" s="42"/>
-      <c r="Q114" s="42"/>
+    <row r="114" spans="18:22" ht="12" customHeight="1">
       <c r="R114" s="45"/>
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="P115" s="36"/>
-      <c r="Q115" s="36"/>
+    <row r="115" spans="18:22">
       <c r="R115" s="36"/>
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
       <c r="V115" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K60" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:K52" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="318">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
+  <mergeCells count="295">
+    <mergeCell ref="G43:G44"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A21:A22"/>
@@ -6078,295 +6191,128 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P25:Q38 L41:Q42 L89:Q100 L45:Q54 L81:Q86 L55:M60 O55:Q60 L63:Q78 L103:Q114 L9:Q22 L25:O40">
-    <cfRule type="expression" dxfId="11" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
+    <cfRule type="expression" dxfId="9" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="46" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:Q40">
-    <cfRule type="expression" dxfId="9" priority="37" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P39), P39&gt;0)</formula>
+  <conditionalFormatting sqref="O47:O51">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(O47), O47&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="38" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P39), P39&gt;0)</formula>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O47), O47&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O55:O59">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(O55), O55&gt;0)</formula>
+  <conditionalFormatting sqref="N47:N52">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(N47), N47&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O55), O55&gt;0)</formula>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(N47), N47&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:N60">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(N55), N55&gt;0)</formula>
+  <conditionalFormatting sqref="O65:O69">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(O65), O65&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(N55), N55&gt;0)</formula>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O65), O65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O73:O77">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(O73), O73&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(O73), O73&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P73:P77">
+  <conditionalFormatting sqref="P65:P69">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P73), P73&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P65), P65&gt;0)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P73), P73&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P65), P65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E65596" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E107:E65588" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"新規作成,更新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F103:F114 F25:F35 F37:F42 F9:F22 F45:F60 F89:F100 F63:F78 F81:F86" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F95:F106 F25:F34 F9:F22 F37:F52 F81:F92 F55:F70 F73:F78" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"着手,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35 E15 E9 E23:E25 E43:E45 E53 E61:E63 E71 E79:E81 E87:E89 E95 E101:E103 E109" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E9 E23:E25 E35:E37 E45 E53:E55 E63 E71:E73 E79:E81 E87 E93:E95 E101" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"新規作成,更新,レビュー参加"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E22 E27:E34 E37:E42 E11:E14 E111:E114 E55:E60 E73:E78 E47:E52 E91:E94 E105:E108 E97:E100 E65:E70 E83:E86" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E22 E27:E34 E11:E14 E103:E106 E47:E52 E65:E70 E39:E44 E83:E86 E97:E100 E89:E92 E57:E62 E75:E78" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"新規作成,更新,レビュー参加,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6379,21 +6325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6577,31 +6508,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6617,4 +6539,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{C5E8F72E-CAD1-408E-93FC-E1DB7790E58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8D78BD2-10E6-4E4A-B3D9-59F1F7505290}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039D0AAC-C123-40DC-92A0-E8D808B3C36F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="285" windowWidth="20160" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="1170" windowWidth="19920" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,14 +94,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -118,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -435,7 +433,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1340,6 +1338,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,31 +1452,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,170 +1503,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,13 +2103,13 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N111" sqref="N111"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2126,121 +2124,121 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="91" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="54">
+      <c r="L1" s="87">
         <v>43993</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="54">
+      <c r="M1" s="88"/>
+      <c r="N1" s="87">
         <v>43994</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="54">
+      <c r="O1" s="88"/>
+      <c r="P1" s="87">
         <v>43997</v>
       </c>
-      <c r="Q1" s="55"/>
+      <c r="Q1" s="88"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="56" t="s">
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="110"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="56" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="90"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="58" t="s">
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="110"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="58"/>
+      <c r="Q3" s="91"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="116"/>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="103"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2264,16 +2262,16 @@
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2316,14 +2314,14 @@
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="122"/>
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2331,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K36)</f>
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L24,L36,L54,L72,L80,L94)</f>
@@ -2341,7 +2339,7 @@
       </c>
       <c r="M6" s="28">
         <f>SUM(M8,M24,M36,M54,M72,M80,M94)</f>
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="N6" s="28">
         <f>SUM(N8,N24,N36,N54,N72,N80,N94)</f>
@@ -2364,16 +2362,16 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="108" t="s">
+    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2414,14 +2412,14 @@
       <c r="T7" s="45"/>
       <c r="U7" s="45"/>
     </row>
-    <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="112"/>
+    <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2429,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f t="shared" ref="K8:O8" si="2">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="L8" s="30">
         <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
@@ -2439,7 +2437,7 @@
       </c>
       <c r="M8" s="30">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="N8" s="30">
         <f t="shared" si="2"/>
@@ -2462,18 +2460,18 @@
       <c r="T8" s="45"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1">
-      <c r="A9" s="68">
+    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2489,14 +2487,14 @@
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="64"/>
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="108"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2512,22 +2510,22 @@
       <c r="T10" s="45"/>
       <c r="U10" s="45"/>
     </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="107"/>
+      <c r="B11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2555,20 +2553,24 @@
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
     </row>
-    <row r="12" spans="1:21" ht="12" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="62"/>
+    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="108"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="49"/>
+      <c r="I12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="49">
+        <v>1</v>
+      </c>
       <c r="K12" s="10">
         <f>SUM(L12:O12)</f>
         <v>0.1</v>
@@ -2586,22 +2588,22 @@
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="1:21" ht="12" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="107"/>
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2629,26 +2631,32 @@
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="1:21" ht="12" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="62"/>
+    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="108"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="49"/>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="49">
+        <v>5</v>
+      </c>
       <c r="K14" s="10">
         <f>SUM(L14:O14)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="32">
+        <v>2.5</v>
+      </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="42"/>
@@ -2658,18 +2666,18 @@
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="1:21" ht="12" customHeight="1">
-      <c r="A15" s="68">
+    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="107">
         <v>2</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="63"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2688,14 +2696,14 @@
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
     </row>
-    <row r="16" spans="1:21" ht="12" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="64"/>
+    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="108"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2714,20 +2722,22 @@
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="107"/>
+      <c r="B17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="61"/>
+      <c r="F17" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2755,14 +2765,14 @@
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="62"/>
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="108"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2784,20 +2794,22 @@
       <c r="T18" s="45"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="78" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="123"/>
+      <c r="F19" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="55"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2825,14 +2837,14 @@
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="77"/>
+    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2854,20 +2866,20 @@
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="67" t="s">
+    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="107"/>
+      <c r="B21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="59" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="61"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2895,14 +2907,14 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="62"/>
+    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="108"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -2924,47 +2936,47 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
     </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1">
-      <c r="A23" s="80" t="s">
+    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="117"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="48">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$34),2)=1)*K$25:K$34)</f>
+        <f t="shared" ref="K23:Q23" si="5">SUMPRODUCT((MOD(ROW(K$25:K$34),2)=1)*K$25:K$34)</f>
         <v>1.42</v>
       </c>
       <c r="L23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$34),2)=1)*L$25:L$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$34),2)=1)*M$25:M$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$34),2)=1)*N$25:N$34)</f>
+        <f t="shared" si="5"/>
         <v>1.42</v>
       </c>
       <c r="O23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$34),2)=1)*O$25:O$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$34),2)=1)*P$25:P$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$34),2)=1)*Q$25:Q$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23" s="45"/>
@@ -2972,45 +2984,45 @@
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
     </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="118"/>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$34),2)=0)*K$25:K$34)</f>
+        <f t="shared" ref="K24:Q24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$34),2)=0)*K$25:K$34)</f>
         <v>0</v>
       </c>
       <c r="L24" s="30">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$34),2)=0)*L$25:L$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="34">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$34),2)=0)*M$25:M$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="30">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$34),2)=0)*N$25:N$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O24" s="34">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$34),2)=0)*O$25:O$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="30">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$34),2)=0)*P$25:P$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="34">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$34),2)=0)*Q$25:Q$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="45"/>
@@ -3018,18 +3030,18 @@
       <c r="T24" s="45"/>
       <c r="U24" s="45"/>
     </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1">
-      <c r="A25" s="68">
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="107">
         <v>1</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3048,14 +3060,14 @@
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
     </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="64"/>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="108"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3074,20 +3086,20 @@
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
     </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="67" t="s">
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="107"/>
+      <c r="B27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="61"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3099,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" ref="K27:K34" si="5">SUM(L27:O27)</f>
+        <f t="shared" ref="K27:K34" si="7">SUM(L27:O27)</f>
         <v>0.1</v>
       </c>
       <c r="L27" s="31"/>
@@ -3115,14 +3127,14 @@
       <c r="T27" s="45"/>
       <c r="U27" s="45"/>
     </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="62"/>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="108"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3130,7 +3142,7 @@
       <c r="I28" s="43"/>
       <c r="J28" s="49"/>
       <c r="K28" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L28" s="32"/>
@@ -3144,20 +3156,20 @@
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
     </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="67" t="s">
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="107"/>
+      <c r="B29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="59" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3185,14 +3197,14 @@
       <c r="T29" s="45"/>
       <c r="U29" s="45"/>
     </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="62"/>
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="108"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3200,7 +3212,7 @@
       <c r="I30" s="43"/>
       <c r="J30" s="49"/>
       <c r="K30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L30" s="32"/>
@@ -3214,20 +3226,20 @@
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
     </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="67" t="s">
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="107"/>
+      <c r="B31" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3239,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16</v>
       </c>
       <c r="L31" s="31"/>
@@ -3255,14 +3267,14 @@
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
     </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="62"/>
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="108"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3270,7 +3282,7 @@
       <c r="I32" s="51"/>
       <c r="J32" s="49"/>
       <c r="K32" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L32" s="32"/>
@@ -3284,20 +3296,20 @@
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
     </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="67" t="s">
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="107"/>
+      <c r="B33" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="61" t="s">
+      <c r="F33" s="66"/>
+      <c r="G33" s="68" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3311,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L33" s="31"/>
@@ -3327,14 +3339,14 @@
       <c r="T33" s="45"/>
       <c r="U33" s="45"/>
     </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="62"/>
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="108"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3342,7 +3354,7 @@
       <c r="I34" s="51"/>
       <c r="J34" s="49"/>
       <c r="K34" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L34" s="32"/>
@@ -3356,16 +3368,16 @@
       <c r="T34" s="45"/>
       <c r="U34" s="45"/>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="117"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3376,27 +3388,27 @@
         <v>2.96</v>
       </c>
       <c r="L35" s="33">
-        <f t="shared" ref="L35:O35" si="6">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=1)*L$37:L$52)</f>
+        <f t="shared" ref="L35:O35" si="8">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=1)*L$37:L$52)</f>
         <v>0</v>
       </c>
       <c r="M35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.96</v>
       </c>
       <c r="O35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P35" s="33">
-        <f t="shared" ref="P35:Q35" si="7">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=1)*P$37:P$52)</f>
+        <f t="shared" ref="P35:Q35" si="9">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=1)*P$37:P$52)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R35" s="45"/>
@@ -3404,14 +3416,14 @@
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="118"/>
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3422,27 +3434,27 @@
         <v>0</v>
       </c>
       <c r="L36" s="30">
-        <f t="shared" ref="L36:O36" si="8">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=0)*L$37:L$52)</f>
+        <f t="shared" ref="L36:O36" si="10">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=0)*L$37:L$52)</f>
         <v>0</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P36" s="30">
-        <f t="shared" ref="P36:Q36" si="9">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=0)*P$37:P$52)</f>
+        <f t="shared" ref="P36:Q36" si="11">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=0)*P$37:P$52)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R36" s="45"/>
@@ -3450,18 +3462,18 @@
       <c r="T36" s="45"/>
       <c r="U36" s="45"/>
     </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1">
-      <c r="A37" s="68">
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="107">
         <v>1</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3480,14 +3492,14 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
     </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="64"/>
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="108"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3506,20 +3518,20 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
     </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="76" t="s">
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="57"/>
+      <c r="B39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="123"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3531,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K39:K44" si="10">SUM(L39:O39)</f>
+        <f t="shared" ref="K39:K44" si="12">SUM(L39:O39)</f>
         <v>0.1</v>
       </c>
       <c r="L39" s="41"/>
@@ -3547,14 +3559,14 @@
       <c r="T39" s="45"/>
       <c r="U39" s="45"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="77"/>
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3562,7 +3574,7 @@
       <c r="I40" s="43"/>
       <c r="J40" s="50"/>
       <c r="K40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L40" s="42"/>
@@ -3576,20 +3588,20 @@
       <c r="T40" s="45"/>
       <c r="U40" s="45"/>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1">
-      <c r="A41" s="68"/>
-      <c r="B41" s="67" t="s">
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="107"/>
+      <c r="B41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="59" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="61"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3601,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="L41" s="31"/>
@@ -3617,14 +3629,14 @@
       <c r="T41" s="45"/>
       <c r="U41" s="45"/>
     </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="62"/>
+    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="108"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3632,7 +3644,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="49"/>
       <c r="K42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L42" s="32"/>
@@ -3646,20 +3658,20 @@
       <c r="T42" s="45"/>
       <c r="U42" s="45"/>
     </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="76" t="s">
+    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="78" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="123"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3671,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="L43" s="41"/>
@@ -3687,14 +3699,14 @@
       <c r="T43" s="45"/>
       <c r="U43" s="45"/>
     </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1">
-      <c r="A44" s="75"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="77"/>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3702,7 +3714,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="50"/>
       <c r="K44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L44" s="42"/>
@@ -3716,18 +3728,18 @@
       <c r="T44" s="45"/>
       <c r="U44" s="45"/>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1">
-      <c r="A45" s="68">
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="107">
         <v>2</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="63"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3746,14 +3758,14 @@
       <c r="T45" s="45"/>
       <c r="U45" s="45"/>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="64"/>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="108"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3772,20 +3784,20 @@
       <c r="T46" s="45"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="67" t="s">
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="107"/>
+      <c r="B47" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="59" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="61" t="s">
+      <c r="F47" s="66"/>
+      <c r="G47" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3815,14 +3827,14 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1">
-      <c r="A48" s="69"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="62"/>
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="108"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -3844,20 +3856,20 @@
       <c r="T48" s="45"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="12" customHeight="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="67" t="s">
+    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="107"/>
+      <c r="B49" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="59" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -3885,14 +3897,14 @@
       <c r="T49" s="45"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="12" customHeight="1">
-      <c r="A50" s="69"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="62"/>
+    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="108"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -3914,20 +3926,20 @@
       <c r="T50" s="45"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="12" customHeight="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="67" t="s">
+    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="107"/>
+      <c r="B51" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="61"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -3955,14 +3967,14 @@
       <c r="T51" s="45"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="12" customHeight="1">
-      <c r="A52" s="69"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="62"/>
+    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="108"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -3970,7 +3982,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="49"/>
       <c r="K52" s="10">
-        <f t="shared" ref="K52" si="11">SUM(L52:O52)</f>
+        <f t="shared" ref="K52" si="13">SUM(L52:O52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="37"/>
@@ -3984,16 +3996,16 @@
       <c r="T52" s="45"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="12" customHeight="1">
-      <c r="A53" s="80" t="s">
+    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="117"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4032,14 +4044,14 @@
       <c r="T53" s="45"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="12" customHeight="1">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="118"/>
+    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="86"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4078,18 +4090,18 @@
       <c r="T54" s="45"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="12" customHeight="1">
-      <c r="A55" s="74">
+    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="57">
         <v>1</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="63"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4108,14 +4120,14 @@
       <c r="T55" s="45"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="12" customHeight="1">
-      <c r="A56" s="75"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="64"/>
+    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="58"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4134,20 +4146,20 @@
       <c r="T56" s="45"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="12" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" s="76" t="s">
+    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="57"/>
+      <c r="B57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="78" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="123"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4159,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" ref="K57:K62" si="12">SUM(L57:Q57)</f>
+        <f t="shared" ref="K57:K62" si="14">SUM(L57:Q57)</f>
         <v>3</v>
       </c>
       <c r="L57" s="41"/>
@@ -4177,14 +4189,14 @@
       <c r="T57" s="45"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="12" customHeight="1">
-      <c r="A58" s="75"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="77"/>
+    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="58"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4192,7 +4204,7 @@
       <c r="I58" s="43"/>
       <c r="J58" s="50"/>
       <c r="K58" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L58" s="42"/>
@@ -4206,20 +4218,20 @@
       <c r="T58" s="45"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="12" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="76" t="s">
+    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="57"/>
+      <c r="B59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="78" t="s">
+      <c r="D59" s="61"/>
+      <c r="E59" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="123"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="55"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4231,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L59" s="41"/>
@@ -4249,14 +4261,14 @@
       <c r="T59" s="45"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="12" customHeight="1">
-      <c r="A60" s="75"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="77"/>
+    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="58"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4264,7 +4276,7 @@
       <c r="I60" s="43"/>
       <c r="J60" s="50"/>
       <c r="K60" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L60" s="42"/>
@@ -4278,20 +4290,20 @@
       <c r="T60" s="45"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="12" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" s="76" t="s">
+    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="57"/>
+      <c r="B61" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="78" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="123"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4303,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L61" s="41"/>
@@ -4319,14 +4331,14 @@
       <c r="T61" s="45"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="12" customHeight="1">
-      <c r="A62" s="75"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="77"/>
+    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4334,7 +4346,7 @@
       <c r="I62" s="43"/>
       <c r="J62" s="50"/>
       <c r="K62" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L62" s="42"/>
@@ -4348,18 +4360,18 @@
       <c r="T62" s="45"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="12" customHeight="1">
-      <c r="A63" s="74">
+    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="57">
         <v>2</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="63"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4367,7 +4379,7 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:K79" si="13">SUM(L63:Q63)</f>
+        <f t="shared" ref="K63:K79" si="15">SUM(L63:Q63)</f>
         <v>0</v>
       </c>
       <c r="L63" s="41"/>
@@ -4381,14 +4393,14 @@
       <c r="T63" s="45"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="12" customHeight="1">
-      <c r="A64" s="75"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="64"/>
+    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="58"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4396,7 +4408,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L64" s="42"/>
@@ -4410,20 +4422,20 @@
       <c r="T64" s="45"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="12" customHeight="1">
-      <c r="A65" s="74"/>
-      <c r="B65" s="76" t="s">
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="57"/>
+      <c r="B65" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="78" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="123"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4435,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.25</v>
       </c>
       <c r="L65" s="41"/>
@@ -4451,14 +4463,14 @@
       <c r="T65" s="45"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="12" customHeight="1">
-      <c r="A66" s="75"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="77"/>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4466,7 +4478,7 @@
       <c r="I66" s="43"/>
       <c r="J66" s="50"/>
       <c r="K66" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L66" s="42"/>
@@ -4480,20 +4492,20 @@
       <c r="T66" s="45"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="12" customHeight="1">
-      <c r="A67" s="74"/>
-      <c r="B67" s="76" t="s">
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="57"/>
+      <c r="B67" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="71"/>
-      <c r="E67" s="78" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="123"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4505,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.25</v>
       </c>
       <c r="L67" s="41"/>
@@ -4521,14 +4533,14 @@
       <c r="T67" s="45"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="12" customHeight="1">
-      <c r="A68" s="75"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="77"/>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="58"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4536,7 +4548,7 @@
       <c r="I68" s="43"/>
       <c r="J68" s="50"/>
       <c r="K68" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L68" s="42"/>
@@ -4550,20 +4562,20 @@
       <c r="T68" s="45"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="12" customHeight="1">
-      <c r="A69" s="74"/>
-      <c r="B69" s="76" t="s">
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="57"/>
+      <c r="B69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="71"/>
-      <c r="E69" s="78" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="123"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4571,7 +4583,7 @@
       <c r="I69" s="43"/>
       <c r="J69" s="43"/>
       <c r="K69" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16</v>
       </c>
       <c r="L69" s="41"/>
@@ -4587,14 +4599,14 @@
       <c r="T69" s="45"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="12" customHeight="1">
-      <c r="A70" s="75"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="77"/>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4602,7 +4614,7 @@
       <c r="I70" s="50"/>
       <c r="J70" s="50"/>
       <c r="K70" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L70" s="44"/>
@@ -4616,23 +4628,23 @@
       <c r="T70" s="45"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="12" customHeight="1">
-      <c r="A71" s="80" t="s">
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="117"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="85"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12.3</v>
       </c>
       <c r="L71" s="46" cm="1">
@@ -4664,21 +4676,21 @@
       <c r="T71" s="45"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="12" customHeight="1">
-      <c r="A72" s="83"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="118"/>
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="80"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="86"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L72" s="21" cm="1">
@@ -4710,20 +4722,20 @@
       <c r="T72" s="45"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="12" customHeight="1">
-      <c r="A73" s="74">
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="57">
         <v>1</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="65" t="s">
+      <c r="C73" s="71"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="65"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4731,7 +4743,7 @@
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
       <c r="K73" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L73" s="41"/>
@@ -4745,14 +4757,14 @@
       <c r="T73" s="45"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="12" customHeight="1">
-      <c r="A74" s="75"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="64"/>
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="58"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4760,7 +4772,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L74" s="42"/>
@@ -4774,20 +4786,20 @@
       <c r="T74" s="45"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="12" customHeight="1">
-      <c r="A75" s="74"/>
-      <c r="B75" s="76" t="s">
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="57"/>
+      <c r="B75" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="70" t="s">
+      <c r="C75" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="71"/>
-      <c r="E75" s="78" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="123"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -4797,7 +4809,7 @@
       </c>
       <c r="J75" s="43"/>
       <c r="K75" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L75" s="41"/>
@@ -4815,14 +4827,14 @@
       <c r="T75" s="45"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" ht="12" customHeight="1">
-      <c r="A76" s="75"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="77"/>
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="58"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="56"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -4830,7 +4842,7 @@
       <c r="I76" s="43"/>
       <c r="J76" s="50"/>
       <c r="K76" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L76" s="42"/>
@@ -4844,20 +4856,20 @@
       <c r="T76" s="45"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" ht="12" customHeight="1">
-      <c r="A77" s="74"/>
-      <c r="B77" s="76" t="s">
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="70" t="s">
+      <c r="C77" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="71"/>
-      <c r="E77" s="78" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="123"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -4867,7 +4879,7 @@
       </c>
       <c r="J77" s="43"/>
       <c r="K77" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3</v>
       </c>
       <c r="L77" s="41"/>
@@ -4885,14 +4897,14 @@
       <c r="T77" s="45"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" ht="12" customHeight="1">
-      <c r="A78" s="75"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="77"/>
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="58"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="56"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -4900,7 +4912,7 @@
       <c r="I78" s="43"/>
       <c r="J78" s="50"/>
       <c r="K78" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L78" s="42"/>
@@ -4914,23 +4926,23 @@
       <c r="T78" s="45"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" ht="12" customHeight="1">
-      <c r="A79" s="80" t="s">
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="117"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.6100000000000003</v>
       </c>
       <c r="L79" s="21" cm="1">
@@ -4962,21 +4974,21 @@
       <c r="T79" s="45"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" ht="12" customHeight="1">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="118"/>
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="80"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9">
-        <f t="shared" ref="K80:K106" si="14">SUM(L80:Q80)</f>
+        <f t="shared" ref="K80:K106" si="16">SUM(L80:Q80)</f>
         <v>0</v>
       </c>
       <c r="L80" s="22" cm="1">
@@ -4999,7 +5011,7 @@
         <f t="array" ref="P80">SUMPRODUCT((MOD(ROW(P$81:P$92),2)=0)*P$81:P$92)</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="124" cm="1">
+      <c r="Q80" s="54" cm="1">
         <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$92),2)=0)*Q$81:Q$92)</f>
         <v>0</v>
       </c>
@@ -5008,18 +5020,18 @@
       <c r="T80" s="45"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" ht="12" customHeight="1">
-      <c r="A81" s="74">
+    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="57">
         <v>1</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B81" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="88"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="63"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5027,7 +5039,7 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L81" s="41"/>
@@ -5041,14 +5053,14 @@
       <c r="T81" s="45"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" ht="12" customHeight="1">
-      <c r="A82" s="75"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="64"/>
+    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="58"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5056,7 +5068,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L82" s="42"/>
@@ -5070,20 +5082,20 @@
       <c r="T82" s="45"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" ht="12" customHeight="1">
-      <c r="A83" s="74"/>
-      <c r="B83" s="76" t="s">
+    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="57"/>
+      <c r="B83" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="71"/>
-      <c r="E83" s="78" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="78"/>
-      <c r="G83" s="123"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5093,7 +5105,7 @@
       </c>
       <c r="J83" s="43"/>
       <c r="K83" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L83" s="41"/>
@@ -5109,14 +5121,14 @@
       <c r="T83" s="45"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" ht="12" customHeight="1">
-      <c r="A84" s="75"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="77"/>
+    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="58"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5124,7 +5136,7 @@
       <c r="I84" s="43"/>
       <c r="J84" s="50"/>
       <c r="K84" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L84" s="42"/>
@@ -5138,20 +5150,20 @@
       <c r="T84" s="45"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" ht="12" customHeight="1">
-      <c r="A85" s="74"/>
-      <c r="B85" s="76" t="s">
+    <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="57"/>
+      <c r="B85" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="70" t="s">
+      <c r="C85" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="71"/>
-      <c r="E85" s="78" t="s">
+      <c r="D85" s="61"/>
+      <c r="E85" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="78"/>
-      <c r="G85" s="123"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5159,7 +5171,7 @@
       <c r="I85" s="43"/>
       <c r="J85" s="43"/>
       <c r="K85" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
       <c r="L85" s="41"/>
@@ -5175,14 +5187,14 @@
       <c r="T85" s="45"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" ht="12" customHeight="1">
-      <c r="A86" s="75"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="77"/>
+    <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="58"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5190,7 +5202,7 @@
       <c r="I86" s="50"/>
       <c r="J86" s="50"/>
       <c r="K86" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L86" s="42"/>
@@ -5204,18 +5216,18 @@
       <c r="T86" s="45"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" ht="12" customHeight="1">
-      <c r="A87" s="74">
+    <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="57">
         <v>2</v>
       </c>
-      <c r="B87" s="70" t="s">
+      <c r="B87" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="63"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5223,7 +5235,7 @@
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
       <c r="K87" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L87" s="41"/>
@@ -5237,14 +5249,14 @@
       <c r="T87" s="45"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" ht="12" customHeight="1">
-      <c r="A88" s="75"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="64"/>
+    <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="58"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5252,7 +5264,7 @@
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
       <c r="K88" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L88" s="42"/>
@@ -5266,20 +5278,20 @@
       <c r="T88" s="45"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" ht="12" customHeight="1">
-      <c r="A89" s="74"/>
-      <c r="B89" s="76" t="s">
+    <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="57"/>
+      <c r="B89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C89" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="71"/>
-      <c r="E89" s="78" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="78"/>
-      <c r="G89" s="123"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5291,7 +5303,7 @@
         <v>5</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.25</v>
       </c>
       <c r="L89" s="41"/>
@@ -5307,14 +5319,14 @@
       <c r="T89" s="45"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" ht="12" customHeight="1">
-      <c r="A90" s="75"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="77"/>
+    <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5322,7 +5334,7 @@
       <c r="I90" s="43"/>
       <c r="J90" s="50"/>
       <c r="K90" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L90" s="42"/>
@@ -5336,20 +5348,20 @@
       <c r="T90" s="45"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" ht="12" customHeight="1">
-      <c r="A91" s="74"/>
-      <c r="B91" s="76" t="s">
+    <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="57"/>
+      <c r="B91" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="71"/>
-      <c r="E91" s="78" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="78"/>
-      <c r="G91" s="123"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5357,7 +5369,7 @@
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
       <c r="K91" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
       <c r="L91" s="41"/>
@@ -5373,14 +5385,14 @@
       <c r="T91" s="45"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" ht="12" customHeight="1">
-      <c r="A92" s="75"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="77"/>
+    <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="58"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="56"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5388,7 +5400,7 @@
       <c r="I92" s="43"/>
       <c r="J92" s="50"/>
       <c r="K92" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L92" s="42"/>
@@ -5402,23 +5414,23 @@
       <c r="T92" s="45"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" ht="12" customHeight="1">
-      <c r="A93" s="80" t="s">
+    <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="117"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="85"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
       <c r="K93" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.07</v>
       </c>
       <c r="L93" s="21" cm="1">
@@ -5450,21 +5462,21 @@
       <c r="T93" s="45"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" ht="12" customHeight="1">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="118"/>
+    <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="86"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L94" s="22" cm="1">
@@ -5496,18 +5508,18 @@
       <c r="T94" s="45"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" ht="12" customHeight="1">
-      <c r="A95" s="74">
+    <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="57">
         <v>1</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="88"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="63"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5515,7 +5527,7 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L95" s="41"/>
@@ -5529,14 +5541,14 @@
       <c r="T95" s="45"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" ht="12" customHeight="1">
-      <c r="A96" s="75"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="64"/>
+    <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="58"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5544,7 +5556,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L96" s="42"/>
@@ -5558,20 +5570,20 @@
       <c r="T96" s="45"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" ht="12" customHeight="1">
-      <c r="A97" s="74"/>
-      <c r="B97" s="76" t="s">
+    <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="57"/>
+      <c r="B97" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="70" t="s">
+      <c r="C97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="71"/>
-      <c r="E97" s="78" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="78"/>
-      <c r="G97" s="123"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5583,7 +5595,7 @@
         <v>5</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="L97" s="41"/>
@@ -5599,14 +5611,14 @@
       <c r="T97" s="45"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" ht="12" customHeight="1">
-      <c r="A98" s="75"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="77"/>
+    <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="58"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5614,7 +5626,7 @@
       <c r="I98" s="50"/>
       <c r="J98" s="50"/>
       <c r="K98" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L98" s="42"/>
@@ -5628,20 +5640,20 @@
       <c r="T98" s="45"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" ht="12" customHeight="1">
-      <c r="A99" s="74"/>
-      <c r="B99" s="76" t="s">
+    <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="57"/>
+      <c r="B99" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="70" t="s">
+      <c r="C99" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="71"/>
-      <c r="E99" s="78" t="s">
+      <c r="D99" s="61"/>
+      <c r="E99" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="78"/>
-      <c r="G99" s="123"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5653,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
       <c r="L99" s="41"/>
@@ -5669,14 +5681,14 @@
       <c r="T99" s="45"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" ht="12" customHeight="1">
-      <c r="A100" s="75"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="77"/>
+    <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="58"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="56"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5684,7 +5696,7 @@
       <c r="I100" s="50"/>
       <c r="J100" s="50"/>
       <c r="K100" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L100" s="42"/>
@@ -5698,18 +5710,18 @@
       <c r="T100" s="45"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" ht="12" customHeight="1">
-      <c r="A101" s="74">
+    <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="57">
         <v>2</v>
       </c>
-      <c r="B101" s="70" t="s">
+      <c r="B101" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="88"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="63"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5717,7 +5729,7 @@
       <c r="I101" s="24"/>
       <c r="J101" s="24"/>
       <c r="K101" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L101" s="41"/>
@@ -5731,14 +5743,14 @@
       <c r="T101" s="45"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" ht="12" customHeight="1">
-      <c r="A102" s="75"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="64"/>
+    <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="58"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5746,7 +5758,7 @@
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
       <c r="K102" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L102" s="42"/>
@@ -5760,20 +5772,20 @@
       <c r="T102" s="45"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" ht="12" customHeight="1">
-      <c r="A103" s="74"/>
-      <c r="B103" s="76" t="s">
+    <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="57"/>
+      <c r="B103" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="70" t="s">
+      <c r="C103" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="71"/>
-      <c r="E103" s="78" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="78"/>
-      <c r="G103" s="123"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5785,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.25</v>
       </c>
       <c r="L103" s="41"/>
@@ -5801,14 +5813,14 @@
       <c r="T103" s="45"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" ht="12" customHeight="1">
-      <c r="A104" s="75"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="77"/>
+    <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5816,7 +5828,7 @@
       <c r="I104" s="43"/>
       <c r="J104" s="53"/>
       <c r="K104" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L104" s="42"/>
@@ -5830,20 +5842,20 @@
       <c r="T104" s="45"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" ht="12" customHeight="1">
-      <c r="A105" s="74"/>
-      <c r="B105" s="76" t="s">
+    <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="57"/>
+      <c r="B105" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="70" t="s">
+      <c r="C105" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="71"/>
-      <c r="E105" s="78" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="78"/>
-      <c r="G105" s="123"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5853,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
       <c r="L105" s="41"/>
@@ -5869,14 +5881,14 @@
       <c r="T105" s="45"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" ht="12" customHeight="1">
-      <c r="A106" s="75"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="77"/>
+    <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="58"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="56"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -5884,7 +5896,7 @@
       <c r="I106" s="50"/>
       <c r="J106" s="50"/>
       <c r="K106" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L106" s="42"/>
@@ -5898,7 +5910,7 @@
       <c r="T106" s="45"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" ht="12" customHeight="1">
+    <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="36"/>
       <c r="L107" s="36"/>
       <c r="M107" s="36"/>
@@ -5910,49 +5922,49 @@
       <c r="T107" s="45"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" ht="12" customHeight="1">
+    <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R108" s="45"/>
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" ht="12" customHeight="1">
+    <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R109" s="45"/>
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" ht="12" customHeight="1">
+    <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R110" s="45"/>
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" ht="12" customHeight="1">
+    <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R111" s="45"/>
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" ht="12" customHeight="1">
+    <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="18:22" ht="12" customHeight="1">
+    <row r="113" spans="18:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="18:22" ht="12" customHeight="1">
+    <row r="114" spans="18:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R114" s="45"/>
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="18:22">
+    <row r="115" spans="18:22" x14ac:dyDescent="0.15">
       <c r="R115" s="36"/>
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
@@ -5965,51 +5977,225 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A93:D94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
@@ -6034,232 +6220,58 @@
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:D44"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J1:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6509,18 +6521,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6542,14 +6554,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6563,4 +6567,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039D0AAC-C123-40DC-92A0-E8D808B3C36F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE09E1F-E4D7-4804-9EF8-0031017A80DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1170" windowWidth="19920" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="19920" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="78">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -423,6 +423,34 @@
   </si>
   <si>
     <t>浜崎、横井、栢沼</t>
+  </si>
+  <si>
+    <t>横井</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎</t>
+    <rPh sb="0" eb="2">
+      <t>ハマザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栢沼</t>
+    <rPh sb="0" eb="2">
+      <t>カヤヌマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2103,10 +2131,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21:F22"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2331,7 +2359,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K36)</f>
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L24,L36,L54,L72,L80,L94)</f>
@@ -2343,7 +2371,7 @@
       </c>
       <c r="N6" s="28">
         <f>SUM(N8,N24,N36,N54,N72,N80,N94)</f>
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O6" s="28">
         <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
@@ -2429,7 +2457,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f t="shared" ref="K8:O8" si="2">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>2.6</v>
+        <v>3.5900000000000003</v>
       </c>
       <c r="L8" s="30">
         <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
@@ -2441,7 +2469,7 @@
       </c>
       <c r="N8" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="O8" s="30">
         <f t="shared" si="2"/>
@@ -2601,7 +2629,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
@@ -2735,7 +2763,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
@@ -2777,15 +2805,21 @@
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="49"/>
+      <c r="I18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="49">
+        <v>5</v>
+      </c>
       <c r="K18" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="N18" s="32">
+        <v>0.83</v>
+      </c>
       <c r="O18" s="32"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
@@ -2807,7 +2841,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="43" t="str">
@@ -2849,15 +2883,21 @@
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="50"/>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="50">
+        <v>5</v>
+      </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="N20" s="42">
+        <v>0</v>
+      </c>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
@@ -2878,7 +2918,9 @@
       <c r="E21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="66"/>
+      <c r="F21" s="66" t="s">
+        <v>22</v>
+      </c>
       <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
@@ -2919,15 +2961,21 @@
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="49"/>
+      <c r="I22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="49">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
         <f>SUM(L22:O22)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+      <c r="N22" s="32">
+        <v>0.16</v>
+      </c>
       <c r="O22" s="32"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
@@ -2999,7 +3047,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:Q24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$34),2)=0)*K$25:K$34)</f>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L24" s="30">
         <f t="shared" si="6"/>
@@ -3011,7 +3059,7 @@
       </c>
       <c r="N24" s="30">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O24" s="34">
         <f t="shared" si="6"/>
@@ -3098,7 +3146,9 @@
       <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66"/>
+      <c r="F27" s="66" t="s">
+        <v>59</v>
+      </c>
       <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
@@ -3139,15 +3189,21 @@
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="49"/>
+      <c r="I28" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="49">
+        <v>1</v>
+      </c>
       <c r="K28" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="N28" s="32">
+        <v>0.1</v>
+      </c>
       <c r="O28" s="32"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
@@ -3168,7 +3224,9 @@
       <c r="E29" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="66"/>
+      <c r="F29" s="66" t="s">
+        <v>59</v>
+      </c>
       <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
@@ -3209,15 +3267,21 @@
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="49"/>
+      <c r="I30" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="49">
+        <v>1</v>
+      </c>
       <c r="K30" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
+      <c r="N30" s="32">
+        <v>0.16</v>
+      </c>
       <c r="O30" s="32"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
@@ -3238,7 +3302,9 @@
       <c r="E31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="66"/>
+      <c r="F31" s="66" t="s">
+        <v>59</v>
+      </c>
       <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
@@ -3279,15 +3345,21 @@
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="49"/>
+      <c r="I32" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="49">
+        <v>1</v>
+      </c>
       <c r="K32" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="N32" s="32">
+        <v>0.5</v>
+      </c>
       <c r="O32" s="32"/>
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
@@ -3308,7 +3380,9 @@
       <c r="E33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="66"/>
+      <c r="F33" s="66" t="s">
+        <v>59</v>
+      </c>
       <c r="G33" s="68" t="s">
         <v>68</v>
       </c>
@@ -3351,15 +3425,21 @@
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="49"/>
+      <c r="I34" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="49">
+        <v>1</v>
+      </c>
       <c r="K34" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="N34" s="32">
+        <v>0.5</v>
+      </c>
       <c r="O34" s="32"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
@@ -3431,7 +3511,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="52">
         <f>SUMPRODUCT((MOD(ROW(K$37:K$52),2)=0)*K$37:K$52)</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="L36" s="30">
         <f t="shared" ref="L36:O36" si="10">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=0)*L$37:L$52)</f>
@@ -3443,7 +3523,7 @@
       </c>
       <c r="N36" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="O36" s="35">
         <f t="shared" si="10"/>
@@ -3530,7 +3610,9 @@
       <c r="E39" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="64"/>
+      <c r="F39" s="64" t="s">
+        <v>59</v>
+      </c>
       <c r="G39" s="55"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
@@ -3571,15 +3653,21 @@
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="50"/>
+      <c r="I40" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="50">
+        <v>1</v>
+      </c>
       <c r="K40" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L40" s="42"/>
       <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
+      <c r="N40" s="42">
+        <v>0.1</v>
+      </c>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
@@ -3600,7 +3688,9 @@
       <c r="E41" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="66"/>
+      <c r="F41" s="66" t="s">
+        <v>59</v>
+      </c>
       <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
@@ -3641,15 +3731,21 @@
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="49"/>
+      <c r="I42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="49">
+        <v>1</v>
+      </c>
       <c r="K42" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
+      <c r="N42" s="32">
+        <v>0.25</v>
+      </c>
       <c r="O42" s="32"/>
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
@@ -3670,7 +3766,9 @@
       <c r="E43" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="64"/>
+      <c r="F43" s="64" t="s">
+        <v>59</v>
+      </c>
       <c r="G43" s="55"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
@@ -3711,15 +3809,21 @@
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="50"/>
+      <c r="I44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="50">
+        <v>1</v>
+      </c>
       <c r="K44" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L44" s="42"/>
       <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
+      <c r="N44" s="42">
+        <v>0.5</v>
+      </c>
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
       <c r="Q44" s="42"/>
@@ -6000,6 +6104,7 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:D52"/>
@@ -6059,8 +6164,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="B25:D26"/>
     <mergeCell ref="C27:D28"/>
@@ -6272,6 +6375,7 @@
     <mergeCell ref="C43:D44"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">

--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{C5E8F72E-CAD1-408E-93FC-E1DB7790E58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8D78BD2-10E6-4E4A-B3D9-59F1F7505290}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDF252C-097C-49A4-9AB9-5D2EFDB8E6F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="285" windowWidth="20160" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12180" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -96,14 +96,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -435,7 +435,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1340,6 +1340,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,31 +1454,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,170 +1505,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,13 +2105,13 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="M77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2126,121 +2126,121 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="91" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="54">
+      <c r="L1" s="87">
         <v>43993</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="54">
+      <c r="M1" s="88"/>
+      <c r="N1" s="87">
         <v>43994</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="54">
+      <c r="O1" s="88"/>
+      <c r="P1" s="87">
         <v>43997</v>
       </c>
-      <c r="Q1" s="55"/>
+      <c r="Q1" s="88"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="56" t="s">
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="110"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="56" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="90"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="58" t="s">
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="110"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="58"/>
+      <c r="Q3" s="91"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="116"/>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="103"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2264,16 +2264,16 @@
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2316,14 +2316,14 @@
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="122"/>
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2364,16 +2364,16 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="108" t="s">
+    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2414,14 +2414,14 @@
       <c r="T7" s="45"/>
       <c r="U7" s="45"/>
     </row>
-    <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="112"/>
+    <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2462,18 +2462,18 @@
       <c r="T8" s="45"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1">
-      <c r="A9" s="68">
+    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2489,14 +2489,14 @@
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="64"/>
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="108"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2512,22 +2512,22 @@
       <c r="T10" s="45"/>
       <c r="U10" s="45"/>
     </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="107"/>
+      <c r="B11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2555,14 +2555,14 @@
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
     </row>
-    <row r="12" spans="1:21" ht="12" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="62"/>
+    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="108"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2586,22 +2586,22 @@
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="1:21" ht="12" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="107"/>
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2629,14 +2629,14 @@
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="1:21" ht="12" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="62"/>
+    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="108"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2658,18 +2658,18 @@
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="1:21" ht="12" customHeight="1">
-      <c r="A15" s="68">
+    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="107">
         <v>2</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="63"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2688,14 +2688,14 @@
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
     </row>
-    <row r="16" spans="1:21" ht="12" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="64"/>
+    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="108"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2714,20 +2714,20 @@
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="107"/>
+      <c r="B17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="61"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2755,14 +2755,14 @@
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="62"/>
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="108"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2784,20 +2784,20 @@
       <c r="T18" s="45"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="78" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="123"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2825,14 +2825,14 @@
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="77"/>
+    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2854,20 +2854,20 @@
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="67" t="s">
+    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="107"/>
+      <c r="B21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="59" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="61"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2895,14 +2895,14 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="62"/>
+    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="108"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -2924,47 +2924,47 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
     </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1">
-      <c r="A23" s="80" t="s">
+    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="117"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="48">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$34),2)=1)*K$25:K$34)</f>
+        <f t="shared" ref="K23:Q23" si="5">SUMPRODUCT((MOD(ROW(K$25:K$34),2)=1)*K$25:K$34)</f>
         <v>1.42</v>
       </c>
       <c r="L23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$34),2)=1)*L$25:L$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$34),2)=1)*M$25:M$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$34),2)=1)*N$25:N$34)</f>
+        <f t="shared" si="5"/>
         <v>1.42</v>
       </c>
       <c r="O23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$34),2)=1)*O$25:O$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$34),2)=1)*P$25:P$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23" s="33">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$34),2)=1)*Q$25:Q$34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23" s="45"/>
@@ -2972,45 +2972,45 @@
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
     </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="118"/>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$34),2)=0)*K$25:K$34)</f>
+        <f t="shared" ref="K24:Q24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$34),2)=0)*K$25:K$34)</f>
         <v>0</v>
       </c>
       <c r="L24" s="30">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$34),2)=0)*L$25:L$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="34">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$34),2)=0)*M$25:M$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="30">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$34),2)=0)*N$25:N$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O24" s="34">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$34),2)=0)*O$25:O$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="30">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$34),2)=0)*P$25:P$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="34">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$34),2)=0)*Q$25:Q$34)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="45"/>
@@ -3018,18 +3018,18 @@
       <c r="T24" s="45"/>
       <c r="U24" s="45"/>
     </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1">
-      <c r="A25" s="68">
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="107">
         <v>1</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3048,14 +3048,14 @@
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
     </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="64"/>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="108"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3074,20 +3074,20 @@
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
     </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="67" t="s">
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="107"/>
+      <c r="B27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="61"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" ref="K27:K34" si="5">SUM(L27:O27)</f>
+        <f t="shared" ref="K27:K34" si="7">SUM(L27:O27)</f>
         <v>0.1</v>
       </c>
       <c r="L27" s="31"/>
@@ -3115,14 +3115,14 @@
       <c r="T27" s="45"/>
       <c r="U27" s="45"/>
     </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="62"/>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="108"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3130,7 +3130,7 @@
       <c r="I28" s="43"/>
       <c r="J28" s="49"/>
       <c r="K28" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L28" s="32"/>
@@ -3144,20 +3144,20 @@
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
     </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="67" t="s">
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="107"/>
+      <c r="B29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="59" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3185,14 +3185,14 @@
       <c r="T29" s="45"/>
       <c r="U29" s="45"/>
     </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="62"/>
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="108"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3200,7 +3200,7 @@
       <c r="I30" s="43"/>
       <c r="J30" s="49"/>
       <c r="K30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L30" s="32"/>
@@ -3214,20 +3214,20 @@
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
     </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="67" t="s">
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="107"/>
+      <c r="B31" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16</v>
       </c>
       <c r="L31" s="31"/>
@@ -3255,14 +3255,14 @@
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
     </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="62"/>
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="108"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3270,7 +3270,7 @@
       <c r="I32" s="51"/>
       <c r="J32" s="49"/>
       <c r="K32" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L32" s="32"/>
@@ -3284,20 +3284,20 @@
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
     </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="67" t="s">
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="107"/>
+      <c r="B33" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="61" t="s">
+      <c r="F33" s="66"/>
+      <c r="G33" s="68" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3311,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L33" s="31"/>
@@ -3327,14 +3327,14 @@
       <c r="T33" s="45"/>
       <c r="U33" s="45"/>
     </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="62"/>
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="108"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3342,7 +3342,7 @@
       <c r="I34" s="51"/>
       <c r="J34" s="49"/>
       <c r="K34" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L34" s="32"/>
@@ -3356,16 +3356,16 @@
       <c r="T34" s="45"/>
       <c r="U34" s="45"/>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="117"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3376,27 +3376,27 @@
         <v>2.96</v>
       </c>
       <c r="L35" s="33">
-        <f t="shared" ref="L35:O35" si="6">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=1)*L$37:L$52)</f>
+        <f t="shared" ref="L35:O35" si="8">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=1)*L$37:L$52)</f>
         <v>0</v>
       </c>
       <c r="M35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.96</v>
       </c>
       <c r="O35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P35" s="33">
-        <f t="shared" ref="P35:Q35" si="7">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=1)*P$37:P$52)</f>
+        <f t="shared" ref="P35:Q35" si="9">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=1)*P$37:P$52)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R35" s="45"/>
@@ -3404,14 +3404,14 @@
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="118"/>
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3422,27 +3422,27 @@
         <v>0</v>
       </c>
       <c r="L36" s="30">
-        <f t="shared" ref="L36:O36" si="8">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=0)*L$37:L$52)</f>
+        <f t="shared" ref="L36:O36" si="10">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=0)*L$37:L$52)</f>
         <v>0</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P36" s="30">
-        <f t="shared" ref="P36:Q36" si="9">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=0)*P$37:P$52)</f>
+        <f t="shared" ref="P36:Q36" si="11">SUMPRODUCT((MOD(ROW(P$37:P$52),2)=0)*P$37:P$52)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R36" s="45"/>
@@ -3450,18 +3450,18 @@
       <c r="T36" s="45"/>
       <c r="U36" s="45"/>
     </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1">
-      <c r="A37" s="68">
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="107">
         <v>1</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3480,14 +3480,14 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
     </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="64"/>
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="108"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3506,20 +3506,20 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
     </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="76" t="s">
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="57"/>
+      <c r="B39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="123"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3531,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K39:K44" si="10">SUM(L39:O39)</f>
+        <f t="shared" ref="K39:K44" si="12">SUM(L39:O39)</f>
         <v>0.1</v>
       </c>
       <c r="L39" s="41"/>
@@ -3547,14 +3547,14 @@
       <c r="T39" s="45"/>
       <c r="U39" s="45"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="77"/>
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3562,7 +3562,7 @@
       <c r="I40" s="43"/>
       <c r="J40" s="50"/>
       <c r="K40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L40" s="42"/>
@@ -3576,20 +3576,20 @@
       <c r="T40" s="45"/>
       <c r="U40" s="45"/>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1">
-      <c r="A41" s="68"/>
-      <c r="B41" s="67" t="s">
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="107"/>
+      <c r="B41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="59" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="61"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="L41" s="31"/>
@@ -3617,14 +3617,14 @@
       <c r="T41" s="45"/>
       <c r="U41" s="45"/>
     </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="62"/>
+    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="108"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3632,7 +3632,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="49"/>
       <c r="K42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L42" s="32"/>
@@ -3646,20 +3646,20 @@
       <c r="T42" s="45"/>
       <c r="U42" s="45"/>
     </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="76" t="s">
+    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="78" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="123"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="L43" s="41"/>
@@ -3687,14 +3687,14 @@
       <c r="T43" s="45"/>
       <c r="U43" s="45"/>
     </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1">
-      <c r="A44" s="75"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="77"/>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3702,7 +3702,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="50"/>
       <c r="K44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L44" s="42"/>
@@ -3716,18 +3716,18 @@
       <c r="T44" s="45"/>
       <c r="U44" s="45"/>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1">
-      <c r="A45" s="68">
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="107">
         <v>2</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="63"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3746,14 +3746,14 @@
       <c r="T45" s="45"/>
       <c r="U45" s="45"/>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="64"/>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="108"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3772,20 +3772,20 @@
       <c r="T46" s="45"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="67" t="s">
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="107"/>
+      <c r="B47" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="59" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="61" t="s">
+      <c r="F47" s="66"/>
+      <c r="G47" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3815,14 +3815,14 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1">
-      <c r="A48" s="69"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="62"/>
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="108"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -3844,20 +3844,20 @@
       <c r="T48" s="45"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="12" customHeight="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="67" t="s">
+    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="107"/>
+      <c r="B49" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="59" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -3885,14 +3885,14 @@
       <c r="T49" s="45"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="12" customHeight="1">
-      <c r="A50" s="69"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="62"/>
+    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="108"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -3914,20 +3914,20 @@
       <c r="T50" s="45"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="12" customHeight="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="67" t="s">
+    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="107"/>
+      <c r="B51" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="61"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -3955,14 +3955,14 @@
       <c r="T51" s="45"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="12" customHeight="1">
-      <c r="A52" s="69"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="62"/>
+    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="108"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -3970,7 +3970,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="49"/>
       <c r="K52" s="10">
-        <f t="shared" ref="K52" si="11">SUM(L52:O52)</f>
+        <f t="shared" ref="K52" si="13">SUM(L52:O52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="37"/>
@@ -3984,16 +3984,16 @@
       <c r="T52" s="45"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="12" customHeight="1">
-      <c r="A53" s="80" t="s">
+    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="117"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4032,14 +4032,14 @@
       <c r="T53" s="45"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="12" customHeight="1">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="118"/>
+    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="86"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4078,18 +4078,18 @@
       <c r="T54" s="45"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="12" customHeight="1">
-      <c r="A55" s="74">
+    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="57">
         <v>1</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="63"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4108,14 +4108,14 @@
       <c r="T55" s="45"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="12" customHeight="1">
-      <c r="A56" s="75"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="64"/>
+    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="58"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4134,20 +4134,20 @@
       <c r="T56" s="45"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="12" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" s="76" t="s">
+    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="57"/>
+      <c r="B57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="78" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="123"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4159,7 +4159,7 @@
         <v>3</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" ref="K57:K62" si="12">SUM(L57:Q57)</f>
+        <f t="shared" ref="K57:K62" si="14">SUM(L57:Q57)</f>
         <v>3</v>
       </c>
       <c r="L57" s="41"/>
@@ -4177,14 +4177,14 @@
       <c r="T57" s="45"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="12" customHeight="1">
-      <c r="A58" s="75"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="77"/>
+    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="58"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4192,7 +4192,7 @@
       <c r="I58" s="43"/>
       <c r="J58" s="50"/>
       <c r="K58" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L58" s="42"/>
@@ -4206,20 +4206,20 @@
       <c r="T58" s="45"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="12" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="76" t="s">
+    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="57"/>
+      <c r="B59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="78" t="s">
+      <c r="D59" s="61"/>
+      <c r="E59" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="123"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="55"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4231,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L59" s="41"/>
@@ -4249,14 +4249,14 @@
       <c r="T59" s="45"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="12" customHeight="1">
-      <c r="A60" s="75"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="77"/>
+    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="58"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4264,7 +4264,7 @@
       <c r="I60" s="43"/>
       <c r="J60" s="50"/>
       <c r="K60" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L60" s="42"/>
@@ -4278,20 +4278,20 @@
       <c r="T60" s="45"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="12" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" s="76" t="s">
+    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="57"/>
+      <c r="B61" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="78" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="123"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4303,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L61" s="41"/>
@@ -4319,14 +4319,14 @@
       <c r="T61" s="45"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="12" customHeight="1">
-      <c r="A62" s="75"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="77"/>
+    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4334,7 +4334,7 @@
       <c r="I62" s="43"/>
       <c r="J62" s="50"/>
       <c r="K62" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L62" s="42"/>
@@ -4348,18 +4348,18 @@
       <c r="T62" s="45"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="12" customHeight="1">
-      <c r="A63" s="74">
+    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="57">
         <v>2</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="63"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4367,7 +4367,7 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:K79" si="13">SUM(L63:Q63)</f>
+        <f t="shared" ref="K63:K79" si="15">SUM(L63:Q63)</f>
         <v>0</v>
       </c>
       <c r="L63" s="41"/>
@@ -4381,14 +4381,14 @@
       <c r="T63" s="45"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="12" customHeight="1">
-      <c r="A64" s="75"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="64"/>
+    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="58"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4396,7 +4396,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L64" s="42"/>
@@ -4410,20 +4410,20 @@
       <c r="T64" s="45"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="12" customHeight="1">
-      <c r="A65" s="74"/>
-      <c r="B65" s="76" t="s">
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="57"/>
+      <c r="B65" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="78" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="123"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4435,7 +4435,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.25</v>
       </c>
       <c r="L65" s="41"/>
@@ -4451,14 +4451,14 @@
       <c r="T65" s="45"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="12" customHeight="1">
-      <c r="A66" s="75"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="77"/>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4466,7 +4466,7 @@
       <c r="I66" s="43"/>
       <c r="J66" s="50"/>
       <c r="K66" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L66" s="42"/>
@@ -4480,20 +4480,20 @@
       <c r="T66" s="45"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="12" customHeight="1">
-      <c r="A67" s="74"/>
-      <c r="B67" s="76" t="s">
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="57"/>
+      <c r="B67" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="71"/>
-      <c r="E67" s="78" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="123"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4505,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.25</v>
       </c>
       <c r="L67" s="41"/>
@@ -4521,14 +4521,14 @@
       <c r="T67" s="45"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="12" customHeight="1">
-      <c r="A68" s="75"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="77"/>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="58"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4536,7 +4536,7 @@
       <c r="I68" s="43"/>
       <c r="J68" s="50"/>
       <c r="K68" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L68" s="42"/>
@@ -4550,20 +4550,20 @@
       <c r="T68" s="45"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="12" customHeight="1">
-      <c r="A69" s="74"/>
-      <c r="B69" s="76" t="s">
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="57"/>
+      <c r="B69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="71"/>
-      <c r="E69" s="78" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="123"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4571,7 +4571,7 @@
       <c r="I69" s="43"/>
       <c r="J69" s="43"/>
       <c r="K69" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16</v>
       </c>
       <c r="L69" s="41"/>
@@ -4587,14 +4587,14 @@
       <c r="T69" s="45"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="12" customHeight="1">
-      <c r="A70" s="75"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="77"/>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4602,7 +4602,7 @@
       <c r="I70" s="50"/>
       <c r="J70" s="50"/>
       <c r="K70" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L70" s="44"/>
@@ -4616,23 +4616,23 @@
       <c r="T70" s="45"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="12" customHeight="1">
-      <c r="A71" s="80" t="s">
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="117"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="85"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12.3</v>
       </c>
       <c r="L71" s="46" cm="1">
@@ -4664,21 +4664,21 @@
       <c r="T71" s="45"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="12" customHeight="1">
-      <c r="A72" s="83"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="118"/>
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="80"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="86"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L72" s="21" cm="1">
@@ -4710,20 +4710,20 @@
       <c r="T72" s="45"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="12" customHeight="1">
-      <c r="A73" s="74">
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="57">
         <v>1</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="65" t="s">
+      <c r="C73" s="71"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="65"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4731,7 +4731,7 @@
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
       <c r="K73" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L73" s="41"/>
@@ -4745,14 +4745,14 @@
       <c r="T73" s="45"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="12" customHeight="1">
-      <c r="A74" s="75"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="64"/>
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="58"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4760,7 +4760,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L74" s="42"/>
@@ -4774,20 +4774,20 @@
       <c r="T74" s="45"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="12" customHeight="1">
-      <c r="A75" s="74"/>
-      <c r="B75" s="76" t="s">
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="57"/>
+      <c r="B75" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="70" t="s">
+      <c r="C75" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="71"/>
-      <c r="E75" s="78" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="123"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="J75" s="43"/>
       <c r="K75" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L75" s="41"/>
@@ -4815,14 +4815,14 @@
       <c r="T75" s="45"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" ht="12" customHeight="1">
-      <c r="A76" s="75"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="77"/>
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="58"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="56"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -4830,7 +4830,7 @@
       <c r="I76" s="43"/>
       <c r="J76" s="50"/>
       <c r="K76" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L76" s="42"/>
@@ -4844,20 +4844,20 @@
       <c r="T76" s="45"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" ht="12" customHeight="1">
-      <c r="A77" s="74"/>
-      <c r="B77" s="76" t="s">
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="70" t="s">
+      <c r="C77" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="71"/>
-      <c r="E77" s="78" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="123"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="J77" s="43"/>
       <c r="K77" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3</v>
       </c>
       <c r="L77" s="41"/>
@@ -4885,14 +4885,14 @@
       <c r="T77" s="45"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" ht="12" customHeight="1">
-      <c r="A78" s="75"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="77"/>
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="58"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="56"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -4900,7 +4900,7 @@
       <c r="I78" s="43"/>
       <c r="J78" s="50"/>
       <c r="K78" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L78" s="42"/>
@@ -4914,23 +4914,23 @@
       <c r="T78" s="45"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" ht="12" customHeight="1">
-      <c r="A79" s="80" t="s">
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="117"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.6100000000000003</v>
       </c>
       <c r="L79" s="21" cm="1">
@@ -4962,21 +4962,21 @@
       <c r="T79" s="45"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" ht="12" customHeight="1">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="118"/>
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="80"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9">
-        <f t="shared" ref="K80:K106" si="14">SUM(L80:Q80)</f>
+        <f t="shared" ref="K80:K106" si="16">SUM(L80:Q80)</f>
         <v>0</v>
       </c>
       <c r="L80" s="22" cm="1">
@@ -4999,7 +4999,7 @@
         <f t="array" ref="P80">SUMPRODUCT((MOD(ROW(P$81:P$92),2)=0)*P$81:P$92)</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="124" cm="1">
+      <c r="Q80" s="54" cm="1">
         <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$92),2)=0)*Q$81:Q$92)</f>
         <v>0</v>
       </c>
@@ -5008,18 +5008,18 @@
       <c r="T80" s="45"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" ht="12" customHeight="1">
-      <c r="A81" s="74">
+    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="57">
         <v>1</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B81" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="88"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="63"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5027,7 +5027,7 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L81" s="41"/>
@@ -5041,14 +5041,14 @@
       <c r="T81" s="45"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" ht="12" customHeight="1">
-      <c r="A82" s="75"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="64"/>
+    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="58"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5056,7 +5056,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L82" s="42"/>
@@ -5070,20 +5070,20 @@
       <c r="T82" s="45"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" ht="12" customHeight="1">
-      <c r="A83" s="74"/>
-      <c r="B83" s="76" t="s">
+    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="57"/>
+      <c r="B83" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="71"/>
-      <c r="E83" s="78" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="78"/>
-      <c r="G83" s="123"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="J83" s="43"/>
       <c r="K83" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L83" s="41"/>
@@ -5109,14 +5109,14 @@
       <c r="T83" s="45"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" ht="12" customHeight="1">
-      <c r="A84" s="75"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="77"/>
+    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="58"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5124,7 +5124,7 @@
       <c r="I84" s="43"/>
       <c r="J84" s="50"/>
       <c r="K84" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L84" s="42"/>
@@ -5138,20 +5138,20 @@
       <c r="T84" s="45"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" ht="12" customHeight="1">
-      <c r="A85" s="74"/>
-      <c r="B85" s="76" t="s">
+    <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="57"/>
+      <c r="B85" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="70" t="s">
+      <c r="C85" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="71"/>
-      <c r="E85" s="78" t="s">
+      <c r="D85" s="61"/>
+      <c r="E85" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="78"/>
-      <c r="G85" s="123"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5159,7 +5159,7 @@
       <c r="I85" s="43"/>
       <c r="J85" s="43"/>
       <c r="K85" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
       <c r="L85" s="41"/>
@@ -5175,14 +5175,14 @@
       <c r="T85" s="45"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" ht="12" customHeight="1">
-      <c r="A86" s="75"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="77"/>
+    <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="58"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5190,7 +5190,7 @@
       <c r="I86" s="50"/>
       <c r="J86" s="50"/>
       <c r="K86" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L86" s="42"/>
@@ -5204,18 +5204,18 @@
       <c r="T86" s="45"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" ht="12" customHeight="1">
-      <c r="A87" s="74">
+    <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="57">
         <v>2</v>
       </c>
-      <c r="B87" s="70" t="s">
+      <c r="B87" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="63"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5223,7 +5223,7 @@
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
       <c r="K87" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L87" s="41"/>
@@ -5237,14 +5237,14 @@
       <c r="T87" s="45"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" ht="12" customHeight="1">
-      <c r="A88" s="75"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="64"/>
+    <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="58"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5252,7 +5252,7 @@
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
       <c r="K88" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L88" s="42"/>
@@ -5266,20 +5266,20 @@
       <c r="T88" s="45"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" ht="12" customHeight="1">
-      <c r="A89" s="74"/>
-      <c r="B89" s="76" t="s">
+    <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="57"/>
+      <c r="B89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C89" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="71"/>
-      <c r="E89" s="78" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="78"/>
-      <c r="G89" s="123"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5291,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.25</v>
       </c>
       <c r="L89" s="41"/>
@@ -5307,14 +5307,14 @@
       <c r="T89" s="45"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" ht="12" customHeight="1">
-      <c r="A90" s="75"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="77"/>
+    <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5322,7 +5322,7 @@
       <c r="I90" s="43"/>
       <c r="J90" s="50"/>
       <c r="K90" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L90" s="42"/>
@@ -5336,20 +5336,20 @@
       <c r="T90" s="45"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" ht="12" customHeight="1">
-      <c r="A91" s="74"/>
-      <c r="B91" s="76" t="s">
+    <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="57"/>
+      <c r="B91" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="71"/>
-      <c r="E91" s="78" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="78"/>
-      <c r="G91" s="123"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5357,7 +5357,7 @@
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
       <c r="K91" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
       <c r="L91" s="41"/>
@@ -5373,14 +5373,14 @@
       <c r="T91" s="45"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" ht="12" customHeight="1">
-      <c r="A92" s="75"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="77"/>
+    <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="58"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="56"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5388,7 +5388,7 @@
       <c r="I92" s="43"/>
       <c r="J92" s="50"/>
       <c r="K92" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L92" s="42"/>
@@ -5402,23 +5402,23 @@
       <c r="T92" s="45"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" ht="12" customHeight="1">
-      <c r="A93" s="80" t="s">
+    <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="117"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="85"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
       <c r="K93" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.07</v>
       </c>
       <c r="L93" s="21" cm="1">
@@ -5450,21 +5450,21 @@
       <c r="T93" s="45"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" ht="12" customHeight="1">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="118"/>
+    <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="86"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L94" s="22" cm="1">
@@ -5496,18 +5496,18 @@
       <c r="T94" s="45"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" ht="12" customHeight="1">
-      <c r="A95" s="74">
+    <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="57">
         <v>1</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="88"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="63"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5515,7 +5515,7 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L95" s="41"/>
@@ -5529,14 +5529,14 @@
       <c r="T95" s="45"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" ht="12" customHeight="1">
-      <c r="A96" s="75"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="64"/>
+    <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="58"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5544,7 +5544,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L96" s="42"/>
@@ -5558,20 +5558,20 @@
       <c r="T96" s="45"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" ht="12" customHeight="1">
-      <c r="A97" s="74"/>
-      <c r="B97" s="76" t="s">
+    <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="57"/>
+      <c r="B97" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="70" t="s">
+      <c r="C97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="71"/>
-      <c r="E97" s="78" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="78"/>
-      <c r="G97" s="123"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="L97" s="41"/>
@@ -5599,14 +5599,14 @@
       <c r="T97" s="45"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" ht="12" customHeight="1">
-      <c r="A98" s="75"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="77"/>
+    <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="58"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5614,7 +5614,7 @@
       <c r="I98" s="50"/>
       <c r="J98" s="50"/>
       <c r="K98" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L98" s="42"/>
@@ -5628,20 +5628,20 @@
       <c r="T98" s="45"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" ht="12" customHeight="1">
-      <c r="A99" s="74"/>
-      <c r="B99" s="76" t="s">
+    <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="57"/>
+      <c r="B99" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="70" t="s">
+      <c r="C99" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="71"/>
-      <c r="E99" s="78" t="s">
+      <c r="D99" s="61"/>
+      <c r="E99" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="78"/>
-      <c r="G99" s="123"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
       <c r="L99" s="41"/>
@@ -5669,14 +5669,14 @@
       <c r="T99" s="45"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" ht="12" customHeight="1">
-      <c r="A100" s="75"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="77"/>
+    <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="58"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="56"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5684,7 +5684,7 @@
       <c r="I100" s="50"/>
       <c r="J100" s="50"/>
       <c r="K100" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L100" s="42"/>
@@ -5698,18 +5698,18 @@
       <c r="T100" s="45"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" ht="12" customHeight="1">
-      <c r="A101" s="74">
+    <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="57">
         <v>2</v>
       </c>
-      <c r="B101" s="70" t="s">
+      <c r="B101" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="88"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="63"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5717,7 +5717,7 @@
       <c r="I101" s="24"/>
       <c r="J101" s="24"/>
       <c r="K101" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L101" s="41"/>
@@ -5731,14 +5731,14 @@
       <c r="T101" s="45"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" ht="12" customHeight="1">
-      <c r="A102" s="75"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="64"/>
+    <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="58"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5746,7 +5746,7 @@
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
       <c r="K102" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L102" s="42"/>
@@ -5760,20 +5760,20 @@
       <c r="T102" s="45"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" ht="12" customHeight="1">
-      <c r="A103" s="74"/>
-      <c r="B103" s="76" t="s">
+    <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="57"/>
+      <c r="B103" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="70" t="s">
+      <c r="C103" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="71"/>
-      <c r="E103" s="78" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="78"/>
-      <c r="G103" s="123"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5785,7 +5785,7 @@
         <v>5</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.25</v>
       </c>
       <c r="L103" s="41"/>
@@ -5801,14 +5801,14 @@
       <c r="T103" s="45"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" ht="12" customHeight="1">
-      <c r="A104" s="75"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="77"/>
+    <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5816,7 +5816,7 @@
       <c r="I104" s="43"/>
       <c r="J104" s="53"/>
       <c r="K104" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L104" s="42"/>
@@ -5830,20 +5830,20 @@
       <c r="T104" s="45"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" ht="12" customHeight="1">
-      <c r="A105" s="74"/>
-      <c r="B105" s="76" t="s">
+    <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="57"/>
+      <c r="B105" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="70" t="s">
+      <c r="C105" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="71"/>
-      <c r="E105" s="78" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="78"/>
-      <c r="G105" s="123"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
       <c r="L105" s="41"/>
@@ -5869,14 +5869,14 @@
       <c r="T105" s="45"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" ht="12" customHeight="1">
-      <c r="A106" s="75"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="77"/>
+    <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="58"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="56"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -5884,7 +5884,7 @@
       <c r="I106" s="50"/>
       <c r="J106" s="50"/>
       <c r="K106" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L106" s="42"/>
@@ -5898,7 +5898,7 @@
       <c r="T106" s="45"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" ht="12" customHeight="1">
+    <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="36"/>
       <c r="L107" s="36"/>
       <c r="M107" s="36"/>
@@ -5910,49 +5910,49 @@
       <c r="T107" s="45"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" ht="12" customHeight="1">
+    <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R108" s="45"/>
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" ht="12" customHeight="1">
+    <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R109" s="45"/>
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" ht="12" customHeight="1">
+    <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R110" s="45"/>
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" ht="12" customHeight="1">
+    <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R111" s="45"/>
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" ht="12" customHeight="1">
+    <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="18:22" ht="12" customHeight="1">
+    <row r="113" spans="18:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="18:22" ht="12" customHeight="1">
+    <row r="114" spans="18:22" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R114" s="45"/>
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="18:22">
+    <row r="115" spans="18:22" x14ac:dyDescent="0.15">
       <c r="R115" s="36"/>
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
@@ -5965,51 +5965,225 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A93:D94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
@@ -6034,232 +6208,58 @@
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:D44"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J1:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6509,18 +6509,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6542,14 +6542,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6563,4 +6555,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE09E1F-E4D7-4804-9EF8-0031017A80DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853C474-C5DB-4FBB-823F-C09E155CCBF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="19920" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="79">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -449,6 +449,13 @@
     <t>栢沼</t>
     <rPh sb="0" eb="2">
       <t>カヤヌマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栢沼、浜崎</t>
+    <rPh sb="3" eb="5">
+      <t>ハマザキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1369,215 +1376,215 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2131,10 +2138,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2153,120 +2160,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="87">
+      <c r="L1" s="55">
         <v>43993</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="87">
+      <c r="M1" s="56"/>
+      <c r="N1" s="55">
         <v>43994</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="87">
+      <c r="O1" s="56"/>
+      <c r="P1" s="55">
         <v>43997</v>
       </c>
-      <c r="Q1" s="88"/>
+      <c r="Q1" s="56"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="110"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="89" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="89" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="90"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="91" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="91"/>
+      <c r="Q3" s="59"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="103"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2291,15 +2298,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2343,13 +2350,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="98"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2366,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K36)</f>
-        <v>5.7</v>
+        <v>8.1100000000000012</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L24,L36,L54,L72,L80,L94)</f>
@@ -2371,7 +2378,7 @@
       </c>
       <c r="N6" s="28">
         <f>SUM(N8,N24,N36,N54,N72,N80,N94)</f>
-        <v>3.1</v>
+        <v>7.51</v>
       </c>
       <c r="O6" s="28">
         <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
@@ -2391,15 +2398,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="121"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2441,13 +2448,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="122"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2489,17 +2496,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="107">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2516,13 +2523,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2539,21 +2546,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2582,13 +2589,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="69"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2617,21 +2624,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2660,13 +2667,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2695,17 +2702,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="107">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="75"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2725,13 +2732,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="76"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2751,21 +2758,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2794,13 +2801,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2829,21 +2836,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2872,13 +2879,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2907,21 +2914,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="66" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2950,13 +2957,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="108"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="69"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -2985,15 +2992,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3033,13 +3040,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3079,17 +3086,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="107">
+      <c r="A25" s="73">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="75"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3109,13 +3116,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="108"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="76"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3135,21 +3142,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="66" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3178,13 +3185,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="108"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="69"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3213,21 +3220,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="66" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3256,13 +3263,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="108"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="69"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3291,21 +3298,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="66" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3334,13 +3341,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="108"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="69"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3369,21 +3376,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="70" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="62" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3414,13 +3421,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="108"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="69"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3449,15 +3456,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="85"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="119"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3497,13 +3504,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="86"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3511,7 +3518,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="52">
         <f>SUMPRODUCT((MOD(ROW(K$37:K$52),2)=0)*K$37:K$52)</f>
-        <v>0.85</v>
+        <v>3.2600000000000002</v>
       </c>
       <c r="L36" s="30">
         <f t="shared" ref="L36:O36" si="10">SUMPRODUCT((MOD(ROW(L$37:L$52),2)=0)*L$37:L$52)</f>
@@ -3523,7 +3530,7 @@
       </c>
       <c r="N36" s="35">
         <f t="shared" si="10"/>
-        <v>0.85</v>
+        <v>3.2600000000000002</v>
       </c>
       <c r="O36" s="35">
         <f t="shared" si="10"/>
@@ -3543,17 +3550,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107">
+      <c r="A37" s="73">
         <v>1</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="75"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3573,13 +3580,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="108"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="76"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3599,21 +3606,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="118"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3642,13 +3649,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="56"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3677,21 +3684,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="66" t="s">
+      <c r="D41" s="77"/>
+      <c r="E41" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3720,13 +3727,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="108"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="69"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3755,21 +3762,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="64" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="55"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3798,13 +3805,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="56"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3833,17 +3840,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107">
+      <c r="A45" s="73">
         <v>2</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3863,13 +3870,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="108"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="76"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3889,19 +3896,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="70" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="77"/>
+      <c r="E47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="68" t="s">
+      <c r="F47" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3932,26 +3941,30 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="108"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="69"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="8"/>
+      <c r="I48" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J48" s="49"/>
       <c r="K48" s="10">
         <f>SUM(L48:O48)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
-      <c r="N48" s="42"/>
+      <c r="N48" s="42">
+        <v>1.25</v>
+      </c>
       <c r="O48" s="32"/>
       <c r="P48" s="42"/>
       <c r="Q48" s="42"/>
@@ -3961,19 +3974,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="66" t="s">
+      <c r="D49" s="77"/>
+      <c r="E49" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="66"/>
-      <c r="G49" s="68"/>
+      <c r="F49" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4002,26 +4017,30 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="108"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="69"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="8"/>
+      <c r="I50" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="J50" s="49"/>
       <c r="K50" s="10">
         <f>SUM(L50:O50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="32"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="42"/>
+      <c r="N50" s="42">
+        <v>1</v>
+      </c>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
       <c r="Q50" s="42"/>
@@ -4031,19 +4050,19 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="62"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4072,13 +4091,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="108"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="69"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4087,11 +4106,13 @@
       <c r="J52" s="49"/>
       <c r="K52" s="10">
         <f t="shared" ref="K52" si="13">SUM(L52:O52)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
+      <c r="N52" s="37">
+        <v>0.16</v>
+      </c>
       <c r="O52" s="37"/>
       <c r="P52" s="44"/>
       <c r="Q52" s="44"/>
@@ -4101,15 +4122,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="85"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="119"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4149,13 +4170,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="86"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="120"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4163,7 +4184,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="48">
         <f>SUMPRODUCT((MOD(ROW(K$55:K$70),2)=0)*K$55:K$70)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" s="21" cm="1">
         <f t="array" ref="L54">SUMPRODUCT((MOD(ROW(L$55:L$70),2)=0)*L$55:L$70)</f>
@@ -4175,7 +4196,7 @@
       </c>
       <c r="N54" s="21" cm="1">
         <f t="array" ref="N54">SUMPRODUCT((MOD(ROW(N$55:N$70),2)=0)*N$55:N$70)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" s="21" cm="1">
         <f t="array" ref="O54">SUMPRODUCT((MOD(ROW(O$55:O$70),2)=0)*O$55:O$70)</f>
@@ -4195,17 +4216,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57">
+      <c r="A55" s="88">
         <v>1</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="64"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4225,13 +4246,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="76"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4251,19 +4272,19 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
-      <c r="B57" s="59" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="55"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="118"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4294,13 +4315,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="58"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="56"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="115"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4323,28 +4344,28 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="77"/>
+      <c r="E59" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="55"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="118"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J59" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" s="9">
         <f t="shared" si="14"/>
@@ -4366,26 +4387,30 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="56"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I60" s="43"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="50">
+        <v>2</v>
+      </c>
       <c r="K60" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60" s="42"/>
       <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
+      <c r="N60" s="42">
+        <v>2</v>
+      </c>
       <c r="O60" s="42"/>
       <c r="P60" s="42"/>
       <c r="Q60" s="42"/>
@@ -4395,19 +4420,19 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="77"/>
+      <c r="E61" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="55"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="118"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4436,13 +4461,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="56"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="115"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4465,17 +4490,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57">
+      <c r="A63" s="88">
         <v>2</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="75"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4498,13 +4523,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="76"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4527,19 +4552,19 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="64" t="s">
+      <c r="D65" s="77"/>
+      <c r="E65" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="118"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4568,13 +4593,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="56"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4597,19 +4622,19 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="64" t="s">
+      <c r="D67" s="77"/>
+      <c r="E67" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="118"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4638,13 +4663,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="58"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="56"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="115"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4667,19 +4692,19 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="64" t="s">
+      <c r="D69" s="77"/>
+      <c r="E69" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="118"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4704,13 +4729,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="56"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="115"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4733,15 +4758,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="85"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="119"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4781,13 +4806,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="80"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="86"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="120"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4827,19 +4852,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57">
+      <c r="A73" s="88">
         <v>1</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="73" t="s">
+      <c r="C73" s="86"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="75"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="64"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4862,13 +4887,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="76"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4891,19 +4916,19 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="88"/>
+      <c r="B75" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="64" t="s">
+      <c r="D75" s="77"/>
+      <c r="E75" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="118"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -4932,13 +4957,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="58"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="56"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="115"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -4961,19 +4986,19 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="88"/>
+      <c r="B77" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="64" t="s">
+      <c r="D77" s="77"/>
+      <c r="E77" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="55"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5002,13 +5027,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="58"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="56"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5031,15 +5056,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="85"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="119"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5079,13 +5104,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="80"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="86"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="120"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5125,17 +5150,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57">
+      <c r="A81" s="88">
         <v>1</v>
       </c>
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="75"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5158,13 +5183,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="76"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5187,19 +5212,19 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="59" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="64" t="s">
+      <c r="D83" s="77"/>
+      <c r="E83" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="118"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5226,13 +5251,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="58"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="56"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5255,19 +5280,19 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="59" t="s">
+      <c r="A85" s="88"/>
+      <c r="B85" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="64" t="s">
+      <c r="D85" s="77"/>
+      <c r="E85" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="55"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5292,13 +5317,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="56"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5321,17 +5346,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57">
+      <c r="A87" s="88">
         <v>2</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="75"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="64"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5354,13 +5379,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="58"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="76"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5383,19 +5408,19 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="88"/>
+      <c r="B89" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="64" t="s">
+      <c r="D89" s="77"/>
+      <c r="E89" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="118"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5424,13 +5449,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="56"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="115"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5453,19 +5478,19 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="59" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="64" t="s">
+      <c r="D91" s="77"/>
+      <c r="E91" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="55"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="118"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5490,13 +5515,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="56"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="115"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5519,15 +5544,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="85"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="119"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5567,13 +5592,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="86"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="120"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5613,17 +5638,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57">
+      <c r="A95" s="88">
         <v>1</v>
       </c>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="75"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="64"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5646,13 +5671,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="58"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="76"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5675,19 +5700,19 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="59" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="64" t="s">
+      <c r="D97" s="77"/>
+      <c r="E97" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="64"/>
-      <c r="G97" s="55"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="118"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5716,13 +5741,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="58"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="56"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="115"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5745,19 +5770,19 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57"/>
-      <c r="B99" s="59" t="s">
+      <c r="A99" s="88"/>
+      <c r="B99" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="64" t="s">
+      <c r="D99" s="77"/>
+      <c r="E99" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="55"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="118"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5786,13 +5811,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="56"/>
+      <c r="A100" s="89"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5815,17 +5840,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="57">
+      <c r="A101" s="88">
         <v>2</v>
       </c>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="75"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="64"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5848,13 +5873,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="76"/>
+      <c r="A102" s="89"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="65"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5877,19 +5902,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="57"/>
-      <c r="B103" s="59" t="s">
+      <c r="A103" s="88"/>
+      <c r="B103" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="64" t="s">
+      <c r="D103" s="77"/>
+      <c r="E103" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="118"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5918,13 +5943,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="56"/>
+      <c r="A104" s="89"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="115"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5947,19 +5972,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="57"/>
-      <c r="B105" s="59" t="s">
+      <c r="A105" s="88"/>
+      <c r="B105" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="64" t="s">
+      <c r="D105" s="77"/>
+      <c r="E105" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="55"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="118"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5986,13 +6011,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="56"/>
+      <c r="A106" s="89"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="115"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6081,6 +6106,277 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
@@ -6105,277 +6401,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6625,18 +6650,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6658,6 +6683,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6671,12 +6704,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853C474-C5DB-4FBB-823F-C09E155CCBF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BC710-1BD3-4445-944C-DB4FE4998FB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="19920" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="105" windowWidth="20430" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -416,9 +416,6 @@
     <t>鈴木、浜崎</t>
   </si>
   <si>
-    <t>横井、栢沼、今竹</t>
-  </si>
-  <si>
     <t>栢沼、今竹、鈴木</t>
   </si>
   <si>
@@ -456,6 +453,20 @@
     <t>栢沼、浜崎</t>
     <rPh sb="3" eb="5">
       <t>ハマザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今竹</t>
+    <rPh sb="0" eb="2">
+      <t>イマタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、栢沼、鈴木</t>
+    <rPh sb="6" eb="8">
+      <t>スズキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1376,6 +1387,102 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,200 +1498,104 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2138,10 +2149,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53:G54"/>
+      <selection pane="bottomRight" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2160,120 +2171,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="55">
+      <c r="L1" s="87">
         <v>43993</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="55">
+      <c r="M1" s="88"/>
+      <c r="N1" s="87">
         <v>43994</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="55">
+      <c r="O1" s="88"/>
+      <c r="P1" s="87">
         <v>43997</v>
       </c>
-      <c r="Q1" s="56"/>
+      <c r="Q1" s="88"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="57" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="57" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="90"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="91"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="113"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="103"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2298,15 +2309,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="123"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2350,13 +2361,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="124"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2378,7 +2389,7 @@
       </c>
       <c r="N6" s="28">
         <f>SUM(N8,N24,N36,N54,N72,N80,N94)</f>
-        <v>7.51</v>
+        <v>12.51</v>
       </c>
       <c r="O6" s="28">
         <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
@@ -2398,15 +2409,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2448,13 +2459,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2496,17 +2507,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2523,13 +2534,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="65"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2546,21 +2557,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2589,13 +2600,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2624,21 +2635,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2667,13 +2678,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2702,17 +2713,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
+      <c r="A15" s="107">
         <v>2</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2732,13 +2743,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2758,21 +2769,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2801,13 +2812,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2836,21 +2847,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="88"/>
-      <c r="B19" s="114" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="116" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="118"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2879,13 +2890,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="89"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="115"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2914,21 +2925,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2957,13 +2968,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -2992,15 +3003,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="119"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3040,13 +3051,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="120"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3086,17 +3097,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73">
+      <c r="A25" s="107">
         <v>1</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="64"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3116,13 +3127,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3142,21 +3153,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3185,19 +3196,19 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J28" s="49">
         <v>1</v>
@@ -3220,21 +3231,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3263,19 +3274,19 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J30" s="49">
         <v>1</v>
@@ -3298,21 +3309,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3341,19 +3352,19 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J32" s="49">
         <v>1</v>
@@ -3376,21 +3387,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="68" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3421,19 +3432,19 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J34" s="49">
         <v>1</v>
@@ -3456,15 +3467,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="119"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3504,13 +3515,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="120"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3550,17 +3561,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73">
+      <c r="A37" s="107">
         <v>1</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="64"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3580,13 +3591,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="65"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3606,21 +3617,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="88"/>
-      <c r="B39" s="114" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="116" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="116" t="s">
+      <c r="F39" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="118"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3649,19 +3660,19 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="89"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="115"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J40" s="50">
         <v>1</v>
@@ -3684,21 +3695,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3727,19 +3738,19 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" s="49">
         <v>1</v>
@@ -3762,21 +3773,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="88"/>
-      <c r="B43" s="114" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="116" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="118"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3805,19 +3816,19 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="89"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" s="50">
         <v>1</v>
@@ -3840,17 +3851,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73">
+      <c r="A45" s="107">
         <v>2</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="64"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3870,13 +3881,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="65"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3896,21 +3907,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3941,13 +3952,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="63"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -3974,21 +3985,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="62"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4017,13 +4028,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4050,19 +4061,19 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
-      <c r="B51" s="75" t="s">
+      <c r="A51" s="107"/>
+      <c r="B51" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="60" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="62"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4091,18 +4102,20 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="63"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I52" s="8"/>
+      <c r="I52" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="J52" s="49"/>
       <c r="K52" s="10">
         <f t="shared" ref="K52" si="13">SUM(L52:O52)</f>
@@ -4122,15 +4135,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="119"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4170,13 +4183,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="120"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="86"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4184,7 +4197,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="48">
         <f>SUMPRODUCT((MOD(ROW(K$55:K$70),2)=0)*K$55:K$70)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L54" s="21" cm="1">
         <f t="array" ref="L54">SUMPRODUCT((MOD(ROW(L$55:L$70),2)=0)*L$55:L$70)</f>
@@ -4196,7 +4209,7 @@
       </c>
       <c r="N54" s="21" cm="1">
         <f t="array" ref="N54">SUMPRODUCT((MOD(ROW(N$55:N$70),2)=0)*N$55:N$70)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O54" s="21" cm="1">
         <f t="array" ref="O54">SUMPRODUCT((MOD(ROW(O$55:O$70),2)=0)*O$55:O$70)</f>
@@ -4216,17 +4229,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="88">
+      <c r="A55" s="57">
         <v>1</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="64"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4246,13 +4259,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="89"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="65"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4272,25 +4285,25 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="88"/>
-      <c r="B57" s="114" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="116" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="116"/>
-      <c r="G57" s="118"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J57" s="43">
         <v>3</v>
@@ -4315,26 +4328,30 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="89"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="115"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="43"/>
+      <c r="I58" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="J58" s="50"/>
       <c r="K58" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L58" s="42"/>
       <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
+      <c r="N58" s="42">
+        <v>5</v>
+      </c>
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
       <c r="Q58" s="42"/>
@@ -4344,25 +4361,25 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="88"/>
-      <c r="B59" s="114" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="116" t="s">
+      <c r="D59" s="61"/>
+      <c r="E59" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="116"/>
-      <c r="G59" s="118"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="55"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J59" s="43">
         <v>2</v>
@@ -4387,13 +4404,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="89"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4420,19 +4437,19 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="88"/>
-      <c r="B61" s="114" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="77"/>
-      <c r="E61" s="116" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="116"/>
-      <c r="G61" s="118"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4461,13 +4478,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="89"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="115"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4490,17 +4507,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="88">
+      <c r="A63" s="57">
         <v>2</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="64"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4523,13 +4540,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="89"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="65"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4552,19 +4569,19 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="88"/>
-      <c r="B65" s="114" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="116" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="118"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4593,13 +4610,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="89"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="115"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4622,19 +4639,19 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="88"/>
-      <c r="B67" s="114" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="116" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="116"/>
-      <c r="G67" s="118"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4663,13 +4680,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="89"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="115"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4692,25 +4709,29 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="88"/>
-      <c r="B69" s="114" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="77"/>
-      <c r="E69" s="116" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="116"/>
-      <c r="G69" s="118"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
+      <c r="I69" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J69" s="43">
+        <v>1</v>
+      </c>
       <c r="K69" s="9">
         <f t="shared" si="15"/>
         <v>0.16</v>
@@ -4729,13 +4750,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="89"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="115"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4758,15 +4779,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="119"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="85"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4806,13 +4827,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="83"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="120"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="86"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4852,19 +4873,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="88">
+      <c r="A73" s="57">
         <v>1</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="66" t="s">
+      <c r="C73" s="71"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="64"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4887,13 +4908,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="89"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="65"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4916,25 +4937,25 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="88"/>
-      <c r="B75" s="114" t="s">
+      <c r="A75" s="57"/>
+      <c r="B75" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="77"/>
-      <c r="E75" s="116" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="116"/>
-      <c r="G75" s="118"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J75" s="43"/>
       <c r="K75" s="9">
@@ -4957,13 +4978,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="89"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="115"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="56"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -4986,25 +5007,25 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="88"/>
-      <c r="B77" s="114" t="s">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="77"/>
-      <c r="E77" s="116" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="116"/>
-      <c r="G77" s="118"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I77" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J77" s="43"/>
       <c r="K77" s="9">
@@ -5027,13 +5048,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="89"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="56"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5056,15 +5077,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="119"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5104,13 +5125,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="120"/>
+      <c r="A80" s="80"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5150,17 +5171,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="88">
+      <c r="A81" s="57">
         <v>1</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="64"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5183,13 +5204,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="89"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="65"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5212,19 +5233,19 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="88"/>
-      <c r="B83" s="114" t="s">
+      <c r="A83" s="57"/>
+      <c r="B83" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="116" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="116"/>
-      <c r="G83" s="118"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5251,13 +5272,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="89"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="115"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5280,19 +5301,19 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="88"/>
-      <c r="B85" s="114" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="76" t="s">
+      <c r="C85" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="77"/>
-      <c r="E85" s="116" t="s">
+      <c r="D85" s="61"/>
+      <c r="E85" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="116"/>
-      <c r="G85" s="118"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5317,13 +5338,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="89"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5346,17 +5367,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="88">
+      <c r="A87" s="57">
         <v>2</v>
       </c>
-      <c r="B87" s="76" t="s">
+      <c r="B87" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="64"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5379,13 +5400,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="89"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="65"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5408,19 +5429,19 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="88"/>
-      <c r="B89" s="114" t="s">
+      <c r="A89" s="57"/>
+      <c r="B89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="77"/>
-      <c r="E89" s="116" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="116"/>
-      <c r="G89" s="118"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5449,13 +5470,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="89"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="115"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5478,19 +5499,19 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="88"/>
-      <c r="B91" s="114" t="s">
+      <c r="A91" s="57"/>
+      <c r="B91" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="116" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="116"/>
-      <c r="G91" s="118"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5515,13 +5536,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="89"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="115"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="56"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5544,15 +5565,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="80" t="s">
+      <c r="A93" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="119"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="85"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5592,13 +5613,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="120"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="86"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5638,17 +5659,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="88">
+      <c r="A95" s="57">
         <v>1</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="64"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5671,13 +5692,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="89"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="65"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5700,19 +5721,19 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="88"/>
-      <c r="B97" s="114" t="s">
+      <c r="A97" s="57"/>
+      <c r="B97" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="77"/>
-      <c r="E97" s="116" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="116"/>
-      <c r="G97" s="118"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5741,13 +5762,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="89"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="115"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5770,19 +5791,19 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="88"/>
-      <c r="B99" s="114" t="s">
+      <c r="A99" s="57"/>
+      <c r="B99" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="76" t="s">
+      <c r="C99" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="116" t="s">
+      <c r="D99" s="61"/>
+      <c r="E99" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="116"/>
-      <c r="G99" s="118"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5811,13 +5832,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="89"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="56"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5840,17 +5861,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="88">
+      <c r="A101" s="57">
         <v>2</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="64"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5873,13 +5894,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="89"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="87"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="65"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5902,19 +5923,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="88"/>
-      <c r="B103" s="114" t="s">
+      <c r="A103" s="57"/>
+      <c r="B103" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="77"/>
-      <c r="E103" s="116" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="116"/>
-      <c r="G103" s="118"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5943,13 +5964,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="89"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="115"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5972,19 +5993,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="88"/>
-      <c r="B105" s="114" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="76" t="s">
+      <c r="C105" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="77"/>
-      <c r="E105" s="116" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="116"/>
-      <c r="G105" s="118"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6011,13 +6032,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="89"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="115"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="56"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6106,59 +6127,224 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A93:D94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
@@ -6183,224 +6369,59 @@
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6650,18 +6671,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6683,14 +6704,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6704,4 +6717,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BC710-1BD3-4445-944C-DB4FE4998FB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6B086-8B48-4F62-906C-8881DE64032D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="105" windowWidth="20430" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="315" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -413,9 +413,6 @@
     <t>栢沼</t>
   </si>
   <si>
-    <t>鈴木、浜崎</t>
-  </si>
-  <si>
     <t>栢沼、今竹、鈴木</t>
   </si>
   <si>
@@ -467,6 +464,13 @@
     <t>横井、栢沼、鈴木</t>
     <rPh sb="6" eb="8">
       <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木、浜崎</t>
+    <rPh sb="3" eb="5">
+      <t>ハマザキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1387,215 +1391,215 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2149,10 +2153,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M60" sqref="M60"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2171,120 +2175,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="87">
+      <c r="L1" s="55">
         <v>43993</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="87">
+      <c r="M1" s="56"/>
+      <c r="N1" s="55">
         <v>43994</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="87">
+      <c r="O1" s="56"/>
+      <c r="P1" s="55">
         <v>43997</v>
       </c>
-      <c r="Q1" s="88"/>
+      <c r="Q1" s="56"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="110"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="89" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="89" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="90"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="91" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="91"/>
+      <c r="Q3" s="59"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="103"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2309,15 +2313,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2361,13 +2365,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="98"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2409,15 +2413,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="121"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2459,13 +2463,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="122"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2507,17 +2511,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="107">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2534,13 +2538,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2557,21 +2561,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2600,13 +2604,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="69"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2635,21 +2639,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2678,13 +2682,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2713,17 +2717,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="107">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="75"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2743,13 +2747,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="76"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2769,21 +2773,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2812,13 +2816,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2847,21 +2851,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2890,13 +2894,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2925,21 +2929,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="66" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2968,13 +2972,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="108"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="69"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3003,15 +3007,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3051,13 +3055,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3097,17 +3101,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="107">
+      <c r="A25" s="73">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="75"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3127,13 +3131,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="108"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="76"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3153,21 +3157,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="66" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3196,19 +3200,19 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="108"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="69"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="49">
         <v>1</v>
@@ -3231,21 +3235,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="66" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3274,19 +3278,19 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="108"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="69"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30" s="49">
         <v>1</v>
@@ -3309,21 +3313,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="66" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3352,19 +3356,19 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="108"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="69"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J32" s="49">
         <v>1</v>
@@ -3387,21 +3391,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="70" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="62" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3432,19 +3436,19 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="108"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="69"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="49">
         <v>1</v>
@@ -3467,15 +3471,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="85"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="119"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3515,13 +3519,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="86"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3561,17 +3565,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107">
+      <c r="A37" s="73">
         <v>1</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="75"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3591,13 +3595,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="108"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="76"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3617,21 +3621,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="118"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3660,19 +3664,19 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="56"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J40" s="50">
         <v>1</v>
@@ -3695,21 +3699,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="66" t="s">
+      <c r="D41" s="77"/>
+      <c r="E41" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3738,19 +3742,19 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="108"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="69"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J42" s="49">
         <v>1</v>
@@ -3773,21 +3777,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="64" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="55"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3816,19 +3820,19 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="56"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J44" s="50">
         <v>1</v>
@@ -3851,17 +3855,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107">
+      <c r="A45" s="73">
         <v>2</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3881,13 +3885,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="108"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="76"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3907,21 +3911,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="70" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="77"/>
+      <c r="E47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3952,13 +3956,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="108"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="69"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -3985,21 +3989,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="66" t="s">
+      <c r="D49" s="77"/>
+      <c r="E49" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="68"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4028,13 +4032,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="108"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="69"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4061,19 +4065,19 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="62"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4102,19 +4106,19 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="108"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="69"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J52" s="49"/>
       <c r="K52" s="10">
@@ -4135,15 +4139,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="85"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="119"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4183,13 +4187,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="86"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="120"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4229,17 +4233,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57">
+      <c r="A55" s="88">
         <v>1</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="64"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4259,13 +4263,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="76"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4285,25 +4289,27 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
-      <c r="B57" s="59" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="55"/>
+      <c r="F57" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="118"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J57" s="43">
         <v>3</v>
@@ -4328,13 +4334,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="58"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="56"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="115"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4361,25 +4367,27 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="77"/>
+      <c r="E59" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="55"/>
+      <c r="F59" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="118"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J59" s="43">
         <v>2</v>
@@ -4404,13 +4412,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="56"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4437,25 +4445,27 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="77"/>
+      <c r="E61" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="55"/>
+      <c r="F61" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="118"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I61" s="43" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J61" s="43">
         <v>2</v>
@@ -4478,18 +4488,20 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="56"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="115"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I62" s="43"/>
+      <c r="I62" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="J62" s="50"/>
       <c r="K62" s="9">
         <f t="shared" si="14"/>
@@ -4507,17 +4519,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57">
+      <c r="A63" s="88">
         <v>2</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="75"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4540,13 +4552,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="76"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4569,19 +4581,19 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="64" t="s">
+      <c r="D65" s="77"/>
+      <c r="E65" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="118"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4610,13 +4622,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="56"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4639,19 +4651,19 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="64" t="s">
+      <c r="D67" s="77"/>
+      <c r="E67" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="118"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4680,13 +4692,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="58"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="56"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="115"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4709,25 +4721,25 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="64" t="s">
+      <c r="D69" s="77"/>
+      <c r="E69" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="118"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J69" s="43">
         <v>1</v>
@@ -4750,13 +4762,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="56"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="115"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4779,15 +4791,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="85"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="119"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4827,13 +4839,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="80"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="86"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="120"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4873,19 +4885,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57">
+      <c r="A73" s="88">
         <v>1</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="73" t="s">
+      <c r="C73" s="86"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="75"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="64"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4908,13 +4920,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="76"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4937,25 +4949,25 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="88"/>
+      <c r="B75" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="64" t="s">
+      <c r="D75" s="77"/>
+      <c r="E75" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="118"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J75" s="43"/>
       <c r="K75" s="9">
@@ -4978,13 +4990,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="58"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="56"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="115"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5007,25 +5019,25 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="88"/>
+      <c r="B77" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="64" t="s">
+      <c r="D77" s="77"/>
+      <c r="E77" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="55"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I77" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J77" s="43"/>
       <c r="K77" s="9">
@@ -5048,13 +5060,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="58"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="56"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5077,15 +5089,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="85"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="119"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5125,13 +5137,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="80"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="86"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="120"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5171,17 +5183,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57">
+      <c r="A81" s="88">
         <v>1</v>
       </c>
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="75"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5204,13 +5216,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="76"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5233,19 +5245,19 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="59" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="64" t="s">
+      <c r="D83" s="77"/>
+      <c r="E83" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="118"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5272,13 +5284,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="58"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="56"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5301,19 +5313,19 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="59" t="s">
+      <c r="A85" s="88"/>
+      <c r="B85" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="64" t="s">
+      <c r="D85" s="77"/>
+      <c r="E85" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="55"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5338,13 +5350,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="56"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5367,17 +5379,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57">
+      <c r="A87" s="88">
         <v>2</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="75"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="64"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5400,13 +5412,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="58"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="76"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5429,19 +5441,19 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="88"/>
+      <c r="B89" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="64" t="s">
+      <c r="D89" s="77"/>
+      <c r="E89" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="118"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5470,13 +5482,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="56"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="115"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5499,19 +5511,19 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="59" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="64" t="s">
+      <c r="D91" s="77"/>
+      <c r="E91" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="55"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="118"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5536,13 +5548,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="56"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="115"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5565,15 +5577,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="85"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="119"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5613,13 +5625,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="86"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="120"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5659,17 +5671,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57">
+      <c r="A95" s="88">
         <v>1</v>
       </c>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="75"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="64"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5692,13 +5704,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="58"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="76"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5721,19 +5733,19 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="59" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="64" t="s">
+      <c r="D97" s="77"/>
+      <c r="E97" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="64"/>
-      <c r="G97" s="55"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="118"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5762,13 +5774,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="58"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="56"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="115"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5791,19 +5803,19 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57"/>
-      <c r="B99" s="59" t="s">
+      <c r="A99" s="88"/>
+      <c r="B99" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="64" t="s">
+      <c r="D99" s="77"/>
+      <c r="E99" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="55"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="118"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5832,13 +5844,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="56"/>
+      <c r="A100" s="89"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5861,17 +5873,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="57">
+      <c r="A101" s="88">
         <v>2</v>
       </c>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="75"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="64"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5894,13 +5906,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="76"/>
+      <c r="A102" s="89"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="65"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5923,19 +5935,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="57"/>
-      <c r="B103" s="59" t="s">
+      <c r="A103" s="88"/>
+      <c r="B103" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="64" t="s">
+      <c r="D103" s="77"/>
+      <c r="E103" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="118"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5964,13 +5976,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="56"/>
+      <c r="A104" s="89"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="115"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5993,19 +6005,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="57"/>
-      <c r="B105" s="59" t="s">
+      <c r="A105" s="88"/>
+      <c r="B105" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="64" t="s">
+      <c r="D105" s="77"/>
+      <c r="E105" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="55"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="118"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6032,13 +6044,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="56"/>
+      <c r="A106" s="89"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="115"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6127,6 +6139,277 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
@@ -6151,277 +6434,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6671,18 +6683,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6704,6 +6716,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6717,12 +6737,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6B086-8B48-4F62-906C-8881DE64032D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D1A8C-4D65-421F-8CB8-2611B75D4BAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="315" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -469,6 +469,20 @@
   </si>
   <si>
     <t>鈴木、浜崎</t>
+    <rPh sb="3" eb="5">
+      <t>ハマザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、鈴木、今竹、栢沼、浜崎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今竹、浜崎</t>
+    <rPh sb="0" eb="2">
+      <t>イマタケ</t>
+    </rPh>
     <rPh sb="3" eb="5">
       <t>ハマザキ</t>
     </rPh>
@@ -1391,6 +1405,102 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,200 +1516,104 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2153,10 +2167,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61:G62"/>
+      <selection pane="bottomRight" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2175,120 +2189,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="55">
+      <c r="L1" s="87">
         <v>43993</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="55">
+      <c r="M1" s="88"/>
+      <c r="N1" s="87">
         <v>43994</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="55">
+      <c r="O1" s="88"/>
+      <c r="P1" s="87">
         <v>43997</v>
       </c>
-      <c r="Q1" s="56"/>
+      <c r="Q1" s="88"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="57" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="57" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="90"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="91"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="113"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="103"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2313,15 +2327,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="123"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2365,13 +2379,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="124"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2393,11 +2407,11 @@
       </c>
       <c r="N6" s="28">
         <f>SUM(N8,N24,N36,N54,N72,N80,N94)</f>
-        <v>12.51</v>
+        <v>13.01</v>
       </c>
       <c r="O6" s="28">
         <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P6" s="28">
         <f>SUM(P8,P24,P36,P54,P72,P80,P94)</f>
@@ -2413,15 +2427,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2463,13 +2477,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2511,17 +2525,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2538,13 +2552,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="65"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2561,21 +2575,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2604,13 +2618,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2639,21 +2653,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2682,13 +2696,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2717,17 +2731,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
+      <c r="A15" s="107">
         <v>2</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2747,13 +2761,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2773,21 +2787,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2816,13 +2830,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2851,21 +2865,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="88"/>
-      <c r="B19" s="114" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="116" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="118"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2894,13 +2908,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="89"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="115"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2929,21 +2943,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2972,13 +2986,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3007,15 +3021,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="119"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3055,13 +3069,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="120"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3101,17 +3115,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73">
+      <c r="A25" s="107">
         <v>1</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="64"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3131,13 +3145,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3157,21 +3171,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3200,13 +3214,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3235,21 +3249,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3278,13 +3292,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3313,21 +3327,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3356,13 +3370,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3391,21 +3405,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="68" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3436,13 +3450,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3471,15 +3485,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="119"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3519,13 +3533,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="120"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3565,17 +3579,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73">
+      <c r="A37" s="107">
         <v>1</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="64"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3595,13 +3609,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="65"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3621,21 +3635,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="88"/>
-      <c r="B39" s="114" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="116" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="116" t="s">
+      <c r="F39" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="118"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3664,13 +3678,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="89"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="115"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3699,21 +3713,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3742,13 +3756,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3777,21 +3791,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="88"/>
-      <c r="B43" s="114" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="116" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="118"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3820,13 +3834,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="89"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3855,17 +3869,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73">
+      <c r="A45" s="107">
         <v>2</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="64"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3885,13 +3899,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="65"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3911,21 +3925,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3956,13 +3970,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="63"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -3989,21 +4003,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="62"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4032,13 +4046,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4065,19 +4079,19 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
-      <c r="B51" s="75" t="s">
+      <c r="A51" s="107"/>
+      <c r="B51" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="60" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="62"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4106,13 +4120,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="63"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4139,15 +4153,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="119"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4187,13 +4201,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="120"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="86"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4201,7 +4215,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="48">
         <f>SUMPRODUCT((MOD(ROW(K$55:K$70),2)=0)*K$55:K$70)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L54" s="21" cm="1">
         <f t="array" ref="L54">SUMPRODUCT((MOD(ROW(L$55:L$70),2)=0)*L$55:L$70)</f>
@@ -4213,11 +4227,11 @@
       </c>
       <c r="N54" s="21" cm="1">
         <f t="array" ref="N54">SUMPRODUCT((MOD(ROW(N$55:N$70),2)=0)*N$55:N$70)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O54" s="21" cm="1">
         <f t="array" ref="O54">SUMPRODUCT((MOD(ROW(O$55:O$70),2)=0)*O$55:O$70)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P54" s="21" cm="1">
         <f t="array" ref="P54">SUMPRODUCT((MOD(ROW(P$55:P$70),2)=0)*P$55:P$70)</f>
@@ -4233,17 +4247,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="88">
+      <c r="A55" s="57">
         <v>1</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="64"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4263,13 +4277,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="89"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="65"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4289,21 +4303,21 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="88"/>
-      <c r="B57" s="114" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="116" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="116" t="s">
+      <c r="F57" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="118"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4334,31 +4348,35 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="89"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="115"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I58" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="J58" s="50">
+        <v>5</v>
+      </c>
       <c r="K58" s="9">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L58" s="42"/>
       <c r="M58" s="42"/>
       <c r="N58" s="42">
         <v>5</v>
       </c>
-      <c r="O58" s="42"/>
+      <c r="O58" s="42">
+        <v>1.5</v>
+      </c>
       <c r="P58" s="42"/>
       <c r="Q58" s="42"/>
       <c r="R58" s="45"/>
@@ -4367,21 +4385,21 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="88"/>
-      <c r="B59" s="114" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="116" t="s">
+      <c r="D59" s="61"/>
+      <c r="E59" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="116" t="s">
+      <c r="F59" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="118"/>
+      <c r="G59" s="55"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4412,31 +4430,35 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="89"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I60" s="43"/>
+      <c r="I60" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="J60" s="50">
         <v>2</v>
       </c>
       <c r="K60" s="9">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L60" s="42"/>
       <c r="M60" s="42"/>
       <c r="N60" s="42">
         <v>2</v>
       </c>
-      <c r="O60" s="42"/>
+      <c r="O60" s="42">
+        <v>0.5</v>
+      </c>
       <c r="P60" s="42"/>
       <c r="Q60" s="42"/>
       <c r="R60" s="45"/>
@@ -4445,21 +4467,21 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="88"/>
-      <c r="B61" s="114" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="77"/>
-      <c r="E61" s="116" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="116" t="s">
+      <c r="F61" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="118"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4488,29 +4510,35 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="89"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="115"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I62" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="J62" s="50"/>
+        <v>81</v>
+      </c>
+      <c r="J62" s="50">
+        <v>2</v>
+      </c>
       <c r="K62" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="42"/>
       <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
+      <c r="N62" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="O62" s="42">
+        <v>0.5</v>
+      </c>
       <c r="P62" s="42"/>
       <c r="Q62" s="42"/>
       <c r="R62" s="45"/>
@@ -4519,17 +4547,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="88">
+      <c r="A63" s="57">
         <v>2</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="64"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4552,13 +4580,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="89"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="65"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4581,19 +4609,19 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="88"/>
-      <c r="B65" s="114" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="116" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="118"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4622,13 +4650,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="89"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="115"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4651,19 +4679,19 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="88"/>
-      <c r="B67" s="114" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="116" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="116"/>
-      <c r="G67" s="118"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4692,13 +4720,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="89"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="115"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4721,19 +4749,19 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="88"/>
-      <c r="B69" s="114" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="77"/>
-      <c r="E69" s="116" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="116"/>
-      <c r="G69" s="118"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4762,13 +4790,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="89"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="115"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4791,15 +4819,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="119"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="85"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4839,13 +4867,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="83"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="120"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="86"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4885,19 +4913,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="88">
+      <c r="A73" s="57">
         <v>1</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="66" t="s">
+      <c r="C73" s="71"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="64"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4920,13 +4948,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="89"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="65"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4949,19 +4977,19 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="88"/>
-      <c r="B75" s="114" t="s">
+      <c r="A75" s="57"/>
+      <c r="B75" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="77"/>
-      <c r="E75" s="116" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="116"/>
-      <c r="G75" s="118"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -4990,13 +5018,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="89"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="115"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="56"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5019,19 +5047,19 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="88"/>
-      <c r="B77" s="114" t="s">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="77"/>
-      <c r="E77" s="116" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="116"/>
-      <c r="G77" s="118"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5060,13 +5088,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="89"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="56"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5089,15 +5117,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="119"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5137,13 +5165,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="120"/>
+      <c r="A80" s="80"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5183,17 +5211,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="88">
+      <c r="A81" s="57">
         <v>1</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="64"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5216,13 +5244,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="89"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="65"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5245,19 +5273,19 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="88"/>
-      <c r="B83" s="114" t="s">
+      <c r="A83" s="57"/>
+      <c r="B83" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="116" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="116"/>
-      <c r="G83" s="118"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5284,13 +5312,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="89"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="115"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5313,19 +5341,19 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="88"/>
-      <c r="B85" s="114" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="76" t="s">
+      <c r="C85" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="77"/>
-      <c r="E85" s="116" t="s">
+      <c r="D85" s="61"/>
+      <c r="E85" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="116"/>
-      <c r="G85" s="118"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5350,13 +5378,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="89"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5379,17 +5407,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="88">
+      <c r="A87" s="57">
         <v>2</v>
       </c>
-      <c r="B87" s="76" t="s">
+      <c r="B87" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="64"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5412,13 +5440,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="89"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="65"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5441,19 +5469,19 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="88"/>
-      <c r="B89" s="114" t="s">
+      <c r="A89" s="57"/>
+      <c r="B89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="77"/>
-      <c r="E89" s="116" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="116"/>
-      <c r="G89" s="118"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5482,13 +5510,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="89"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="115"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5511,19 +5539,19 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="88"/>
-      <c r="B91" s="114" t="s">
+      <c r="A91" s="57"/>
+      <c r="B91" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="116" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="116"/>
-      <c r="G91" s="118"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5548,13 +5576,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="89"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="115"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="56"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5577,15 +5605,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="80" t="s">
+      <c r="A93" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="119"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="85"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5625,13 +5653,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="120"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="86"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5671,17 +5699,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="88">
+      <c r="A95" s="57">
         <v>1</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="64"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5704,13 +5732,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="89"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="65"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5733,19 +5761,19 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="88"/>
-      <c r="B97" s="114" t="s">
+      <c r="A97" s="57"/>
+      <c r="B97" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="77"/>
-      <c r="E97" s="116" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="116"/>
-      <c r="G97" s="118"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5774,13 +5802,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="89"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="115"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5803,19 +5831,19 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="88"/>
-      <c r="B99" s="114" t="s">
+      <c r="A99" s="57"/>
+      <c r="B99" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="76" t="s">
+      <c r="C99" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="116" t="s">
+      <c r="D99" s="61"/>
+      <c r="E99" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="116"/>
-      <c r="G99" s="118"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5844,13 +5872,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="89"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="56"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5873,17 +5901,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="88">
+      <c r="A101" s="57">
         <v>2</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="64"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5906,13 +5934,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="89"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="87"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="65"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5935,19 +5963,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="88"/>
-      <c r="B103" s="114" t="s">
+      <c r="A103" s="57"/>
+      <c r="B103" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="77"/>
-      <c r="E103" s="116" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="116"/>
-      <c r="G103" s="118"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5976,13 +6004,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="89"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="115"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6005,19 +6033,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="88"/>
-      <c r="B105" s="114" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="76" t="s">
+      <c r="C105" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="77"/>
-      <c r="E105" s="116" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="116"/>
-      <c r="G105" s="118"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6044,13 +6072,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="89"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="115"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="56"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6139,59 +6167,224 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A93:D94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
@@ -6216,224 +6409,59 @@
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6683,18 +6711,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6716,14 +6744,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6737,4 +6757,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D1A8C-4D65-421F-8CB8-2611B75D4BAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F109D71-934F-4A5A-B95E-B12DCB5D4995}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="315" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,215 +1405,215 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,10 +2167,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N65" sqref="N65"/>
+      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2189,120 +2189,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="87">
+      <c r="L1" s="55">
         <v>43993</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="87">
+      <c r="M1" s="56"/>
+      <c r="N1" s="55">
         <v>43994</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="87">
+      <c r="O1" s="56"/>
+      <c r="P1" s="55">
         <v>43997</v>
       </c>
-      <c r="Q1" s="88"/>
+      <c r="Q1" s="56"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="110"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="89" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="89" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="90"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="91" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="91"/>
+      <c r="Q3" s="59"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="103"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2327,15 +2327,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2379,13 +2379,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="98"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="O6" s="28">
         <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
-        <v>2.5</v>
+        <v>13.91</v>
       </c>
       <c r="P6" s="28">
         <f>SUM(P8,P24,P36,P54,P72,P80,P94)</f>
@@ -2427,15 +2427,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="121"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2477,13 +2477,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="122"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2525,17 +2525,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="107">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2552,13 +2552,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2575,21 +2575,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2618,13 +2618,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="69"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2653,21 +2653,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2696,13 +2696,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2731,17 +2731,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="107">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="75"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2761,13 +2761,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="76"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2787,21 +2787,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2830,13 +2830,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2865,21 +2865,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2908,13 +2908,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2943,21 +2943,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="66" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2986,13 +2986,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="108"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="69"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3021,15 +3021,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3069,13 +3069,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3115,17 +3115,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="107">
+      <c r="A25" s="73">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="75"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3145,13 +3145,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="108"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="76"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3171,21 +3171,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="66" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3214,13 +3214,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="108"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="69"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3249,21 +3249,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="66" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3292,13 +3292,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="108"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="69"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3327,21 +3327,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="66" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3370,13 +3370,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="108"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="69"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3405,21 +3405,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="70" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="62" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3450,13 +3450,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="108"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="69"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3485,15 +3485,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="85"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="119"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3533,13 +3533,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="86"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3579,17 +3579,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107">
+      <c r="A37" s="73">
         <v>1</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="75"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3609,13 +3609,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="108"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="76"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3635,21 +3635,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="118"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3678,13 +3678,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="56"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3713,21 +3713,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="66" t="s">
+      <c r="D41" s="77"/>
+      <c r="E41" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3756,13 +3756,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="108"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="69"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3791,21 +3791,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="64" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="55"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3834,13 +3834,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="56"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3869,17 +3869,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107">
+      <c r="A45" s="73">
         <v>2</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3899,13 +3899,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="108"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="76"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3925,21 +3925,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="70" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="77"/>
+      <c r="E47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3970,13 +3970,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="108"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="69"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4003,21 +4003,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="66" t="s">
+      <c r="D49" s="77"/>
+      <c r="E49" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="68"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4046,13 +4046,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="108"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="69"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4079,19 +4079,19 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="62"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4120,13 +4120,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="108"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="69"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4153,15 +4153,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="85"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="119"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4201,13 +4201,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="86"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="120"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="48">
         <f>SUMPRODUCT((MOD(ROW(K$55:K$70),2)=0)*K$55:K$70)</f>
-        <v>10</v>
+        <v>12.41</v>
       </c>
       <c r="L54" s="21" cm="1">
         <f t="array" ref="L54">SUMPRODUCT((MOD(ROW(L$55:L$70),2)=0)*L$55:L$70)</f>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="O54" s="21" cm="1">
         <f t="array" ref="O54">SUMPRODUCT((MOD(ROW(O$55:O$70),2)=0)*O$55:O$70)</f>
-        <v>2.5</v>
+        <v>4.91</v>
       </c>
       <c r="P54" s="21" cm="1">
         <f t="array" ref="P54">SUMPRODUCT((MOD(ROW(P$55:P$70),2)=0)*P$55:P$70)</f>
@@ -4247,17 +4247,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57">
+      <c r="A55" s="88">
         <v>1</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="64"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4277,13 +4277,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="76"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4303,21 +4303,21 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
-      <c r="B57" s="59" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="64" t="s">
+      <c r="F57" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="55"/>
+      <c r="G57" s="118"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4348,13 +4348,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="58"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="56"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="115"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4385,21 +4385,21 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="77"/>
+      <c r="E59" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="64" t="s">
+      <c r="F59" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="55"/>
+      <c r="G59" s="118"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4430,13 +4430,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="56"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4467,21 +4467,21 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="77"/>
+      <c r="E61" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="55"/>
+      <c r="G61" s="118"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4510,13 +4510,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="56"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="115"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4547,17 +4547,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57">
+      <c r="A63" s="88">
         <v>2</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="75"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4580,13 +4580,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="76"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4609,19 +4609,19 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="64" t="s">
+      <c r="D65" s="77"/>
+      <c r="E65" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="118"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4650,13 +4650,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="56"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4665,12 +4665,14 @@
       <c r="J66" s="50"/>
       <c r="K66" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L66" s="42"/>
       <c r="M66" s="42"/>
       <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
+      <c r="O66" s="42">
+        <v>1.25</v>
+      </c>
       <c r="P66" s="42"/>
       <c r="Q66" s="42"/>
       <c r="R66" s="45"/>
@@ -4679,19 +4681,19 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="64" t="s">
+      <c r="D67" s="77"/>
+      <c r="E67" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="118"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4720,13 +4722,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="58"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="56"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="115"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4735,12 +4737,14 @@
       <c r="J68" s="50"/>
       <c r="K68" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="42"/>
       <c r="M68" s="42"/>
       <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
+      <c r="O68" s="42">
+        <v>1</v>
+      </c>
       <c r="P68" s="42"/>
       <c r="Q68" s="42"/>
       <c r="R68" s="45"/>
@@ -4749,19 +4753,19 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="64" t="s">
+      <c r="D69" s="77"/>
+      <c r="E69" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="118"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4790,13 +4794,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="56"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="115"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4805,12 +4809,14 @@
       <c r="J70" s="50"/>
       <c r="K70" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L70" s="44"/>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
+      <c r="O70" s="44">
+        <v>0.16</v>
+      </c>
       <c r="P70" s="44"/>
       <c r="Q70" s="44"/>
       <c r="R70" s="45"/>
@@ -4819,15 +4825,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="85"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="119"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4867,13 +4873,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="80"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="86"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="120"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4881,7 +4887,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L72" s="21" cm="1">
         <f t="array" ref="L72">SUMPRODUCT((MOD(ROW(L$73:L$78),2)=0)*L$73:L$78)</f>
@@ -4897,7 +4903,7 @@
       </c>
       <c r="O72" s="21" cm="1">
         <f t="array" ref="O72">SUMPRODUCT((MOD(ROW(O$73:O$78),2)=0)*O$73:O$78)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P72" s="21" cm="1">
         <f t="array" ref="P72">SUMPRODUCT((MOD(ROW(P$73:P$78),2)=0)*P$73:P$78)</f>
@@ -4913,19 +4919,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57">
+      <c r="A73" s="88">
         <v>1</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="73" t="s">
+      <c r="C73" s="86"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="75"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="64"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4948,13 +4954,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="76"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4977,19 +4983,19 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="88"/>
+      <c r="B75" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="64" t="s">
+      <c r="D75" s="77"/>
+      <c r="E75" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="118"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5018,13 +5024,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="58"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="56"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="115"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5033,12 +5039,14 @@
       <c r="J76" s="50"/>
       <c r="K76" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
       <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
+      <c r="O76" s="42">
+        <v>5</v>
+      </c>
       <c r="P76" s="42"/>
       <c r="Q76" s="42"/>
       <c r="R76" s="45"/>
@@ -5047,19 +5055,19 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="88"/>
+      <c r="B77" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="64" t="s">
+      <c r="D77" s="77"/>
+      <c r="E77" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="55"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5088,13 +5096,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="58"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="56"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5103,12 +5111,14 @@
       <c r="J78" s="50"/>
       <c r="K78" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
       <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
+      <c r="O78" s="42">
+        <v>4</v>
+      </c>
       <c r="P78" s="42"/>
       <c r="Q78" s="42"/>
       <c r="R78" s="45"/>
@@ -5117,15 +5127,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="85"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="119"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5165,13 +5175,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="80"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="86"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="120"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5211,17 +5221,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57">
+      <c r="A81" s="88">
         <v>1</v>
       </c>
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="75"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5244,13 +5254,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="76"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5273,19 +5283,19 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="59" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="64" t="s">
+      <c r="D83" s="77"/>
+      <c r="E83" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="118"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5312,13 +5322,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="58"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="56"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5341,19 +5351,19 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="59" t="s">
+      <c r="A85" s="88"/>
+      <c r="B85" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="64" t="s">
+      <c r="D85" s="77"/>
+      <c r="E85" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="55"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5378,13 +5388,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="56"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5407,17 +5417,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57">
+      <c r="A87" s="88">
         <v>2</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="75"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="64"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5440,13 +5450,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="58"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="76"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5469,19 +5479,19 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="88"/>
+      <c r="B89" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="64" t="s">
+      <c r="D89" s="77"/>
+      <c r="E89" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="118"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5510,13 +5520,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="56"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="115"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5539,19 +5549,19 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="59" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="64" t="s">
+      <c r="D91" s="77"/>
+      <c r="E91" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="55"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="118"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5576,13 +5586,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="56"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="115"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5605,15 +5615,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="85"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="119"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5653,13 +5663,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="86"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="120"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5699,17 +5709,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57">
+      <c r="A95" s="88">
         <v>1</v>
       </c>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="75"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="64"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5732,13 +5742,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="58"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="76"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5761,19 +5771,19 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="59" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="64" t="s">
+      <c r="D97" s="77"/>
+      <c r="E97" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="64"/>
-      <c r="G97" s="55"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="118"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5802,13 +5812,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="58"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="56"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="115"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5831,19 +5841,19 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57"/>
-      <c r="B99" s="59" t="s">
+      <c r="A99" s="88"/>
+      <c r="B99" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="64" t="s">
+      <c r="D99" s="77"/>
+      <c r="E99" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="55"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="118"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5872,13 +5882,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="56"/>
+      <c r="A100" s="89"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5901,17 +5911,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="57">
+      <c r="A101" s="88">
         <v>2</v>
       </c>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="75"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="64"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5934,13 +5944,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="76"/>
+      <c r="A102" s="89"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="65"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5963,19 +5973,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="57"/>
-      <c r="B103" s="59" t="s">
+      <c r="A103" s="88"/>
+      <c r="B103" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="64" t="s">
+      <c r="D103" s="77"/>
+      <c r="E103" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="118"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6004,13 +6014,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="56"/>
+      <c r="A104" s="89"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="115"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6033,19 +6043,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="57"/>
-      <c r="B105" s="59" t="s">
+      <c r="A105" s="88"/>
+      <c r="B105" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="64" t="s">
+      <c r="D105" s="77"/>
+      <c r="E105" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="55"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="118"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6072,13 +6082,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="56"/>
+      <c r="A106" s="89"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="115"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6167,6 +6177,277 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
@@ -6191,277 +6472,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6711,18 +6721,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6744,6 +6754,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6757,12 +6775,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F109D71-934F-4A5A-B95E-B12DCB5D4995}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105D013-585A-41E7-B6ED-A8268DC8F615}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="315" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,6 +1405,102 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,200 +1516,104 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,10 +2167,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomRight" activeCell="Q74" sqref="P74:Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2189,120 +2189,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="55">
+      <c r="L1" s="87">
         <v>43993</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="55">
+      <c r="M1" s="88"/>
+      <c r="N1" s="87">
         <v>43994</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="55">
+      <c r="O1" s="88"/>
+      <c r="P1" s="87">
         <v>43997</v>
       </c>
-      <c r="Q1" s="56"/>
+      <c r="Q1" s="88"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="57" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="57" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="90"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="91"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="113"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="103"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2327,15 +2327,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="123"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2379,13 +2379,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="124"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="O6" s="28">
         <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
-        <v>13.91</v>
+        <v>15.91</v>
       </c>
       <c r="P6" s="28">
         <f>SUM(P8,P24,P36,P54,P72,P80,P94)</f>
@@ -2427,15 +2427,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2477,13 +2477,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2525,17 +2525,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2552,13 +2552,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="65"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2575,21 +2575,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2618,13 +2618,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2653,21 +2653,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2696,13 +2696,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2731,17 +2731,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
+      <c r="A15" s="107">
         <v>2</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2761,13 +2761,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2787,21 +2787,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2830,13 +2830,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2865,21 +2865,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="88"/>
-      <c r="B19" s="114" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="116" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="118"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2908,13 +2908,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="89"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="115"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2943,21 +2943,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2986,13 +2986,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3021,15 +3021,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="119"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3069,13 +3069,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="120"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3115,17 +3115,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73">
+      <c r="A25" s="107">
         <v>1</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="64"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3145,13 +3145,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3171,21 +3171,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3214,13 +3214,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3249,21 +3249,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3292,13 +3292,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3327,21 +3327,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3370,13 +3370,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3405,21 +3405,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="68" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3450,13 +3450,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3485,15 +3485,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="119"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3533,13 +3533,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="120"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3579,17 +3579,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73">
+      <c r="A37" s="107">
         <v>1</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="64"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3609,13 +3609,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="65"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3635,21 +3635,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="88"/>
-      <c r="B39" s="114" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="116" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="116" t="s">
+      <c r="F39" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="118"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3678,13 +3678,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="89"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="115"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3713,21 +3713,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3756,13 +3756,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3791,21 +3791,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="88"/>
-      <c r="B43" s="114" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="116" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="118"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3834,13 +3834,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="89"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3869,17 +3869,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73">
+      <c r="A45" s="107">
         <v>2</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="64"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3899,13 +3899,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="65"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3925,21 +3925,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3970,13 +3970,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="63"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4003,21 +4003,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="62"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4046,13 +4046,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4079,19 +4079,19 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
-      <c r="B51" s="75" t="s">
+      <c r="A51" s="107"/>
+      <c r="B51" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="60" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="62"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4120,13 +4120,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="63"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4153,15 +4153,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="119"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4201,13 +4201,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="120"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="86"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4247,17 +4247,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="88">
+      <c r="A55" s="57">
         <v>1</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="64"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4277,13 +4277,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="89"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="65"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4303,21 +4303,21 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="88"/>
-      <c r="B57" s="114" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="116" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="116" t="s">
+      <c r="F57" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="118"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4348,13 +4348,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="89"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="115"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4385,21 +4385,21 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="88"/>
-      <c r="B59" s="114" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="116" t="s">
+      <c r="D59" s="61"/>
+      <c r="E59" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="116" t="s">
+      <c r="F59" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="118"/>
+      <c r="G59" s="55"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4430,13 +4430,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="89"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4467,21 +4467,21 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="88"/>
-      <c r="B61" s="114" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="77"/>
-      <c r="E61" s="116" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="116" t="s">
+      <c r="F61" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="118"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4510,13 +4510,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="89"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="115"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4547,17 +4547,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="88">
+      <c r="A63" s="57">
         <v>2</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="64"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4580,13 +4580,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="89"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="65"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4609,19 +4609,19 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="88"/>
-      <c r="B65" s="114" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="116" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="118"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4650,13 +4650,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="89"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="115"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4681,19 +4681,19 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="88"/>
-      <c r="B67" s="114" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="116" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="116"/>
-      <c r="G67" s="118"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4722,13 +4722,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="89"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="115"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4753,19 +4753,19 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="88"/>
-      <c r="B69" s="114" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="77"/>
-      <c r="E69" s="116" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="116"/>
-      <c r="G69" s="118"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4794,13 +4794,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="89"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="115"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4825,15 +4825,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="119"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="85"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4873,13 +4873,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="83"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="120"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="86"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="9">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L72" s="21" cm="1">
         <f t="array" ref="L72">SUMPRODUCT((MOD(ROW(L$73:L$78),2)=0)*L$73:L$78)</f>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="O72" s="21" cm="1">
         <f t="array" ref="O72">SUMPRODUCT((MOD(ROW(O$73:O$78),2)=0)*O$73:O$78)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P72" s="21" cm="1">
         <f t="array" ref="P72">SUMPRODUCT((MOD(ROW(P$73:P$78),2)=0)*P$73:P$78)</f>
@@ -4919,19 +4919,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="88">
+      <c r="A73" s="57">
         <v>1</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="66" t="s">
+      <c r="C73" s="71"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="64"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4954,13 +4954,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="89"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="65"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4983,19 +4983,19 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="88"/>
-      <c r="B75" s="114" t="s">
+      <c r="A75" s="57"/>
+      <c r="B75" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="77"/>
-      <c r="E75" s="116" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="116"/>
-      <c r="G75" s="118"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5024,13 +5024,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="89"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="115"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="56"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5039,13 +5039,13 @@
       <c r="J76" s="50"/>
       <c r="K76" s="9">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
       <c r="N76" s="42"/>
       <c r="O76" s="42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P76" s="42"/>
       <c r="Q76" s="42"/>
@@ -5055,19 +5055,19 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="88"/>
-      <c r="B77" s="114" t="s">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="77"/>
-      <c r="E77" s="116" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="116"/>
-      <c r="G77" s="118"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5096,13 +5096,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="89"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="56"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5111,13 +5111,13 @@
       <c r="J78" s="50"/>
       <c r="K78" s="9">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
       <c r="N78" s="42"/>
       <c r="O78" s="42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P78" s="42"/>
       <c r="Q78" s="42"/>
@@ -5127,15 +5127,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="119"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5175,13 +5175,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="120"/>
+      <c r="A80" s="80"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5221,17 +5221,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="88">
+      <c r="A81" s="57">
         <v>1</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="64"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5254,13 +5254,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="89"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="65"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5283,19 +5283,19 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="88"/>
-      <c r="B83" s="114" t="s">
+      <c r="A83" s="57"/>
+      <c r="B83" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="116" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="116"/>
-      <c r="G83" s="118"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5322,13 +5322,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="89"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="115"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5351,19 +5351,19 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="88"/>
-      <c r="B85" s="114" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="76" t="s">
+      <c r="C85" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="77"/>
-      <c r="E85" s="116" t="s">
+      <c r="D85" s="61"/>
+      <c r="E85" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="116"/>
-      <c r="G85" s="118"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5388,13 +5388,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="89"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5417,17 +5417,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="88">
+      <c r="A87" s="57">
         <v>2</v>
       </c>
-      <c r="B87" s="76" t="s">
+      <c r="B87" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="64"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5450,13 +5450,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="89"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="65"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5479,19 +5479,19 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="88"/>
-      <c r="B89" s="114" t="s">
+      <c r="A89" s="57"/>
+      <c r="B89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="77"/>
-      <c r="E89" s="116" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="116"/>
-      <c r="G89" s="118"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5520,13 +5520,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="89"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="115"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5549,19 +5549,19 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="88"/>
-      <c r="B91" s="114" t="s">
+      <c r="A91" s="57"/>
+      <c r="B91" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="116" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="116"/>
-      <c r="G91" s="118"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5586,13 +5586,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="89"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="115"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="56"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5615,15 +5615,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="80" t="s">
+      <c r="A93" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="119"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="85"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5663,13 +5663,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="120"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="86"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5709,17 +5709,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="88">
+      <c r="A95" s="57">
         <v>1</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="64"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5742,13 +5742,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="89"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="65"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5771,19 +5771,19 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="88"/>
-      <c r="B97" s="114" t="s">
+      <c r="A97" s="57"/>
+      <c r="B97" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="77"/>
-      <c r="E97" s="116" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="116"/>
-      <c r="G97" s="118"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5812,13 +5812,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="89"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="115"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5841,19 +5841,19 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="88"/>
-      <c r="B99" s="114" t="s">
+      <c r="A99" s="57"/>
+      <c r="B99" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="76" t="s">
+      <c r="C99" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="116" t="s">
+      <c r="D99" s="61"/>
+      <c r="E99" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="116"/>
-      <c r="G99" s="118"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5882,13 +5882,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="89"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="56"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5911,17 +5911,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="88">
+      <c r="A101" s="57">
         <v>2</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="64"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5944,13 +5944,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="89"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="87"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="65"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5973,19 +5973,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="88"/>
-      <c r="B103" s="114" t="s">
+      <c r="A103" s="57"/>
+      <c r="B103" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="77"/>
-      <c r="E103" s="116" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="116"/>
-      <c r="G103" s="118"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6014,13 +6014,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="89"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="115"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6043,19 +6043,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="88"/>
-      <c r="B105" s="114" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="76" t="s">
+      <c r="C105" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="77"/>
-      <c r="E105" s="116" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="116"/>
-      <c r="G105" s="118"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6082,13 +6082,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="89"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="115"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="56"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6177,59 +6177,224 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A93:D94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
@@ -6254,224 +6419,59 @@
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6721,18 +6721,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6754,14 +6754,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6775,4 +6767,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105D013-585A-41E7-B6ED-A8268DC8F615}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666220D1-0764-42B8-A48C-BD45FA5E0AEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="315" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="405" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="86">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -416,9 +416,6 @@
     <t>栢沼、今竹、鈴木</t>
   </si>
   <si>
-    <t>浜崎、横井、栢沼</t>
-  </si>
-  <si>
     <t>横井</t>
     <rPh sb="0" eb="2">
       <t>ヨコイ</t>
@@ -486,6 +483,41 @@
     <rPh sb="3" eb="5">
       <t>ハマザキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIの仕組みを理解する時間も含む</t>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栢沼、今竹、鈴木、横井</t>
+    <rPh sb="9" eb="11">
+      <t>ヨコイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎、横井、栢沼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎、横井</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1249,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,215 +1437,218 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,10 +2202,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q74" sqref="P74:Q74"/>
+      <selection pane="bottomRight" activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2189,120 +2224,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="87">
+      <c r="L1" s="55">
         <v>43993</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="87">
+      <c r="M1" s="56"/>
+      <c r="N1" s="55">
         <v>43994</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="87">
+      <c r="O1" s="56"/>
+      <c r="P1" s="55">
         <v>43997</v>
       </c>
-      <c r="Q1" s="88"/>
+      <c r="Q1" s="56"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="110"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="89" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="89" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="90"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="91" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="91"/>
+      <c r="Q3" s="59"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="103"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2327,15 +2362,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2379,13 +2414,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="98"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2415,7 +2450,7 @@
       </c>
       <c r="P6" s="28">
         <f>SUM(P8,P24,P36,P54,P72,P80,P94)</f>
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="Q6" s="28">
         <f>SUM(Q8,Q24,Q36,Q54,Q72,Q80,Q94)</f>
@@ -2427,15 +2462,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="121"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2477,13 +2512,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="122"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2525,17 +2560,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="107">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2552,13 +2587,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2575,21 +2610,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2618,13 +2653,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="69"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2653,21 +2688,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2696,13 +2731,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2731,17 +2766,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="107">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="75"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2761,13 +2796,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="76"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2787,21 +2822,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2830,13 +2865,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2865,21 +2900,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2908,13 +2943,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2943,21 +2978,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="66" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -2986,13 +3021,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="108"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="69"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3021,15 +3056,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3069,13 +3104,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3115,17 +3150,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="107">
+      <c r="A25" s="73">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="75"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3145,13 +3180,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="108"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="76"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3171,21 +3206,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="66" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3214,19 +3249,19 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="108"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="69"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28" s="49">
         <v>1</v>
@@ -3249,21 +3284,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="66" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3292,19 +3327,19 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="108"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="69"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J30" s="49">
         <v>1</v>
@@ -3327,21 +3362,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="66" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3370,19 +3405,19 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="108"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="69"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J32" s="49">
         <v>1</v>
@@ -3405,21 +3440,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="70" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="62" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3450,19 +3485,19 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="108"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="69"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J34" s="49">
         <v>1</v>
@@ -3485,15 +3520,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="85"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="119"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3533,13 +3568,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="86"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3579,17 +3614,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107">
+      <c r="A37" s="73">
         <v>1</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="75"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3609,13 +3644,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="108"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="76"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3635,21 +3670,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="118"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3678,19 +3713,19 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="56"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" s="50">
         <v>1</v>
@@ -3713,21 +3748,23 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="66" t="s">
+      <c r="D41" s="77"/>
+      <c r="E41" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="62" t="s">
+        <v>81</v>
+      </c>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3756,19 +3793,19 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="108"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="69"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J42" s="49">
         <v>1</v>
@@ -3791,21 +3828,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="64" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="55"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3834,19 +3871,19 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="56"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44" s="50">
         <v>1</v>
@@ -3869,17 +3906,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107">
+      <c r="A45" s="73">
         <v>2</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3899,13 +3936,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="108"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="76"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3925,21 +3962,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="70" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="77"/>
+      <c r="E47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -3970,13 +4007,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="108"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="69"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -3984,7 +4021,9 @@
       <c r="I48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="49"/>
+      <c r="J48" s="49">
+        <v>5</v>
+      </c>
       <c r="K48" s="10">
         <f>SUM(L48:O48)</f>
         <v>1.25</v>
@@ -4003,21 +4042,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="66" t="s">
+      <c r="D49" s="77"/>
+      <c r="E49" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="68"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4046,13 +4085,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="108"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="69"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4060,7 +4099,9 @@
       <c r="I50" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="49"/>
+      <c r="J50" s="49">
+        <v>5</v>
+      </c>
       <c r="K50" s="10">
         <f>SUM(L50:O50)</f>
         <v>1</v>
@@ -4079,19 +4120,21 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="62"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4120,21 +4163,23 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="108"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="69"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J52" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="J52" s="49">
+        <v>1</v>
+      </c>
       <c r="K52" s="10">
         <f t="shared" ref="K52" si="13">SUM(L52:O52)</f>
         <v>0.16</v>
@@ -4153,15 +4198,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="85"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="119"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4201,13 +4246,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="86"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="120"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4247,17 +4292,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57">
+      <c r="A55" s="88">
         <v>1</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="64"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4277,13 +4322,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="76"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4303,27 +4348,27 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
-      <c r="B57" s="59" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="55"/>
+      <c r="F57" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="118"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="43">
         <v>3</v>
@@ -4348,19 +4393,19 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="58"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="56"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="115"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I58" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J58" s="50">
         <v>5</v>
@@ -4385,27 +4430,27 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="77"/>
+      <c r="E59" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="55"/>
+      <c r="F59" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="118"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J59" s="43">
         <v>2</v>
@@ -4430,19 +4475,19 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="56"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I60" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J60" s="50">
         <v>2</v>
@@ -4467,27 +4512,27 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="77"/>
+      <c r="E61" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="55"/>
+      <c r="F61" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="118"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I61" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J61" s="43">
         <v>2</v>
@@ -4510,19 +4555,19 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="56"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="115"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I62" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J62" s="50">
         <v>2</v>
@@ -4547,17 +4592,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57">
+      <c r="A63" s="88">
         <v>2</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="75"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4580,13 +4625,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="76"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4609,19 +4654,21 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="64" t="s">
+      <c r="D65" s="77"/>
+      <c r="E65" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="118"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4650,19 +4697,21 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="56"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I66" s="43"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="50">
+        <v>5</v>
+      </c>
       <c r="K66" s="9">
         <f t="shared" si="15"/>
         <v>1.25</v>
@@ -4681,19 +4730,21 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="64" t="s">
+      <c r="D67" s="77"/>
+      <c r="E67" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="118"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4722,19 +4773,21 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="58"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="56"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="115"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I68" s="43"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="50">
+        <v>5</v>
+      </c>
       <c r="K68" s="9">
         <f t="shared" si="15"/>
         <v>1</v>
@@ -4753,25 +4806,27 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="64" t="s">
+      <c r="D69" s="77"/>
+      <c r="E69" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="118"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J69" s="43">
         <v>1</v>
@@ -4794,19 +4849,23 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="56"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="115"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
+      <c r="I70" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70" s="50">
+        <v>1</v>
+      </c>
       <c r="K70" s="9">
         <f t="shared" si="15"/>
         <v>0.16</v>
@@ -4825,15 +4884,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="85"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="119"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4873,13 +4932,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="80"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="86"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="120"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4887,7 +4946,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="9">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="L72" s="21" cm="1">
         <f t="array" ref="L72">SUMPRODUCT((MOD(ROW(L$73:L$78),2)=0)*L$73:L$78)</f>
@@ -4907,7 +4966,7 @@
       </c>
       <c r="P72" s="21" cm="1">
         <f t="array" ref="P72">SUMPRODUCT((MOD(ROW(P$73:P$78),2)=0)*P$73:P$78)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q72" s="21" cm="1">
         <f t="array" ref="Q72">SUMPRODUCT((MOD(ROW(Q$73:Q$78),2)=0)*Q$73:Q$78)</f>
@@ -4919,19 +4978,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57">
+      <c r="A73" s="88">
         <v>1</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="73" t="s">
+      <c r="C73" s="86"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="75"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="64"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4954,13 +5013,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="76"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4983,19 +5042,21 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="88"/>
+      <c r="B75" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="55"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="118"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5003,7 +5064,9 @@
       <c r="I75" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="J75" s="43"/>
+      <c r="J75" s="43">
+        <v>3</v>
+      </c>
       <c r="K75" s="9">
         <f t="shared" si="15"/>
         <v>7</v>
@@ -5024,22 +5087,26 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="58"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="56"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="115"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="43"/>
-      <c r="J76" s="50"/>
+      <c r="I76" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" s="50">
+        <v>4</v>
+      </c>
       <c r="K76" s="9">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
@@ -5047,7 +5114,9 @@
       <c r="O76" s="42">
         <v>10</v>
       </c>
-      <c r="P76" s="42"/>
+      <c r="P76" s="42">
+        <v>5</v>
+      </c>
       <c r="Q76" s="42"/>
       <c r="R76" s="45"/>
       <c r="S76" s="45"/>
@@ -5055,27 +5124,31 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="88"/>
+      <c r="B77" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="64" t="s">
+      <c r="D77" s="77"/>
+      <c r="E77" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="55"/>
+      <c r="F77" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="118"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I77" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J77" s="43"/>
+        <v>83</v>
+      </c>
+      <c r="J77" s="43">
+        <v>3</v>
+      </c>
       <c r="K77" s="9">
         <f t="shared" si="15"/>
         <v>5.3</v>
@@ -5096,22 +5169,26 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="58"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="56"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I78" s="43"/>
-      <c r="J78" s="50"/>
+      <c r="I78" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J78" s="50">
+        <v>2</v>
+      </c>
       <c r="K78" s="9">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
@@ -5119,7 +5196,9 @@
       <c r="O78" s="42">
         <v>1</v>
       </c>
-      <c r="P78" s="42"/>
+      <c r="P78" s="42">
+        <v>2.5</v>
+      </c>
       <c r="Q78" s="42"/>
       <c r="R78" s="45"/>
       <c r="S78" s="45"/>
@@ -5127,15 +5206,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="85"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="119"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5175,13 +5254,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="80"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="86"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="120"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5189,7 +5268,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="9">
         <f t="shared" ref="K80:K106" si="16">SUM(L80:Q80)</f>
-        <v>0</v>
+        <v>3.1100000000000003</v>
       </c>
       <c r="L80" s="22" cm="1">
         <f t="array" ref="L80">SUMPRODUCT((MOD(ROW(L$81:L$92),2)=0)*L$81:L$92)</f>
@@ -5209,7 +5288,7 @@
       </c>
       <c r="P80" s="22" cm="1">
         <f t="array" ref="P80">SUMPRODUCT((MOD(ROW(P$81:P$92),2)=0)*P$81:P$92)</f>
-        <v>0</v>
+        <v>3.1100000000000003</v>
       </c>
       <c r="Q80" s="54" cm="1">
         <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$92),2)=0)*Q$81:Q$92)</f>
@@ -5221,17 +5300,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57">
+      <c r="A81" s="88">
         <v>1</v>
       </c>
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="75"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5254,13 +5333,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="76"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5283,27 +5362,31 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="59" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="64" t="s">
+      <c r="D83" s="77"/>
+      <c r="E83" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="118"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I83" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J83" s="43"/>
+        <v>85</v>
+      </c>
+      <c r="J83" s="43">
+        <v>1</v>
+      </c>
       <c r="K83" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
@@ -5322,28 +5405,34 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="58"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="56"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="43"/>
-      <c r="J84" s="50"/>
+      <c r="I84" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J84" s="50">
+        <v>3</v>
+      </c>
       <c r="K84" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L84" s="42"/>
       <c r="M84" s="42"/>
       <c r="N84" s="42"/>
       <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
+      <c r="P84" s="42">
+        <v>1.5</v>
+      </c>
       <c r="Q84" s="42"/>
       <c r="R84" s="45"/>
       <c r="S84" s="45"/>
@@ -5351,25 +5440,31 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="59" t="s">
+      <c r="A85" s="88"/>
+      <c r="B85" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="64" t="s">
+      <c r="D85" s="77"/>
+      <c r="E85" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="55"/>
+      <c r="F85" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="118"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
+      <c r="I85" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J85" s="43">
+        <v>1</v>
+      </c>
       <c r="K85" s="9">
         <f t="shared" si="16"/>
         <v>0.2</v>
@@ -5388,28 +5483,34 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="56"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
+      <c r="I86" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J86" s="50">
+        <v>1</v>
+      </c>
       <c r="K86" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L86" s="42"/>
       <c r="M86" s="42"/>
       <c r="N86" s="42"/>
       <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
+      <c r="P86" s="42">
+        <v>0.2</v>
+      </c>
       <c r="Q86" s="42"/>
       <c r="R86" s="45"/>
       <c r="S86" s="45"/>
@@ -5417,17 +5518,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57">
+      <c r="A87" s="88">
         <v>2</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="75"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="64"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5450,13 +5551,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="58"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="76"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5479,19 +5580,21 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="88"/>
+      <c r="B89" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="64" t="s">
+      <c r="D89" s="77"/>
+      <c r="E89" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="118"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5520,28 +5623,34 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="56"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="115"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I90" s="43"/>
-      <c r="J90" s="50"/>
+      <c r="I90" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="50">
+        <v>5</v>
+      </c>
       <c r="K90" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
+      <c r="P90" s="125">
+        <v>1.25</v>
+      </c>
       <c r="Q90" s="42"/>
       <c r="R90" s="45"/>
       <c r="S90" s="45"/>
@@ -5549,25 +5658,31 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="59" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="64" t="s">
+      <c r="D91" s="77"/>
+      <c r="E91" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="55"/>
+      <c r="F91" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="118"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
+      <c r="I91" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J91" s="43">
+        <v>1</v>
+      </c>
       <c r="K91" s="9">
         <f t="shared" si="16"/>
         <v>0.16</v>
@@ -5586,28 +5701,34 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="56"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="115"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="43"/>
-      <c r="J92" s="50"/>
+      <c r="I92" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J92" s="50">
+        <v>1</v>
+      </c>
       <c r="K92" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L92" s="42"/>
       <c r="M92" s="42"/>
       <c r="N92" s="42"/>
       <c r="O92" s="42"/>
-      <c r="P92" s="42"/>
+      <c r="P92" s="42">
+        <v>0.16</v>
+      </c>
       <c r="Q92" s="42"/>
       <c r="R92" s="45"/>
       <c r="S92" s="45"/>
@@ -5615,15 +5736,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="85"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="119"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5663,13 +5784,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="86"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="120"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5709,17 +5830,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57">
+      <c r="A95" s="88">
         <v>1</v>
       </c>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="75"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="64"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5742,13 +5863,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="58"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="76"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5771,19 +5892,21 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="59" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="64" t="s">
+      <c r="D97" s="77"/>
+      <c r="E97" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="64"/>
-      <c r="G97" s="55"/>
+      <c r="F97" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="118"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5812,13 +5935,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="58"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="56"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="115"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5841,19 +5964,21 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57"/>
-      <c r="B99" s="59" t="s">
+      <c r="A99" s="88"/>
+      <c r="B99" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="64" t="s">
+      <c r="D99" s="77"/>
+      <c r="E99" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="55"/>
+      <c r="F99" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="118"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5882,13 +6007,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="56"/>
+      <c r="A100" s="89"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5911,17 +6036,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="57">
+      <c r="A101" s="88">
         <v>2</v>
       </c>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="75"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="64"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5944,13 +6069,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="76"/>
+      <c r="A102" s="89"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="65"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5973,19 +6098,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="57"/>
-      <c r="B103" s="59" t="s">
+      <c r="A103" s="88"/>
+      <c r="B103" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="64" t="s">
+      <c r="D103" s="77"/>
+      <c r="E103" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="118"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6014,13 +6139,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="56"/>
+      <c r="A104" s="89"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="115"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6043,24 +6168,26 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="57"/>
-      <c r="B105" s="59" t="s">
+      <c r="A105" s="88"/>
+      <c r="B105" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="64" t="s">
+      <c r="D105" s="77"/>
+      <c r="E105" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="55"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="118"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I105" s="43"/>
+      <c r="I105" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="J105" s="43">
         <v>1</v>
       </c>
@@ -6082,13 +6209,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="56"/>
+      <c r="A106" s="89"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="115"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6177,6 +6304,277 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
@@ -6201,277 +6599,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6721,18 +6848,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6754,6 +6881,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6767,12 +6902,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666220D1-0764-42B8-A48C-BD45FA5E0AEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBFDE0D-6236-464F-B170-41604709AB6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="405" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="1290" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="86">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -1437,6 +1437,105 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1452,203 +1551,104 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2202,10 +2202,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N90" sqref="N90"/>
+      <selection pane="bottomRight" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2224,120 +2224,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="55">
+      <c r="L1" s="88">
         <v>43993</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="55">
+      <c r="M1" s="89"/>
+      <c r="N1" s="88">
         <v>43994</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="55">
+      <c r="O1" s="89"/>
+      <c r="P1" s="88">
         <v>43997</v>
       </c>
-      <c r="Q1" s="56"/>
+      <c r="Q1" s="89"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="57" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57" t="s">
+      <c r="M2" s="91"/>
+      <c r="N2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="57" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="91"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="92"/>
+      <c r="P3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="92"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="113"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2362,15 +2362,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="123"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2414,13 +2414,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="124"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="P6" s="28">
         <f>SUM(P8,P24,P36,P54,P72,P80,P94)</f>
-        <v>10.61</v>
+        <v>13.27</v>
       </c>
       <c r="Q6" s="28">
         <f>SUM(Q8,Q24,Q36,Q54,Q72,Q80,Q94)</f>
@@ -2462,15 +2462,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2512,13 +2512,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2560,17 +2560,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="108">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2587,13 +2587,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="65"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2610,21 +2610,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2653,13 +2653,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2688,21 +2688,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2731,13 +2731,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2766,17 +2766,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
+      <c r="A15" s="108">
         <v>2</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2796,13 +2796,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2822,21 +2822,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2865,13 +2865,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2900,21 +2900,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="88"/>
-      <c r="B19" s="114" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="116" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="118"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2943,13 +2943,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="89"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="115"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2978,21 +2978,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3021,13 +3021,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3056,15 +3056,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="119"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3104,13 +3104,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="120"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3150,17 +3150,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73">
+      <c r="A25" s="108">
         <v>1</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="64"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3180,13 +3180,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3206,21 +3206,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="108"/>
+      <c r="B27" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3249,13 +3249,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3284,21 +3284,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="108"/>
+      <c r="B29" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3327,13 +3327,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3362,21 +3362,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="108"/>
+      <c r="B31" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3405,13 +3405,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="70"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3440,21 +3440,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="108"/>
+      <c r="B33" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="69" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3485,13 +3485,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3520,15 +3520,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="119"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3568,13 +3568,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="120"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3614,17 +3614,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73">
+      <c r="A37" s="108">
         <v>1</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="64"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="76"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3644,13 +3644,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="65"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="77"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3670,21 +3670,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="88"/>
-      <c r="B39" s="114" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="116" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="116" t="s">
+      <c r="F39" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="118"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3713,13 +3713,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="89"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="115"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="57"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3748,21 +3748,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="108"/>
+      <c r="B41" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="62"/>
+      <c r="E41" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="69" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="8" t="str">
@@ -3793,13 +3793,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3828,21 +3828,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="88"/>
-      <c r="B43" s="114" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="116" t="s">
+      <c r="D43" s="62"/>
+      <c r="E43" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="118"/>
+      <c r="G43" s="56"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3871,13 +3871,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="89"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="57"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3906,17 +3906,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73">
+      <c r="A45" s="108">
         <v>2</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="64"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3936,13 +3936,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="65"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3962,21 +3962,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="108"/>
+      <c r="B47" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="62"/>
+      <c r="E47" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="69" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -4007,13 +4007,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="63"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4042,21 +4042,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="108"/>
+      <c r="B49" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="62"/>
+      <c r="E49" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="62"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4085,13 +4085,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4120,21 +4120,21 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
-      <c r="B51" s="75" t="s">
+      <c r="A51" s="108"/>
+      <c r="B51" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="60" t="s">
+      <c r="D51" s="62"/>
+      <c r="E51" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="60" t="s">
+      <c r="F51" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="62"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4163,13 +4163,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="63"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="70"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4198,15 +4198,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="119"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4246,13 +4246,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="120"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="87"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4292,17 +4292,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="88">
+      <c r="A55" s="58">
         <v>1</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="64"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="76"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4322,13 +4322,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="89"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="65"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="77"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4348,21 +4348,21 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="88"/>
-      <c r="B57" s="114" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="116" t="s">
+      <c r="D57" s="62"/>
+      <c r="E57" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="116" t="s">
+      <c r="F57" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="118"/>
+      <c r="G57" s="56"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4393,13 +4393,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="89"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="115"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4430,21 +4430,21 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="88"/>
-      <c r="B59" s="114" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="116" t="s">
+      <c r="D59" s="62"/>
+      <c r="E59" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="116" t="s">
+      <c r="F59" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="118"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4475,13 +4475,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="89"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4512,21 +4512,21 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="88"/>
-      <c r="B61" s="114" t="s">
+      <c r="A61" s="58"/>
+      <c r="B61" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="77"/>
-      <c r="E61" s="116" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="116" t="s">
+      <c r="F61" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="118"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4555,13 +4555,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="89"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="115"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4592,17 +4592,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="88">
+      <c r="A63" s="58">
         <v>2</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="64"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="76"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4625,13 +4625,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="89"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="65"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="77"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4654,21 +4654,21 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="88"/>
-      <c r="B65" s="114" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="116" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="116" t="s">
+      <c r="F65" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="118"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4697,13 +4697,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="89"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="115"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4730,21 +4730,21 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="88"/>
-      <c r="B67" s="114" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="116" t="s">
+      <c r="D67" s="62"/>
+      <c r="E67" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="116" t="s">
+      <c r="F67" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="118"/>
+      <c r="G67" s="56"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4773,13 +4773,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="89"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="115"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="57"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4806,21 +4806,21 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="88"/>
-      <c r="B69" s="114" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="77"/>
-      <c r="E69" s="116" t="s">
+      <c r="D69" s="62"/>
+      <c r="E69" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="116" t="s">
+      <c r="F69" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="118"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4849,13 +4849,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="89"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="115"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4884,15 +4884,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="119"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="86"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4932,13 +4932,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="83"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="120"/>
+      <c r="A72" s="81"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="87"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4978,19 +4978,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="88">
+      <c r="A73" s="58">
         <v>1</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="66" t="s">
+      <c r="C73" s="72"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="64"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="76"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5013,13 +5013,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="89"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="65"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="77"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5042,21 +5042,21 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="88"/>
-      <c r="B75" s="114" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="77"/>
-      <c r="E75" s="116" t="s">
+      <c r="D75" s="62"/>
+      <c r="E75" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="116" t="s">
+      <c r="F75" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="118"/>
+      <c r="G75" s="56"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5087,13 +5087,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="89"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="115"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="57"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5124,21 +5124,21 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="88"/>
-      <c r="B77" s="114" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="77"/>
-      <c r="E77" s="116" t="s">
+      <c r="D77" s="62"/>
+      <c r="E77" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="118"/>
+      <c r="G77" s="56"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5169,13 +5169,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="89"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5206,15 +5206,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="119"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="86"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5254,13 +5254,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="120"/>
+      <c r="A80" s="81"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="87"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5300,17 +5300,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="88">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="64"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="76"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5333,13 +5333,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="89"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="65"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="77"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5362,21 +5362,21 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="88"/>
-      <c r="B83" s="114" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="116" t="s">
+      <c r="D83" s="62"/>
+      <c r="E83" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="116" t="s">
+      <c r="F83" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="118"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5405,13 +5405,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="89"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="115"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5440,21 +5440,21 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="88"/>
-      <c r="B85" s="114" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="76" t="s">
+      <c r="C85" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="77"/>
-      <c r="E85" s="116" t="s">
+      <c r="D85" s="62"/>
+      <c r="E85" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="116" t="s">
+      <c r="F85" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="118"/>
+      <c r="G85" s="56"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5483,13 +5483,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="89"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="57"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5518,17 +5518,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="88">
+      <c r="A87" s="58">
         <v>2</v>
       </c>
-      <c r="B87" s="76" t="s">
+      <c r="B87" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="64"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="76"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5551,13 +5551,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="89"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="65"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="77"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5580,21 +5580,21 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="88"/>
-      <c r="B89" s="114" t="s">
+      <c r="A89" s="58"/>
+      <c r="B89" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="77"/>
-      <c r="E89" s="116" t="s">
+      <c r="D89" s="62"/>
+      <c r="E89" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="116" t="s">
+      <c r="F89" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="118"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5623,13 +5623,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="89"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="115"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5648,7 +5648,7 @@
       <c r="M90" s="42"/>
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="125">
+      <c r="P90" s="55">
         <v>1.25</v>
       </c>
       <c r="Q90" s="42"/>
@@ -5658,21 +5658,21 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="88"/>
-      <c r="B91" s="114" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="116" t="s">
+      <c r="D91" s="62"/>
+      <c r="E91" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="116" t="s">
+      <c r="F91" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="118"/>
+      <c r="G91" s="56"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5701,13 +5701,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="89"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="115"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5736,15 +5736,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="80" t="s">
+      <c r="A93" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="119"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="86"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5784,13 +5784,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="120"/>
+      <c r="A94" s="81"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="87"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="L94" s="22" cm="1">
         <f t="array" ref="L94">SUMPRODUCT((MOD(ROW(L$95:L$106),2)=0)*L$95:L$106)</f>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="P94" s="22" cm="1">
         <f t="array" ref="P94">SUMPRODUCT((MOD(ROW(P$95:P$106),2)=0)*P$95:P$106)</f>
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Q94" s="22" cm="1">
         <f t="array" ref="Q94">SUMPRODUCT((MOD(ROW(Q$95:Q$106),2)=0)*Q$95:Q$106)</f>
@@ -5830,17 +5830,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="88">
+      <c r="A95" s="58">
         <v>1</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="64"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="76"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5863,13 +5863,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="89"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="65"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="77"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5892,21 +5892,21 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="88"/>
-      <c r="B97" s="114" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C97" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="77"/>
-      <c r="E97" s="116" t="s">
+      <c r="D97" s="62"/>
+      <c r="E97" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="116" t="s">
+      <c r="F97" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="118"/>
+      <c r="G97" s="56"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5935,28 +5935,34 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="89"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="115"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
+      <c r="I98" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="50">
+        <v>5</v>
+      </c>
       <c r="K98" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L98" s="42"/>
       <c r="M98" s="42"/>
       <c r="N98" s="42"/>
       <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
+      <c r="P98" s="42">
+        <v>2.5</v>
+      </c>
       <c r="Q98" s="42"/>
       <c r="R98" s="45"/>
       <c r="S98" s="45"/>
@@ -5964,21 +5970,21 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="88"/>
-      <c r="B99" s="114" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="76" t="s">
+      <c r="C99" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="116" t="s">
+      <c r="D99" s="62"/>
+      <c r="E99" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="116" t="s">
+      <c r="F99" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="118"/>
+      <c r="G99" s="56"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6007,28 +6013,34 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="89"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
+      <c r="I100" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J100" s="50">
+        <v>1</v>
+      </c>
       <c r="K100" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L100" s="42"/>
       <c r="M100" s="42"/>
       <c r="N100" s="42"/>
       <c r="O100" s="42"/>
-      <c r="P100" s="42"/>
+      <c r="P100" s="42">
+        <v>0.16</v>
+      </c>
       <c r="Q100" s="42"/>
       <c r="R100" s="45"/>
       <c r="S100" s="45"/>
@@ -6036,17 +6048,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="88">
+      <c r="A101" s="58">
         <v>2</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="64"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="76"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6069,13 +6081,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="89"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="87"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="65"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="77"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6098,19 +6110,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="88"/>
-      <c r="B103" s="114" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="77"/>
-      <c r="E103" s="116" t="s">
+      <c r="D103" s="62"/>
+      <c r="E103" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="116"/>
-      <c r="G103" s="118"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="56"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6139,13 +6151,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="89"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="115"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6168,19 +6180,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="88"/>
-      <c r="B105" s="114" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="76" t="s">
+      <c r="C105" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="77"/>
-      <c r="E105" s="116" t="s">
+      <c r="D105" s="62"/>
+      <c r="E105" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="116"/>
-      <c r="G105" s="118"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="56"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6209,13 +6221,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="89"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="115"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="57"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6304,59 +6316,224 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A93:D94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
@@ -6381,224 +6558,59 @@
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6664,6 +6676,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6847,15 +6868,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6863,6 +6875,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6876,14 +6896,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBFDE0D-6236-464F-B170-41604709AB6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F5FF5-4A84-40ED-95F2-814F2B59B199}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1290" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -1440,215 +1440,215 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2202,10 +2202,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M99" sqref="M99"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2224,120 +2224,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="93" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="88">
+      <c r="L1" s="56">
         <v>43993</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="88">
+      <c r="M1" s="57"/>
+      <c r="N1" s="56">
         <v>43994</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="88">
+      <c r="O1" s="57"/>
+      <c r="P1" s="56">
         <v>43997</v>
       </c>
-      <c r="Q1" s="89"/>
+      <c r="Q1" s="57"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="90" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="90" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="90" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="91"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="92" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="92"/>
+      <c r="Q3" s="60"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="104"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="114"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2362,15 +2362,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2414,13 +2414,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="99"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="125"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K36)</f>
-        <v>8.1100000000000012</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L24,L36,L54,L72,L80,L94)</f>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="N6" s="28">
         <f>SUM(N8,N24,N36,N54,N72,N80,N94)</f>
-        <v>13.01</v>
+        <v>13.11</v>
       </c>
       <c r="O6" s="28">
         <f>SUM(O8,O24,O36,O54,O72,O80,O94)</f>
@@ -2462,15 +2462,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2512,13 +2512,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="123"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f t="shared" ref="K8:O8" si="2">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>3.5900000000000003</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="L8" s="30">
         <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="N8" s="30">
         <f t="shared" si="2"/>
-        <v>0.99</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="O8" s="30">
         <f t="shared" si="2"/>
@@ -2560,17 +2560,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="108">
+      <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2587,13 +2587,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="77"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2610,21 +2610,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2653,13 +2653,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="70"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2688,21 +2688,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2731,13 +2731,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="109"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="70"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2766,17 +2766,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108">
+      <c r="A15" s="74">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="76"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2796,13 +2796,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="109"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="77"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2822,21 +2822,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="108"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2865,13 +2865,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="109"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="70"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2900,21 +2900,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="65" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="119"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2943,13 +2943,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="116"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2962,12 +2962,12 @@
       </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
@@ -2978,21 +2978,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="108"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="78"/>
+      <c r="E21" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3021,13 +3021,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="109"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="70"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3056,15 +3056,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="86"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3104,13 +3104,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="87"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3150,17 +3150,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="108">
+      <c r="A25" s="74">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="76"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3180,13 +3180,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="109"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="77"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3206,21 +3206,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="108"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="67" t="s">
+      <c r="D27" s="78"/>
+      <c r="E27" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3249,13 +3249,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="109"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="70"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3284,21 +3284,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="108"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="67" t="s">
+      <c r="D29" s="78"/>
+      <c r="E29" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3327,13 +3327,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="109"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="70"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3362,21 +3362,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="108"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="67" t="s">
+      <c r="D31" s="78"/>
+      <c r="E31" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="69"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3405,13 +3405,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="109"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="70"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3440,21 +3440,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="108"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="74"/>
+      <c r="B33" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="67" t="s">
+      <c r="D33" s="78"/>
+      <c r="E33" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="63" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3485,13 +3485,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="109"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="70"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3520,15 +3520,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="86"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3568,13 +3568,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="87"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="121"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3614,17 +3614,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="108">
+      <c r="A37" s="74">
         <v>1</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="76"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3644,13 +3644,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="109"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="77"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3670,21 +3670,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="65" t="s">
+      <c r="D39" s="78"/>
+      <c r="E39" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="56"/>
+      <c r="G39" s="119"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3713,13 +3713,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="57"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3748,21 +3748,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="108"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="67" t="s">
+      <c r="D41" s="78"/>
+      <c r="E41" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="63" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="8" t="str">
@@ -3793,13 +3793,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="109"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="70"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3828,21 +3828,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="58"/>
-      <c r="B43" s="60" t="s">
+      <c r="A43" s="89"/>
+      <c r="B43" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="65" t="s">
+      <c r="D43" s="78"/>
+      <c r="E43" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="56"/>
+      <c r="G43" s="119"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3871,13 +3871,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="59"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="57"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3906,17 +3906,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="108">
+      <c r="A45" s="74">
         <v>2</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="76"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3936,13 +3936,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="109"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="77"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="66"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3962,21 +3962,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="108"/>
-      <c r="B47" s="71" t="s">
+      <c r="A47" s="74"/>
+      <c r="B47" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="67" t="s">
+      <c r="D47" s="78"/>
+      <c r="E47" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="63" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -4007,13 +4007,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="109"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="70"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="64"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4042,21 +4042,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="108"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="74"/>
+      <c r="B49" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="67" t="s">
+      <c r="D49" s="78"/>
+      <c r="E49" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="69"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4085,13 +4085,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="109"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="70"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="64"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4120,21 +4120,21 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="108"/>
-      <c r="B51" s="71" t="s">
+      <c r="A51" s="74"/>
+      <c r="B51" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="67" t="s">
+      <c r="D51" s="78"/>
+      <c r="E51" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F51" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="69"/>
+      <c r="G51" s="63"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4163,13 +4163,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="109"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="70"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="64"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4198,15 +4198,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="86"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="120"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4246,13 +4246,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="81"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="87"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="121"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4292,17 +4292,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="58">
+      <c r="A55" s="89">
         <v>1</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="76"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4322,13 +4322,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="59"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="77"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4348,21 +4348,21 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="58"/>
-      <c r="B57" s="60" t="s">
+      <c r="A57" s="89"/>
+      <c r="B57" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="65" t="s">
+      <c r="D57" s="78"/>
+      <c r="E57" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="56"/>
+      <c r="G57" s="119"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4393,13 +4393,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="59"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="57"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="116"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4430,21 +4430,21 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="58"/>
-      <c r="B59" s="60" t="s">
+      <c r="A59" s="89"/>
+      <c r="B59" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="65" t="s">
+      <c r="D59" s="78"/>
+      <c r="E59" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="65" t="s">
+      <c r="F59" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="56"/>
+      <c r="G59" s="119"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4475,13 +4475,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="59"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="57"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="116"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4512,21 +4512,21 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="58"/>
-      <c r="B61" s="60" t="s">
+      <c r="A61" s="89"/>
+      <c r="B61" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="65" t="s">
+      <c r="D61" s="78"/>
+      <c r="E61" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="56"/>
+      <c r="G61" s="119"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4555,13 +4555,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="59"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="57"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="116"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4592,17 +4592,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="89">
         <v>2</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="76"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4625,13 +4625,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="77"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="66"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4654,21 +4654,21 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="89"/>
+      <c r="B65" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="65" t="s">
+      <c r="D65" s="78"/>
+      <c r="E65" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="65" t="s">
+      <c r="F65" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="56"/>
+      <c r="G65" s="119"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4697,13 +4697,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="57"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="116"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4730,21 +4730,21 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="89"/>
+      <c r="B67" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="62"/>
-      <c r="E67" s="65" t="s">
+      <c r="D67" s="78"/>
+      <c r="E67" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="65" t="s">
+      <c r="F67" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="56"/>
+      <c r="G67" s="119"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4773,13 +4773,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="57"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="116"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4806,21 +4806,21 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="65" t="s">
+      <c r="D69" s="78"/>
+      <c r="E69" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="65" t="s">
+      <c r="F69" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="56"/>
+      <c r="G69" s="119"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4849,13 +4849,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="57"/>
+      <c r="A70" s="90"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="116"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4884,15 +4884,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="86"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="120"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4932,13 +4932,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="81"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="87"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="121"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4978,19 +4978,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58">
+      <c r="A73" s="89">
         <v>1</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="74" t="s">
+      <c r="C73" s="87"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="74"/>
-      <c r="G73" s="76"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5013,13 +5013,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="77"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="66"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5042,21 +5042,21 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="89"/>
+      <c r="B75" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="65" t="s">
+      <c r="D75" s="78"/>
+      <c r="E75" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="65" t="s">
+      <c r="F75" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="56"/>
+      <c r="G75" s="119"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5087,13 +5087,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="57"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="116"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5124,21 +5124,21 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="89"/>
+      <c r="B77" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C77" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="65" t="s">
+      <c r="D77" s="78"/>
+      <c r="E77" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="65" t="s">
+      <c r="F77" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="56"/>
+      <c r="G77" s="119"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5169,13 +5169,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="57"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="116"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5206,15 +5206,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="78" t="s">
+      <c r="A79" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="86"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="120"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5254,13 +5254,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="81"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="87"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="121"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5300,17 +5300,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="89">
         <v>1</v>
       </c>
-      <c r="B81" s="61" t="s">
+      <c r="B81" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="76"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5333,13 +5333,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="77"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="66"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5362,21 +5362,21 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="89"/>
+      <c r="B83" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="65" t="s">
+      <c r="D83" s="78"/>
+      <c r="E83" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="65" t="s">
+      <c r="F83" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="119"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5405,13 +5405,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="57"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="116"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5440,21 +5440,21 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="89"/>
+      <c r="B85" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="61" t="s">
+      <c r="C85" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="65" t="s">
+      <c r="D85" s="78"/>
+      <c r="E85" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="65" t="s">
+      <c r="F85" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="56"/>
+      <c r="G85" s="119"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5483,13 +5483,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="57"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="116"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5518,17 +5518,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="58">
+      <c r="A87" s="89">
         <v>2</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="76"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="65"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5551,13 +5551,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="59"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="77"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="66"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5580,21 +5580,21 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58"/>
-      <c r="B89" s="60" t="s">
+      <c r="A89" s="89"/>
+      <c r="B89" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="65" t="s">
+      <c r="D89" s="78"/>
+      <c r="E89" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="65" t="s">
+      <c r="F89" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="56"/>
+      <c r="G89" s="119"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5623,13 +5623,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="57"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="116"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5658,21 +5658,21 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="89"/>
+      <c r="B91" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="61" t="s">
+      <c r="C91" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="62"/>
-      <c r="E91" s="65" t="s">
+      <c r="D91" s="78"/>
+      <c r="E91" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="65" t="s">
+      <c r="F91" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="56"/>
+      <c r="G91" s="119"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5701,13 +5701,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="57"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="118"/>
+      <c r="G92" s="116"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5736,15 +5736,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="86"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="120"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5784,13 +5784,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="81"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="87"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="121"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5830,17 +5830,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="89">
         <v>1</v>
       </c>
-      <c r="B95" s="61" t="s">
+      <c r="B95" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="76"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="65"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5863,13 +5863,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="77"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="66"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5892,21 +5892,21 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="89"/>
+      <c r="B97" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="62"/>
-      <c r="E97" s="65" t="s">
+      <c r="D97" s="78"/>
+      <c r="E97" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="65" t="s">
+      <c r="F97" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="56"/>
+      <c r="G97" s="119"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5935,13 +5935,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="57"/>
+      <c r="A98" s="90"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="118"/>
+      <c r="G98" s="116"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5970,21 +5970,21 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="89"/>
+      <c r="B99" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="61" t="s">
+      <c r="C99" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="62"/>
-      <c r="E99" s="65" t="s">
+      <c r="D99" s="78"/>
+      <c r="E99" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="65" t="s">
+      <c r="F99" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="56"/>
+      <c r="G99" s="119"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6013,13 +6013,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="57"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="116"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6048,17 +6048,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="58">
+      <c r="A101" s="89">
         <v>2</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="72"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="76"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="65"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6081,13 +6081,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="59"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="77"/>
+      <c r="A102" s="90"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="66"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6110,19 +6110,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58"/>
-      <c r="B103" s="60" t="s">
+      <c r="A103" s="89"/>
+      <c r="B103" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="65" t="s">
+      <c r="D103" s="78"/>
+      <c r="E103" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="65"/>
-      <c r="G103" s="56"/>
+      <c r="F103" s="117"/>
+      <c r="G103" s="119"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6151,13 +6151,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="57"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="116"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6180,19 +6180,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="89"/>
+      <c r="B105" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="62"/>
-      <c r="E105" s="65" t="s">
+      <c r="D105" s="78"/>
+      <c r="E105" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="65"/>
-      <c r="G105" s="56"/>
+      <c r="F105" s="117"/>
+      <c r="G105" s="119"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6221,13 +6221,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="57"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="118"/>
+      <c r="F106" s="118"/>
+      <c r="G106" s="116"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6316,6 +6316,277 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
@@ -6340,277 +6611,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6685,6 +6685,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6868,12 +6874,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
   <ds:schemaRefs>
@@ -6883,6 +6883,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6898,20 +6914,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F5FF5-4A84-40ED-95F2-814F2B59B199}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95DE9F-01AE-4107-8FD4-734203C42EFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="630" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="86">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -1440,6 +1440,102 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,200 +1551,104 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,7 +2205,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2224,120 +2224,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="71" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="56">
+      <c r="L1" s="88">
         <v>43993</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="56">
+      <c r="M1" s="89"/>
+      <c r="N1" s="88">
         <v>43994</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="56">
+      <c r="O1" s="89"/>
+      <c r="P1" s="88">
         <v>43997</v>
       </c>
-      <c r="Q1" s="57"/>
+      <c r="Q1" s="89"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58" t="s">
+      <c r="M2" s="91"/>
+      <c r="N2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="59"/>
+      <c r="Q2" s="91"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="92"/>
+      <c r="P3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="60"/>
+      <c r="Q3" s="92"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="114"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2362,15 +2362,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="124"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2381,8 +2381,8 @@
         <v>5</v>
       </c>
       <c r="K5" s="38">
-        <f>SUM(K7,K23,K35)</f>
-        <v>9.6999999999999993</v>
+        <f>SUM(K7,K23,K35,K53,K71,K79,K93)</f>
+        <v>38.340000000000003</v>
       </c>
       <c r="L5" s="17">
         <f>SUM(L7,L23,L35,L53,L71,L79,L93)</f>
@@ -2414,13 +2414,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="125"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2429,8 +2429,8 @@
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="40">
-        <f>SUM(K8,K24,K36)</f>
-        <v>8.2100000000000009</v>
+        <f>SUM(K8,K24,K36,K54,K72,K80,K94)</f>
+        <v>46.300000000000004</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L24,L36,L54,L72,L80,L94)</f>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Q6" s="28">
         <f>SUM(Q8,Q24,Q36,Q54,Q72,Q80,Q94)</f>
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="R6" s="45"/>
       <c r="S6" s="45"/>
@@ -2462,15 +2462,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="109"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2512,13 +2512,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="110"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2560,17 +2560,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74">
+      <c r="A9" s="108">
         <v>1</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2587,13 +2587,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2610,21 +2610,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2653,13 +2653,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2688,21 +2688,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="61" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="63"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2731,13 +2731,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2766,17 +2766,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74">
+      <c r="A15" s="108">
         <v>2</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2796,13 +2796,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="66"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2822,21 +2822,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="61" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="63"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2865,13 +2865,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="64"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2900,21 +2900,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="117" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2943,13 +2943,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="90"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="116"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2978,21 +2978,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
-      <c r="B21" s="76" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="61" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="63"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3021,13 +3021,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="75"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3056,15 +3056,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="120"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3104,13 +3104,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="121"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3150,17 +3150,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="74">
+      <c r="A25" s="108">
         <v>1</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="65"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3180,13 +3180,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="66"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3206,21 +3206,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="74"/>
-      <c r="B27" s="76" t="s">
+      <c r="A27" s="108"/>
+      <c r="B27" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="61" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="63"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3249,13 +3249,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="75"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="64"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3284,21 +3284,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="108"/>
+      <c r="B29" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="61" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3327,13 +3327,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="75"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="64"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3362,21 +3362,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="76" t="s">
+      <c r="A31" s="108"/>
+      <c r="B31" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="61" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3405,13 +3405,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="75"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="64"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="70"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3440,21 +3440,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
-      <c r="B33" s="76" t="s">
+      <c r="A33" s="108"/>
+      <c r="B33" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="61" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="69" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3485,13 +3485,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="75"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="64"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3520,15 +3520,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="120"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3568,13 +3568,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="121"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3614,17 +3614,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="74">
+      <c r="A37" s="108">
         <v>1</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="65"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="76"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3644,13 +3644,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="75"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="77"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3670,21 +3670,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="89"/>
-      <c r="B39" s="115" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="117" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="117" t="s">
+      <c r="F39" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="119"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3713,13 +3713,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="90"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="116"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="57"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3748,21 +3748,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="74"/>
-      <c r="B41" s="76" t="s">
+      <c r="A41" s="108"/>
+      <c r="B41" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="61" t="s">
+      <c r="D41" s="62"/>
+      <c r="E41" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="69" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="8" t="str">
@@ -3793,13 +3793,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="75"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="64"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3828,21 +3828,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="89"/>
-      <c r="B43" s="115" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="117" t="s">
+      <c r="D43" s="62"/>
+      <c r="E43" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="117" t="s">
+      <c r="F43" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="119"/>
+      <c r="G43" s="56"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3871,13 +3871,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="90"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="116"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="57"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3906,17 +3906,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="74">
+      <c r="A45" s="108">
         <v>2</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3936,13 +3936,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="75"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="66"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3962,21 +3962,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="74"/>
-      <c r="B47" s="76" t="s">
+      <c r="A47" s="108"/>
+      <c r="B47" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="61" t="s">
+      <c r="D47" s="62"/>
+      <c r="E47" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="63" t="s">
+      <c r="G47" s="69" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -4007,13 +4007,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="75"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="64"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4042,21 +4042,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="74"/>
-      <c r="B49" s="76" t="s">
+      <c r="A49" s="108"/>
+      <c r="B49" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="61" t="s">
+      <c r="D49" s="62"/>
+      <c r="E49" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="63"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4085,13 +4085,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="75"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="64"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4120,21 +4120,21 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="74"/>
-      <c r="B51" s="76" t="s">
+      <c r="A51" s="108"/>
+      <c r="B51" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="61" t="s">
+      <c r="D51" s="62"/>
+      <c r="E51" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="61" t="s">
+      <c r="F51" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="63"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4163,13 +4163,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="75"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="64"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="70"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4198,15 +4198,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="120"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4246,13 +4246,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="84"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="121"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="87"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4292,17 +4292,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="89">
+      <c r="A55" s="58">
         <v>1</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="65"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="76"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4322,13 +4322,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="90"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="77"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4348,21 +4348,21 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="89"/>
-      <c r="B57" s="115" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="78"/>
-      <c r="E57" s="117" t="s">
+      <c r="D57" s="62"/>
+      <c r="E57" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="117" t="s">
+      <c r="F57" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="119"/>
+      <c r="G57" s="56"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4393,13 +4393,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="90"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="116"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4430,21 +4430,21 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="89"/>
-      <c r="B59" s="115" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="78"/>
-      <c r="E59" s="117" t="s">
+      <c r="D59" s="62"/>
+      <c r="E59" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="117" t="s">
+      <c r="F59" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="119"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4475,13 +4475,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="90"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="116"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4512,21 +4512,21 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="89"/>
-      <c r="B61" s="115" t="s">
+      <c r="A61" s="58"/>
+      <c r="B61" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="77" t="s">
+      <c r="C61" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="117" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="117" t="s">
+      <c r="F61" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="119"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4555,13 +4555,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="90"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="116"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4592,17 +4592,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="89">
+      <c r="A63" s="58">
         <v>2</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="76"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4625,13 +4625,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="90"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="66"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="77"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4654,21 +4654,21 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="89"/>
-      <c r="B65" s="115" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="78"/>
-      <c r="E65" s="117" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="117" t="s">
+      <c r="F65" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="119"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4697,13 +4697,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="90"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="116"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4730,21 +4730,21 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="89"/>
-      <c r="B67" s="115" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="77" t="s">
+      <c r="C67" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="78"/>
-      <c r="E67" s="117" t="s">
+      <c r="D67" s="62"/>
+      <c r="E67" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="117" t="s">
+      <c r="F67" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="119"/>
+      <c r="G67" s="56"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4773,13 +4773,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="90"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="116"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="57"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4806,21 +4806,21 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="89"/>
-      <c r="B69" s="115" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="77" t="s">
+      <c r="C69" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="117" t="s">
+      <c r="D69" s="62"/>
+      <c r="E69" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="117" t="s">
+      <c r="F69" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="119"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4849,13 +4849,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="90"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="116"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4884,15 +4884,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="120"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="86"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4932,13 +4932,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="84"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="121"/>
+      <c r="A72" s="81"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="87"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4978,19 +4978,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="89">
+      <c r="A73" s="58">
         <v>1</v>
       </c>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="67" t="s">
+      <c r="C73" s="72"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="65"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="76"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5013,13 +5013,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="90"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="66"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="77"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5042,21 +5042,21 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="89"/>
-      <c r="B75" s="115" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="77" t="s">
+      <c r="C75" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="78"/>
-      <c r="E75" s="117" t="s">
+      <c r="D75" s="62"/>
+      <c r="E75" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="117" t="s">
+      <c r="F75" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="119"/>
+      <c r="G75" s="56"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5087,13 +5087,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="90"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="116"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="57"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5124,21 +5124,21 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="89"/>
-      <c r="B77" s="115" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="77" t="s">
+      <c r="C77" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="117" t="s">
+      <c r="D77" s="62"/>
+      <c r="E77" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="117" t="s">
+      <c r="F77" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="119"/>
+      <c r="G77" s="56"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5169,13 +5169,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="90"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="116"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5206,15 +5206,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="82"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="120"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="86"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5254,13 +5254,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="84"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="121"/>
+      <c r="A80" s="81"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="87"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5300,17 +5300,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="89">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="87"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="65"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="76"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5333,13 +5333,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="90"/>
-      <c r="B82" s="79"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="66"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="77"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5362,21 +5362,21 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="89"/>
-      <c r="B83" s="115" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="77" t="s">
+      <c r="C83" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="78"/>
-      <c r="E83" s="117" t="s">
+      <c r="D83" s="62"/>
+      <c r="E83" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="117" t="s">
+      <c r="F83" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="119"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5405,13 +5405,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="90"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="116"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5440,21 +5440,21 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="89"/>
-      <c r="B85" s="115" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="77" t="s">
+      <c r="C85" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="78"/>
-      <c r="E85" s="117" t="s">
+      <c r="D85" s="62"/>
+      <c r="E85" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="117" t="s">
+      <c r="F85" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="119"/>
+      <c r="G85" s="56"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5483,13 +5483,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="90"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="79"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="116"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="57"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5518,17 +5518,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="89">
+      <c r="A87" s="58">
         <v>2</v>
       </c>
-      <c r="B87" s="77" t="s">
+      <c r="B87" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="65"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="76"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5551,13 +5551,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="90"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="66"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="77"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5580,21 +5580,21 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="89"/>
-      <c r="B89" s="115" t="s">
+      <c r="A89" s="58"/>
+      <c r="B89" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="77" t="s">
+      <c r="C89" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="78"/>
-      <c r="E89" s="117" t="s">
+      <c r="D89" s="62"/>
+      <c r="E89" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="117" t="s">
+      <c r="F89" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="119"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5623,13 +5623,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="90"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="116"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5658,21 +5658,21 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="89"/>
-      <c r="B91" s="115" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="77" t="s">
+      <c r="C91" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="78"/>
-      <c r="E91" s="117" t="s">
+      <c r="D91" s="62"/>
+      <c r="E91" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="117" t="s">
+      <c r="F91" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="119"/>
+      <c r="G91" s="56"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5701,13 +5701,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="90"/>
-      <c r="B92" s="116"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="118"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="116"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5736,15 +5736,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="81" t="s">
+      <c r="A93" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="82"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="120"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="86"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5784,13 +5784,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="84"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="121"/>
+      <c r="A94" s="81"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="87"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="9">
         <f t="shared" si="16"/>
-        <v>2.66</v>
+        <v>4.07</v>
       </c>
       <c r="L94" s="22" cm="1">
         <f t="array" ref="L94">SUMPRODUCT((MOD(ROW(L$95:L$106),2)=0)*L$95:L$106)</f>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="Q94" s="22" cm="1">
         <f t="array" ref="Q94">SUMPRODUCT((MOD(ROW(Q$95:Q$106),2)=0)*Q$95:Q$106)</f>
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="R94" s="45"/>
       <c r="S94" s="45"/>
@@ -5830,17 +5830,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="89">
+      <c r="A95" s="58">
         <v>1</v>
       </c>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="87"/>
-      <c r="D95" s="78"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="65"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="76"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5863,13 +5863,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="90"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="66"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="77"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5892,21 +5892,21 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="89"/>
-      <c r="B97" s="115" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="77" t="s">
+      <c r="C97" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="78"/>
-      <c r="E97" s="117" t="s">
+      <c r="D97" s="62"/>
+      <c r="E97" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="117" t="s">
+      <c r="F97" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="119"/>
+      <c r="G97" s="56"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5935,13 +5935,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="90"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="118"/>
-      <c r="F98" s="118"/>
-      <c r="G98" s="116"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5970,21 +5970,21 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="89"/>
-      <c r="B99" s="115" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="77" t="s">
+      <c r="C99" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="78"/>
-      <c r="E99" s="117" t="s">
+      <c r="D99" s="62"/>
+      <c r="E99" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="117" t="s">
+      <c r="F99" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="119"/>
+      <c r="G99" s="56"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6013,13 +6013,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="90"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="116"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6048,17 +6048,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="89">
+      <c r="A101" s="58">
         <v>2</v>
       </c>
-      <c r="B101" s="77" t="s">
+      <c r="B101" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="87"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="65"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="76"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6081,13 +6081,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="90"/>
-      <c r="B102" s="79"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="66"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="77"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6110,19 +6110,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="89"/>
-      <c r="B103" s="115" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="77" t="s">
+      <c r="C103" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="78"/>
-      <c r="E103" s="117" t="s">
+      <c r="D103" s="62"/>
+      <c r="E103" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="117"/>
-      <c r="G103" s="119"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="56"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6151,48 +6151,54 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="90"/>
-      <c r="B104" s="116"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="118"/>
-      <c r="F104" s="118"/>
-      <c r="G104" s="116"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I104" s="43"/>
-      <c r="J104" s="53"/>
+      <c r="I104" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="53">
+        <v>5</v>
+      </c>
       <c r="K104" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L104" s="42"/>
       <c r="M104" s="42"/>
       <c r="N104" s="42"/>
       <c r="O104" s="42"/>
       <c r="P104" s="42"/>
-      <c r="Q104" s="42"/>
+      <c r="Q104" s="42">
+        <v>1.25</v>
+      </c>
       <c r="R104" s="45"/>
       <c r="S104" s="45"/>
       <c r="T104" s="45"/>
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="89"/>
-      <c r="B105" s="115" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="77" t="s">
+      <c r="C105" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="78"/>
-      <c r="E105" s="117" t="s">
+      <c r="D105" s="62"/>
+      <c r="E105" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="117"/>
-      <c r="G105" s="119"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="56"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6221,29 +6227,35 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="90"/>
-      <c r="B106" s="116"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="118"/>
-      <c r="F106" s="118"/>
-      <c r="G106" s="116"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="57"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="50"/>
-      <c r="J106" s="50"/>
+      <c r="I106" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J106" s="50">
+        <v>1</v>
+      </c>
       <c r="K106" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L106" s="42"/>
       <c r="M106" s="42"/>
       <c r="N106" s="42"/>
       <c r="O106" s="42"/>
       <c r="P106" s="42"/>
-      <c r="Q106" s="42"/>
+      <c r="Q106" s="42">
+        <v>0.16</v>
+      </c>
       <c r="R106" s="45"/>
       <c r="S106" s="45"/>
       <c r="T106" s="45"/>
@@ -6316,59 +6328,224 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A93:D94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
@@ -6393,224 +6570,59 @@
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
@@ -6685,12 +6697,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6874,6 +6880,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
   <ds:schemaRefs>
@@ -6883,22 +6895,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6914,4 +6910,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート(第三反復).xlsx
+++ b/00_mamagement/WBSガントチャート(第三反復).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95DE9F-01AE-4107-8FD4-734203C42EFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1C63CE-406E-475D-AC29-0E5D928E83D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="630" windowWidth="19155" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -1281,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,218 +1437,215 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2202,10 +2199,10 @@
   <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2224,120 +2221,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="93" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="88">
+      <c r="L1" s="55">
         <v>43993</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="88">
+      <c r="M1" s="56"/>
+      <c r="N1" s="55">
         <v>43994</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="88">
+      <c r="O1" s="56"/>
+      <c r="P1" s="55">
         <v>43997</v>
       </c>
-      <c r="Q1" s="89"/>
+      <c r="Q1" s="56"/>
       <c r="R1" s="45"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="90" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="90" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="90" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="91"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="92" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="92"/>
+      <c r="Q3" s="59"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="104"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2362,15 +2359,15 @@
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
@@ -2414,13 +2411,13 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="99"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2427,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K36,K54,K72,K80,K94)</f>
-        <v>46.300000000000004</v>
+        <v>46.150000000000006</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L24,L36,L54,L72,L80,L94)</f>
@@ -2450,7 +2447,7 @@
       </c>
       <c r="P6" s="28">
         <f>SUM(P8,P24,P36,P54,P72,P80,P94)</f>
-        <v>13.27</v>
+        <v>13.120000000000001</v>
       </c>
       <c r="Q6" s="28">
         <f>SUM(Q8,Q24,Q36,Q54,Q72,Q80,Q94)</f>
@@ -2462,15 +2459,15 @@
       <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2512,13 +2509,13 @@
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="123"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2560,17 +2557,17 @@
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="108">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2587,13 +2584,13 @@
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="77"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2610,21 +2607,21 @@
       <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2653,13 +2650,13 @@
       <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="70"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="49" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2688,21 +2685,21 @@
       <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2731,13 +2728,13 @@
       <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="109"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="70"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="49" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2766,17 +2763,17 @@
       <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="76"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2796,13 +2793,13 @@
       <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="109"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="77"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2822,21 +2819,21 @@
       <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="108"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2865,13 +2862,13 @@
       <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="109"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="70"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="49" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2900,21 +2897,21 @@
       <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="65" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2943,13 +2940,13 @@
       <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2978,21 +2975,21 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="108"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3021,13 +3018,13 @@
       <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="109"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="70"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="49" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3056,15 +3053,15 @@
       <c r="U22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="86"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
@@ -3104,13 +3101,13 @@
       <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="87"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3150,17 +3147,17 @@
       <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="108">
+      <c r="A25" s="73">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="76"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3180,13 +3177,13 @@
       <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="109"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="77"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3206,21 +3203,21 @@
       <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="108"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="67" t="s">
+      <c r="D27" s="77"/>
+      <c r="E27" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3249,13 +3246,13 @@
       <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="109"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="70"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="49" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3284,21 +3281,21 @@
       <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="108"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="67" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3327,13 +3324,13 @@
       <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="109"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="70"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="49" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3362,21 +3359,21 @@
       <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="108"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="67" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="69"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3405,13 +3402,13 @@
       <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="109"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="70"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="49" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3440,21 +3437,21 @@
       <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="108"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="67" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="62" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3485,13 +3482,13 @@
       <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="109"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="70"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="49" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3520,15 +3517,15 @@
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="86"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="119"/>
       <c r="H35" s="20" t="s">
         <v>14</v>
       </c>
@@ -3568,13 +3565,13 @@
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="87"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3614,17 +3611,17 @@
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="108">
+      <c r="A37" s="73">
         <v>1</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="76"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="24" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3644,13 +3641,13 @@
       <c r="U37" s="45"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="109"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="77"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="25" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -3670,21 +3667,21 @@
       <c r="U38" s="45"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="65" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="56"/>
+      <c r="G39" s="118"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3713,13 +3710,13 @@
       <c r="U39" s="45"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="57"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3748,21 +3745,21 @@
       <c r="U40" s="45"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="108"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="67" t="s">
+      <c r="D41" s="77"/>
+      <c r="E41" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="62" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="8" t="str">
@@ -3793,13 +3790,13 @@
       <c r="U41" s="45"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="109"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="70"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="49" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3828,21 +3825,21 @@
       <c r="U42" s="45"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="58"/>
-      <c r="B43" s="60" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="65" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="56"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="43" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3871,13 +3868,13 @@
       <c r="U43" s="45"/>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="59"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="57"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="50" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3906,17 +3903,17 @@
       <c r="U44" s="45"/>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="108">
+      <c r="A45" s="73">
         <v>2</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="76"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3936,13 +3933,13 @@
       <c r="U45" s="45"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="109"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="77"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3962,21 +3959,21 @@
       <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="108"/>
-      <c r="B47" s="71" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="67" t="s">
+      <c r="D47" s="77"/>
+      <c r="E47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="8" t="str">
@@ -4007,13 +4004,13 @@
       <c r="U47" s="45"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="109"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="70"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="49" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4042,21 +4039,21 @@
       <c r="U48" s="45"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="108"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="67" t="s">
+      <c r="D49" s="77"/>
+      <c r="E49" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="69"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4085,13 +4082,13 @@
       <c r="U49" s="45"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="109"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="70"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="49" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4120,21 +4117,21 @@
       <c r="U50" s="45"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="108"/>
-      <c r="B51" s="71" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="67" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F51" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="69"/>
+      <c r="G51" s="62"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4163,13 +4160,13 @@
       <c r="U51" s="45"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="109"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="70"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="49" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4198,15 +4195,15 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="86"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="119"/>
       <c r="H53" s="20" t="s">
         <v>14</v>
       </c>
@@ -4246,13 +4243,13 @@
       <c r="U53" s="45"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="81"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="87"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="120"/>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
@@ -4292,17 +4289,17 @@
       <c r="U54" s="45"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="58">
+      <c r="A55" s="88">
         <v>1</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="76"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="64"/>
       <c r="H55" s="24" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4322,13 +4319,13 @@
       <c r="U55" s="45"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="59"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="77"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="25" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4348,21 +4345,21 @@
       <c r="U56" s="45"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="58"/>
-      <c r="B57" s="60" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="65" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="56"/>
+      <c r="G57" s="118"/>
       <c r="H57" s="43" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4393,13 +4390,13 @@
       <c r="U57" s="45"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="59"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="57"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="115"/>
       <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4430,21 +4427,21 @@
       <c r="U58" s="45"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="58"/>
-      <c r="B59" s="60" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="65" t="s">
+      <c r="D59" s="77"/>
+      <c r="E59" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="65" t="s">
+      <c r="F59" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="56"/>
+      <c r="G59" s="118"/>
       <c r="H59" s="43" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4475,13 +4472,13 @@
       <c r="U59" s="45"/>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="59"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="57"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="50" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4512,21 +4509,21 @@
       <c r="U60" s="45"/>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="58"/>
-      <c r="B61" s="60" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="65" t="s">
+      <c r="D61" s="77"/>
+      <c r="E61" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="56"/>
+      <c r="G61" s="118"/>
       <c r="H61" s="43" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4555,13 +4552,13 @@
       <c r="U61" s="45"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="59"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="57"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="115"/>
       <c r="H62" s="50" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4592,17 +4589,17 @@
       <c r="U62" s="45"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="88">
         <v>2</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="76"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4625,13 +4622,13 @@
       <c r="U63" s="45"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="77"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -4654,21 +4651,21 @@
       <c r="U64" s="45"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="65" t="s">
+      <c r="D65" s="77"/>
+      <c r="E65" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="65" t="s">
+      <c r="F65" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="56"/>
+      <c r="G65" s="118"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4697,13 +4694,13 @@
       <c r="U65" s="45"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="57"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="115"/>
       <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4730,21 +4727,21 @@
       <c r="U66" s="45"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="62"/>
-      <c r="E67" s="65" t="s">
+      <c r="D67" s="77"/>
+      <c r="E67" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="65" t="s">
+      <c r="F67" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="56"/>
+      <c r="G67" s="118"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4773,13 +4770,13 @@
       <c r="U67" s="45"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="57"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="115"/>
       <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4806,21 +4803,21 @@
       <c r="U68" s="45"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="65" t="s">
+      <c r="D69" s="77"/>
+      <c r="E69" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="65" t="s">
+      <c r="F69" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="56"/>
+      <c r="G69" s="118"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4849,13 +4846,13 @@
       <c r="U69" s="45"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="57"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="115"/>
       <c r="H70" s="50" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4884,15 +4881,15 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="86"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="119"/>
       <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
@@ -4932,13 +4929,13 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="81"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="87"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="120"/>
       <c r="H72" s="7" t="s">
         <v>16</v>
       </c>
@@ -4978,19 +4975,19 @@
       <c r="U72" s="45"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58">
+      <c r="A73" s="88">
         <v>1</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="74" t="s">
+      <c r="C73" s="86"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="74"/>
-      <c r="G73" s="76"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="64"/>
       <c r="H73" s="24" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5013,13 +5010,13 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="77"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="25" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5042,21 +5039,21 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="88"/>
+      <c r="B75" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="65" t="s">
+      <c r="D75" s="77"/>
+      <c r="E75" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="65" t="s">
+      <c r="F75" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="56"/>
+      <c r="G75" s="118"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5087,13 +5084,13 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="57"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="115"/>
       <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5124,21 +5121,21 @@
       <c r="U76" s="45"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="88"/>
+      <c r="B77" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C77" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="65" t="s">
+      <c r="D77" s="77"/>
+      <c r="E77" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="65" t="s">
+      <c r="F77" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="56"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5169,13 +5166,13 @@
       <c r="U77" s="45"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="57"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="50" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5206,15 +5203,15 @@
       <c r="U78" s="45"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="78" t="s">
+      <c r="A79" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="86"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="119"/>
       <c r="H79" s="20" t="s">
         <v>14</v>
       </c>
@@ -5254,13 +5251,13 @@
       <c r="U79" s="45"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="81"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="87"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="120"/>
       <c r="H80" s="7" t="s">
         <v>16</v>
       </c>
@@ -5268,7 +5265,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="9">
         <f t="shared" ref="K80:K106" si="16">SUM(L80:Q80)</f>
-        <v>3.1100000000000003</v>
+        <v>2.96</v>
       </c>
       <c r="L80" s="22" cm="1">
         <f t="array" ref="L80">SUMPRODUCT((MOD(ROW(L$81:L$92),2)=0)*L$81:L$92)</f>
@@ -5288,7 +5285,7 @@
       </c>
       <c r="P80" s="22" cm="1">
         <f t="array" ref="P80">SUMPRODUCT((MOD(ROW(P$81:P$92),2)=0)*P$81:P$92)</f>
-        <v>3.1100000000000003</v>
+        <v>2.96</v>
       </c>
       <c r="Q80" s="54" cm="1">
         <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$92),2)=0)*Q$81:Q$92)</f>
@@ -5300,17 +5297,17 @@
       <c r="U80" s="45"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="88">
         <v>1</v>
       </c>
-      <c r="B81" s="61" t="s">
+      <c r="B81" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="76"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5333,13 +5330,13 @@
       <c r="U81" s="45"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="77"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5362,21 +5359,21 @@
       <c r="U82" s="45"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="65" t="s">
+      <c r="D83" s="77"/>
+      <c r="E83" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="65" t="s">
+      <c r="F83" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="118"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5405,13 +5402,13 @@
       <c r="U83" s="45"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="57"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5440,21 +5437,21 @@
       <c r="U84" s="45"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="88"/>
+      <c r="B85" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="61" t="s">
+      <c r="C85" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="65" t="s">
+      <c r="D85" s="77"/>
+      <c r="E85" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="65" t="s">
+      <c r="F85" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="56"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5483,13 +5480,13 @@
       <c r="U85" s="45"/>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="57"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="50" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5518,17 +5515,17 @@
       <c r="U86" s="45"/>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="58">
+      <c r="A87" s="88">
         <v>2</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="76"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="64"/>
       <c r="H87" s="24" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5551,13 +5548,13 @@
       <c r="U87" s="45"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="59"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="77"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="25" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5580,21 +5577,21 @@
       <c r="U88" s="45"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58"/>
-      <c r="B89" s="60" t="s">
+      <c r="A89" s="88"/>
+      <c r="B89" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="65" t="s">
+      <c r="D89" s="77"/>
+      <c r="E89" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="65" t="s">
+      <c r="F89" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="56"/>
+      <c r="G89" s="118"/>
       <c r="H89" s="43" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5623,13 +5620,13 @@
       <c r="U89" s="45"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="57"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="115"/>
       <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5642,14 +5639,14 @@
       </c>
       <c r="K90" s="9">
         <f t="shared" si="16"/>
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="55">
-        <v>1.25</v>
+      <c r="P90" s="41">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q90" s="42"/>
       <c r="R90" s="45"/>
@@ -5658,21 +5655,21 @@
       <c r="U90" s="45"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="61" t="s">
+      <c r="C91" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="62"/>
-      <c r="E91" s="65" t="s">
+      <c r="D91" s="77"/>
+      <c r="E91" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="65" t="s">
+      <c r="F91" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="56"/>
+      <c r="G91" s="118"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5701,13 +5698,13 @@
       <c r="U91" s="45"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="57"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="115"/>
       <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5736,15 +5733,15 @@
       <c r="U92" s="45"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="86"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="119"/>
       <c r="H93" s="20" t="s">
         <v>14</v>
       </c>
@@ -5784,13 +5781,13 @@
       <c r="U93" s="45"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="81"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="87"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="120"/>
       <c r="H94" s="7" t="s">
         <v>16</v>
       </c>
@@ -5830,17 +5827,17 @@
       <c r="U94" s="45"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="88">
         <v>1</v>
       </c>
-      <c r="B95" s="61" t="s">
+      <c r="B95" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="76"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="64"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5863,13 +5860,13 @@
       <c r="U95" s="45"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="77"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -5892,21 +5889,21 @@
       <c r="U96" s="45"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="62"/>
-      <c r="E97" s="65" t="s">
+      <c r="D97" s="77"/>
+      <c r="E97" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="65" t="s">
+      <c r="F97" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="56"/>
+      <c r="G97" s="118"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5935,13 +5932,13 @@
       <c r="U97" s="45"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="57"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="115"/>
       <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5970,21 +5967,21 @@
       <c r="U98" s="45"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="88"/>
+      <c r="B99" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="61" t="s">
+      <c r="C99" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="62"/>
-      <c r="E99" s="65" t="s">
+      <c r="D99" s="77"/>
+      <c r="E99" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="65" t="s">
+      <c r="F99" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="56"/>
+      <c r="G99" s="118"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6013,13 +6010,13 @@
       <c r="U99" s="45"/>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="57"/>
+      <c r="A100" s="89"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="50" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6048,17 +6045,17 @@
       <c r="U100" s="45"/>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="58">
+      <c r="A101" s="88">
         <v>2</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="72"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="76"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="64"/>
       <c r="H101" s="24" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6081,13 +6078,13 @@
       <c r="U101" s="45"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="59"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="77"/>
+      <c r="A102" s="89"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="65"/>
       <c r="H102" s="25" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6110,19 +6107,19 @@
       <c r="U102" s="45"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58"/>
-      <c r="B103" s="60" t="s">
+      <c r="A103" s="88"/>
+      <c r="B103" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="65" t="s">
+      <c r="D103" s="77"/>
+      <c r="E103" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="65"/>
-      <c r="G103" s="56"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="118"/>
       <c r="H103" s="43" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6151,13 +6148,13 @@
       <c r="U103" s="45"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="57"/>
+      <c r="A104" s="89"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="115"/>
       <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6186,19 +6183,19 @@
       <c r="U104" s="45"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="88"/>
+      <c r="B105" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="62"/>
-      <c r="E105" s="65" t="s">
+      <c r="D105" s="77"/>
+      <c r="E105" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="65"/>
-      <c r="G105" s="56"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="118"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6227,13 +6224,13 @@
       <c r="U105" s="45"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="57"/>
+      <c r="A106" s="89"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="115"/>
       <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6328,6 +6325,277 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="295">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
@@ -6352,280 +6620,9 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L81:Q92 L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70">
+  <conditionalFormatting sqref="L37:Q46 L73:Q78 L47:M52 O47:Q52 L95:Q106 L9:Q22 L25:Q34 L55:Q70 L81:Q92">
     <cfRule type="expression" dxfId="9" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -6697,6 +6694,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6880,12 +6883,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
   <ds:schemaRefs>
@@ -6895,6 +6892,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6910,20 +6923,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>